--- a/docs/sota/noria-sota-ontology.xlsx
+++ b/docs/sota/noria-sota-ontology.xlsx
@@ -11,8 +11,8 @@
     <sheet name="ModelSOTA" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ModelSOTA!$A$14:$AB$110</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">ModelSOTA!$D$14:$AA$91</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ModelSOTA!$A$14:$AB$111</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">ModelSOTA!$D$14:$AA$92</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="809">
   <si>
     <t xml:space="preserve">ConceptScheme URI</t>
   </si>
@@ -970,6 +970,21 @@
   </si>
   <si>
     <t xml:space="preserve">SRIN(D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Knowledge Graph to Represent Software Vulnerabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miladtaghaviKnowledgeGraphRepresent2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In relation to cybersecurity, but focusing on software, Taghavi asserts that the rapid increase in vulnerabilities across various types of assets has rendered the synthesis of this knowledge inherently more challenging. In this context, knowledge graphs and their accompanying technology stack have been advocated as a viable solution for modeling, integrating, and facilitating interoperability among diverse data sources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulnerability, Product, Attacker, Attack, Countermeasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depLib, product, cweName, severity, state, disclosedDate</t>
   </si>
   <si>
     <t xml:space="preserve">Generic</t>
@@ -2956,10 +2971,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ927"/>
+  <dimension ref="A1:AMJ928"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X40" activeCellId="0" sqref="X40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3582,14 +3597,14 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="8" t="n">
-        <f aca="false">SUM(K15:K65)</f>
+        <f aca="false">SUM(K15:K66)</f>
         <v>4870</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M13" s="8" t="n">
-        <f aca="false">SUM(M15:M65)</f>
+        <f aca="false">SUM(M15:M66)</f>
         <v>5664</v>
       </c>
       <c r="N13" s="6" t="s">
@@ -6517,7 +6532,7 @@
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C51," ","_") &amp; SUBSTITUTE(D51," ","_") &amp; SUBSTITUTE(E51," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericA_Core_Pattern_for_Events</v>
+        <v>noria-bib-ref:OntologyCyberSecA_Knowledge_Graph_to_Represent_Software_Vulnerabilities</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>49</v>
@@ -6526,81 +6541,56 @@
         <v>50</v>
       </c>
       <c r="D51" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="F51" s="16"/>
+      <c r="G51" s="16" t="s">
         <v>310</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>312</v>
       </c>
       <c r="H51" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K51" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="L51" s="16" t="s">
+      <c r="I51" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="K51" s="17"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="U51" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="M51" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="N51" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="O51" s="18" t="n">
-        <f aca="false">K51/M51</f>
-        <v>1</v>
-      </c>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="R51" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="T51" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="U51" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="V51" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="W51" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="X51" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="3" t="s">
-        <v>318</v>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="AA51" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB51" s="16" t="s">
-        <v>287</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C52," ","_") &amp; SUBSTITUTE(D52," ","_") &amp; SUBSTITUTE(E52," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericActivO</v>
+        <v>noria-bib-ref:OntologyGenericA_Core_Pattern_for_Events</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>49</v>
@@ -6609,57 +6599,81 @@
         <v>50</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E52" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K52" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="M52" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="N52" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="O52" s="18" t="n">
+        <f aca="false">K52/M52</f>
+        <v>1</v>
+      </c>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="R52" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S52" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="T52" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="H52" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I52" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K52" s="1"/>
-      <c r="M52" s="17" t="n">
-        <v>194</v>
-      </c>
-      <c r="N52" s="16" t="s">
+      <c r="U52" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T52" s="16" t="s">
+      <c r="V52" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="W52" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="X52" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="U52" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="16" t="s">
-        <v>100</v>
-      </c>
       <c r="AA52" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB52" s="16" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C53," ","_") &amp; SUBSTITUTE(D53," ","_") &amp; SUBSTITUTE(E53," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericBasic_geo_Ontology</v>
+        <v>noria-bib-ref:OntologyGenericActivO</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>49</v>
@@ -6668,78 +6682,57 @@
         <v>50</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E53" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="F53" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="G53" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="H53" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="M53" s="17" t="n">
+        <v>194</v>
+      </c>
+      <c r="N53" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J53" s="16"/>
-      <c r="K53" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L53" s="16"/>
-      <c r="M53" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N53" s="16"/>
-      <c r="O53" s="18" t="n">
-        <f aca="false">K53/M53</f>
-        <v>1</v>
-      </c>
-      <c r="P53" s="20" t="s">
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T53" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="Q53" s="22" t="s">
+      <c r="U53" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="R53" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S53" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="T53" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="U53" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="V53" s="17" t="n">
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA53" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="W53" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="X53" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z53" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA53" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB53" s="16" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C54," ","_") &amp; SUBSTITUTE(D54," ","_") &amp; SUBSTITUTE(E54," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericCommand_and_Control_ontology_(C2)</v>
+        <v>noria-bib-ref:OntologyGenericBasic_geo_Ontology</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>49</v>
@@ -6748,56 +6741,78 @@
         <v>50</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E54" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" s="16"/>
+      <c r="K54" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L54" s="16"/>
+      <c r="M54" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N54" s="16"/>
+      <c r="O54" s="18" t="n">
+        <f aca="false">K54/M54</f>
+        <v>1</v>
+      </c>
+      <c r="P54" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16" t="s">
+      <c r="Q54" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="H54" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J54" s="1" t="s">
+      <c r="R54" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S54" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="K54" s="1"/>
-      <c r="M54" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="N54" s="16" t="s">
+      <c r="T54" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T54" s="16" t="s">
+      <c r="U54" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="U54" s="16"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
+      <c r="V54" s="17" t="n">
+        <v>61</v>
+      </c>
+      <c r="W54" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="X54" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="Z54" s="16" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="AA54" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB54" s="16" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C55," ","_") &amp; SUBSTITUTE(D55," ","_") &amp; SUBSTITUTE(E55," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericEmOCA</v>
+        <v>noria-bib-ref:OntologyGenericCommand_and_Control_ontology_(C2)</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>49</v>
@@ -6806,83 +6821,56 @@
         <v>50</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="16"/>
+      <c r="G55" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="H55" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="H55" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K55" s="17" t="n">
-        <v>35</v>
-      </c>
-      <c r="L55" s="16" t="s">
+      <c r="K55" s="1"/>
+      <c r="M55" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="N55" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="M55" s="17" t="n">
-        <v>24</v>
-      </c>
-      <c r="N55" s="16" t="s">
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T55" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="O55" s="18" t="n">
-        <f aca="false">K55/M55</f>
-        <v>1.45833333333333</v>
-      </c>
-      <c r="P55" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q55" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="R55" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="T55" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="U55" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="V55" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="W55" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="X55" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y55" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U55" s="16"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
       <c r="Z55" s="16" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="AA55" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB55" s="16" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C56," ","_") &amp; SUBSTITUTE(D56," ","_") &amp; SUBSTITUTE(E56," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericeTOM</v>
+        <v>noria-bib-ref:OntologyGenericEmOCA</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>49</v>
@@ -6891,58 +6879,83 @@
         <v>50</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H56" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I56" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J56" s="1" t="s">
+      <c r="I56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K56" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="M56" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="N56" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="O56" s="18" t="n">
+        <f aca="false">K56/M56</f>
+        <v>1.45833333333333</v>
+      </c>
+      <c r="P56" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q56" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="R56" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="T56" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="K56" s="1"/>
-      <c r="M56" s="17" t="n">
+      <c r="U56" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="V56" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="W56" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="X56" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y56" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="N56" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
       <c r="Z56" s="16" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="AA56" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB56" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C57," ","_") &amp; SUBSTITUTE(D57," ","_") &amp; SUBSTITUTE(E57," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericEvent_Ontology</v>
+        <v>noria-bib-ref:OntologyGenericeTOM</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>49</v>
@@ -6951,86 +6964,58 @@
         <v>50</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E57" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F57" s="16" t="s">
         <v>354</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>311</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>355</v>
       </c>
       <c r="H57" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J57" s="1" t="s">
+      <c r="K57" s="1"/>
+      <c r="M57" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="K57" s="17" t="n">
-        <v>244</v>
-      </c>
-      <c r="L57" s="16" t="s">
+      <c r="O57" s="16"/>
+      <c r="P57" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="M57" s="17" t="n">
-        <v>244</v>
-      </c>
-      <c r="N57" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="O57" s="18" t="n">
-        <f aca="false">K57/M57</f>
-        <v>1</v>
-      </c>
-      <c r="P57" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q57" s="16" t="s">
-        <v>360</v>
-      </c>
+      <c r="Q57" s="16"/>
       <c r="R57" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="T57" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="U57" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="V57" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="W57" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="X57" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="17" t="n">
-        <v>2</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
       <c r="Z57" s="16" t="s">
-        <v>365</v>
+        <v>60</v>
       </c>
       <c r="AA57" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB57" s="16" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C58," ","_") &amp; SUBSTITUTE(D58," ","_") &amp; SUBSTITUTE(E58," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericEventKG</v>
+        <v>noria-bib-ref:OntologyGenericEvent_Ontology</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>49</v>
@@ -7039,71 +7024,74 @@
         <v>50</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="J58" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="K58" s="17" t="n">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M58" s="17" t="n">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="N58" s="16" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="O58" s="18" t="n">
         <f aca="false">K58/M58</f>
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="P58" s="16" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="Q58" s="16" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="R58" s="16" t="s">
-        <v>151</v>
+        <v>366</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="T58" s="16" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="U58" s="16" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="V58" s="17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W58" s="17" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="X58" s="17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y58" s="17" t="n">
         <v>2</v>
       </c>
       <c r="Z58" s="16" t="s">
-        <v>155</v>
+        <v>370</v>
       </c>
       <c r="AA58" s="16" t="s">
         <v>87</v>
@@ -7115,80 +7103,80 @@
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C59," ","_") &amp; SUBSTITUTE(D59," ","_") &amp; SUBSTITUTE(E59," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericFARO</v>
-      </c>
-      <c r="B59" s="3" t="s">
+        <v>noria-bib-ref:OntologyGenericEventKG</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>64</v>
+        <v>374</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J59" s="16"/>
       <c r="K59" s="17" t="n">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="L59" s="16" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M59" s="17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N59" s="16" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="O59" s="18" t="n">
-        <v>0</v>
+        <f aca="false">K59/M59</f>
+        <v>2.9</v>
       </c>
       <c r="P59" s="16" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="R59" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="S59" s="16" t="s">
-        <v>384</v>
+      <c r="S59" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="T59" s="16" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="U59" s="16" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="V59" s="17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W59" s="17" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="X59" s="17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y59" s="17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z59" s="16" t="s">
-        <v>387</v>
+        <v>155</v>
       </c>
       <c r="AA59" s="16" t="s">
         <v>87</v>
@@ -7200,91 +7188,92 @@
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C60," ","_") &amp; SUBSTITUTE(D60," ","_") &amp; SUBSTITUTE(E60," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericFOAF</v>
-      </c>
-      <c r="B60" s="16" t="s">
+        <v>noria-bib-ref:OntologyGenericFARO</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="H60" s="16"/>
+        <v>384</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I60" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="16"/>
+      <c r="K60" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="M60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="O60" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q60" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="R60" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S60" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="T60" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="U60" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="K60" s="17" t="n">
-        <v>1320</v>
-      </c>
-      <c r="L60" s="16" t="s">
+      <c r="V60" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="W60" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="X60" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="16" t="s">
         <v>392</v>
-      </c>
-      <c r="M60" s="17" t="n">
-        <v>1320</v>
-      </c>
-      <c r="N60" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="O60" s="18" t="n">
-        <f aca="false">K60/M60</f>
-        <v>1</v>
-      </c>
-      <c r="P60" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q60" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="R60" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="T60" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="U60" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="V60" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="W60" s="17" t="n">
-        <v>36</v>
-      </c>
-      <c r="X60" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y60" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="16" t="s">
-        <v>398</v>
       </c>
       <c r="AA60" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB60" s="16"/>
+      <c r="AB60" s="16" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C61," ","_") &amp; SUBSTITUTE(D61," ","_") &amp; SUBSTITUTE(E61," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericGeonames</v>
+        <v>noria-bib-ref:OntologyGenericFOAF</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>49</v>
@@ -7293,70 +7282,72 @@
         <v>50</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>71</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="H61" s="16"/>
       <c r="I61" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K61" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L61" s="16"/>
+        <v>1320</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>397</v>
+      </c>
       <c r="M61" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N61" s="16"/>
+        <v>1320</v>
+      </c>
+      <c r="N61" s="16" t="s">
+        <v>397</v>
+      </c>
       <c r="O61" s="18" t="n">
         <f aca="false">K61/M61</f>
         <v>1</v>
       </c>
       <c r="P61" s="16" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q61" s="16" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="R61" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="T61" s="16" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="U61" s="16" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="V61" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="W61" s="17" t="n">
+        <v>36</v>
+      </c>
+      <c r="X61" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="W61" s="17" t="n">
-        <v>33</v>
-      </c>
-      <c r="X61" s="17" t="n">
-        <v>17</v>
-      </c>
       <c r="Y61" s="17" t="n">
-        <v>701</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="16" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="AA61" s="16" t="s">
         <v>87</v>
@@ -7366,7 +7357,7 @@
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C62," ","_") &amp; SUBSTITUTE(D62," ","_") &amp; SUBSTITUTE(E62," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericGeoSPARQL</v>
+        <v>noria-bib-ref:OntologyGenericGeonames</v>
       </c>
       <c r="B62" s="16" t="s">
         <v>49</v>
@@ -7375,81 +7366,80 @@
         <v>50</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="H62" s="16"/>
+        <v>406</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="I62" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K62" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="L62" s="16" t="s">
-        <v>413</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="L62" s="16"/>
       <c r="M62" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="N62" s="16" t="s">
-        <v>413</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="N62" s="16"/>
       <c r="O62" s="18" t="n">
         <f aca="false">K62/M62</f>
         <v>1</v>
       </c>
       <c r="P62" s="16" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="R62" s="16" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="T62" s="16" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="U62" s="16" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="V62" s="17" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="W62" s="17" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="X62" s="17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y62" s="17" t="n">
-        <v>0</v>
+        <v>701</v>
       </c>
       <c r="Z62" s="16" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AA62" s="16" t="s">
         <v>87</v>
       </c>
+      <c r="AB62" s="16"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C63," ","_") &amp; SUBSTITUTE(D63," ","_") &amp; SUBSTITUTE(E63," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericMining_Minds_Context_Ontology</v>
+        <v>noria-bib-ref:OntologyGenericGeoSPARQL</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>49</v>
@@ -7458,69 +7448,72 @@
         <v>50</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>64</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="H63" s="16"/>
       <c r="I63" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="J63" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="K63" s="17" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="L63" s="16" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M63" s="17" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="N63" s="16" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O63" s="18" t="n">
         <f aca="false">K63/M63</f>
         <v>1</v>
       </c>
-      <c r="P63" s="16"/>
+      <c r="P63" s="16" t="s">
+        <v>419</v>
+      </c>
       <c r="Q63" s="16" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="R63" s="16" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="T63" s="16" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="U63" s="16" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="V63" s="17" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="W63" s="17" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="X63" s="17" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Y63" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z63" s="16" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="AA63" s="16" t="s">
         <v>87</v>
@@ -7529,7 +7522,7 @@
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C64," ","_") &amp; SUBSTITUTE(D64," ","_") &amp; SUBSTITUTE(E64," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericOM</v>
+        <v>noria-bib-ref:OntologyGenericMining_Minds_Context_Ontology</v>
       </c>
       <c r="B64" s="16" t="s">
         <v>49</v>
@@ -7538,70 +7531,69 @@
         <v>50</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="H64" s="16"/>
+        <v>427</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J64" s="16"/>
       <c r="K64" s="17" t="n">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="L64" s="16" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M64" s="17" t="n">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="N64" s="16" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="O64" s="18" t="n">
         <f aca="false">K64/M64</f>
         <v>1</v>
       </c>
-      <c r="P64" s="20" t="s">
-        <v>433</v>
-      </c>
+      <c r="P64" s="16"/>
       <c r="Q64" s="16" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="R64" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="S64" s="16" t="s">
-        <v>435</v>
+      <c r="S64" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="T64" s="16" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="U64" s="16" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="V64" s="17" t="n">
-        <v>815</v>
+        <v>52</v>
       </c>
       <c r="W64" s="17" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="X64" s="17" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Y64" s="17" t="n">
-        <v>2242</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="16" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="AA64" s="16" t="s">
         <v>87</v>
@@ -7610,7 +7602,7 @@
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C65," ","_") &amp; SUBSTITUTE(D65," ","_") &amp; SUBSTITUTE(E65," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericOWL-S</v>
+        <v>noria-bib-ref:OntologyGenericOM</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>49</v>
@@ -7619,84 +7611,79 @@
         <v>50</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>64</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="H65" s="16"/>
       <c r="I65" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>442</v>
-      </c>
+      <c r="J65" s="16"/>
       <c r="K65" s="17" t="n">
-        <v>2340</v>
+        <v>228</v>
       </c>
       <c r="L65" s="16" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M65" s="17" t="n">
-        <v>2340</v>
+        <v>228</v>
       </c>
       <c r="N65" s="16" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="O65" s="18" t="n">
         <f aca="false">K65/M65</f>
         <v>1</v>
       </c>
       <c r="P65" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q65" s="3"/>
+        <v>438</v>
+      </c>
+      <c r="Q65" s="16" t="s">
+        <v>439</v>
+      </c>
       <c r="R65" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="S65" s="1" t="s">
-        <v>445</v>
+      <c r="S65" s="16" t="s">
+        <v>440</v>
       </c>
       <c r="T65" s="16" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="U65" s="16" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="V65" s="17" t="n">
-        <v>86</v>
+        <v>815</v>
       </c>
       <c r="W65" s="17" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="X65" s="17" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Y65" s="17" t="n">
-        <v>13</v>
+        <v>2242</v>
       </c>
       <c r="Z65" s="16" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AA65" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="AB65" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C66," ","_") &amp; SUBSTITUTE(D66," ","_") &amp; SUBSTITUTE(E66," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericOWL-Time</v>
+        <v>noria-bib-ref:OntologyGenericOWL-S</v>
       </c>
       <c r="B66" s="16" t="s">
         <v>49</v>
@@ -7705,82 +7692,84 @@
         <v>50</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>451</v>
+        <v>444</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>445</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="H66" s="16"/>
+        <v>446</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I66" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J66" s="16"/>
+      <c r="J66" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="K66" s="17" t="n">
-        <v>6</v>
+        <v>2340</v>
       </c>
       <c r="L66" s="16" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="M66" s="17" t="n">
-        <v>6</v>
+        <v>2340</v>
       </c>
       <c r="N66" s="16" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="O66" s="18" t="n">
         <f aca="false">K66/M66</f>
         <v>1</v>
       </c>
       <c r="P66" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q66" s="20" t="s">
-        <v>455</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="Q66" s="3"/>
       <c r="R66" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S66" s="16" t="s">
-        <v>456</v>
+        <v>192</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="T66" s="16" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="U66" s="16" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="V66" s="17" t="n">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="W66" s="17" t="n">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="X66" s="17" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Y66" s="17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z66" s="16" t="s">
-        <v>185</v>
+        <v>453</v>
       </c>
       <c r="AA66" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>287</v>
+        <v>454</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C67," ","_") &amp; SUBSTITUTE(D67," ","_") &amp; SUBSTITUTE(E67," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericoXPDL :_A_process_ontology_for_business_intelligence</v>
+        <v>noria-bib-ref:OntologyGenericOWL-Time</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>49</v>
@@ -7789,35 +7778,49 @@
         <v>50</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E67" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="H67" s="16"/>
+      <c r="I67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J67" s="16"/>
+      <c r="K67" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="M67" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N67" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="O67" s="18" t="n">
+        <f aca="false">K67/M67</f>
+        <v>1</v>
+      </c>
+      <c r="P67" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="F67" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="G67" s="16" t="s">
+      <c r="Q67" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="H67" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K67" s="1"/>
-      <c r="M67" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="N67" s="16" t="s">
+      <c r="R67" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S67" s="16" t="s">
         <v>461</v>
-      </c>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="T67" s="16" t="s">
         <v>462</v>
@@ -7825,21 +7828,32 @@
       <c r="U67" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="V67" s="17"/>
-      <c r="W67" s="17"/>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="17"/>
+      <c r="V67" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="W67" s="17" t="n">
+        <v>33</v>
+      </c>
+      <c r="X67" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y67" s="17" t="n">
+        <v>15</v>
+      </c>
       <c r="Z67" s="16" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="AA67" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB67" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C68," ","_") &amp; SUBSTITUTE(D68," ","_") &amp; SUBSTITUTE(E68," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericProcedure_Execution_Platform</v>
+        <v>noria-bib-ref:OntologyGenericoXPDL :_A_process_ontology_for_business_intelligence</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>49</v>
@@ -7847,84 +7861,58 @@
       <c r="C68" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="D68" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="G68" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="H68" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="M68" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="N68" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K68" s="17" t="n">
-        <v>40</v>
-      </c>
-      <c r="L68" s="16" t="s">
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T68" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="M68" s="17" t="n">
-        <v>40</v>
-      </c>
-      <c r="N68" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="O68" s="18" t="n">
-        <f aca="false">K68/M68</f>
-        <v>1</v>
-      </c>
-      <c r="P68" s="23" t="s">
+      <c r="U68" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="Q68" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="R68" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="T68" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="U68" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="V68" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="W68" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="X68" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z68" s="1" t="s">
-        <v>473</v>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+      <c r="X68" s="17"/>
+      <c r="Y68" s="17"/>
+      <c r="Z68" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AA68" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB68" s="1" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C69," ","_") &amp; SUBSTITUTE(D69," ","_") &amp; SUBSTITUTE(E69," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericPROV-O</v>
+        <v>noria-bib-ref:OntologyGenericProcedure_Execution_Platform</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>49</v>
@@ -7932,81 +7920,84 @@
       <c r="C69" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D69" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>475</v>
+      <c r="D69" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="H69" s="16"/>
+        <v>471</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="I69" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J69" s="16"/>
       <c r="K69" s="17" t="n">
-        <v>726</v>
+        <v>40</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="M69" s="17" t="n">
-        <v>726</v>
+        <v>40</v>
       </c>
       <c r="N69" s="16" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="O69" s="18" t="n">
         <f aca="false">K69/M69</f>
         <v>1</v>
       </c>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="20" t="s">
-        <v>478</v>
+      <c r="P69" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q69" s="24" t="s">
+        <v>474</v>
       </c>
       <c r="R69" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="S69" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="T69" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="U69" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="V69" s="17" t="n">
-        <v>31</v>
-      </c>
-      <c r="W69" s="17" t="n">
-        <v>44</v>
-      </c>
-      <c r="X69" s="17" t="n">
+      <c r="S69" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="V69" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="Y69" s="17" t="n">
+      <c r="W69" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="X69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Z69" s="16" t="s">
-        <v>482</v>
+      <c r="Z69" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="AA69" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB69" s="1" t="s">
-        <v>287</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C70," ","_") &amp; SUBSTITUTE(D70," ","_") &amp; SUBSTITUTE(E70," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericQUDT</v>
+        <v>noria-bib-ref:OntologyGenericPROV-O</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>49</v>
@@ -8015,14 +8006,16 @@
         <v>50</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="F70" s="16"/>
+        <v>479</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>480</v>
+      </c>
       <c r="G70" s="16" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H70" s="16"/>
       <c r="I70" s="1" t="s">
@@ -8030,53 +8023,51 @@
       </c>
       <c r="J70" s="16"/>
       <c r="K70" s="17" t="n">
-        <v>70</v>
+        <v>726</v>
       </c>
       <c r="L70" s="16" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M70" s="17" t="n">
-        <v>70</v>
+        <v>726</v>
       </c>
       <c r="N70" s="16" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="O70" s="18" t="n">
         <f aca="false">K70/M70</f>
         <v>1</v>
       </c>
-      <c r="P70" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q70" s="25" t="s">
-        <v>487</v>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="20" t="s">
+        <v>483</v>
       </c>
       <c r="R70" s="16" t="s">
         <v>151</v>
       </c>
       <c r="S70" s="16" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="T70" s="16" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="U70" s="16" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="V70" s="17" t="n">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="W70" s="17" t="n">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="X70" s="17" t="n">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="Y70" s="17" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="Z70" s="16" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="AA70" s="16" t="s">
         <v>87</v>
@@ -8088,7 +8079,7 @@
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C71," ","_") &amp; SUBSTITUTE(D71," ","_") &amp; SUBSTITUTE(E71," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericSemantic_Sensor_Network_Ontology</v>
+        <v>noria-bib-ref:OntologyGenericQUDT</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>49</v>
@@ -8097,83 +8088,80 @@
         <v>50</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>493</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="F71" s="16"/>
       <c r="G71" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="H71" s="16" t="s">
-        <v>64</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="H71" s="16"/>
       <c r="I71" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="J71" s="16"/>
       <c r="K71" s="17" t="n">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="L71" s="16" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M71" s="17" t="n">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="N71" s="16" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="O71" s="18" t="n">
         <f aca="false">K71/M71</f>
         <v>1</v>
       </c>
-      <c r="P71" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q71" s="26" t="s">
-        <v>497</v>
+      <c r="P71" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q71" s="25" t="s">
+        <v>492</v>
       </c>
       <c r="R71" s="16" t="s">
         <v>151</v>
       </c>
       <c r="S71" s="16" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="T71" s="16" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="U71" s="16" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="V71" s="17" t="n">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="W71" s="17" t="n">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="X71" s="17" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="Y71" s="17" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="Z71" s="16" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="AA71" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>502</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C72," ","_") &amp; SUBSTITUTE(D72," ","_") &amp; SUBSTITUTE(E72," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericTemporal_Ontology:_Tenselessness_and_Quantification</v>
+        <v>noria-bib-ref:OntologyGenericSemantic_Sensor_Network_Ontology</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>49</v>
@@ -8182,53 +8170,83 @@
         <v>50</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E72" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="G72" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K72" s="17" t="n">
+        <v>137</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="M72" s="17" t="n">
+        <v>137</v>
+      </c>
+      <c r="N72" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="O72" s="18" t="n">
+        <f aca="false">K72/M72</f>
+        <v>1</v>
+      </c>
+      <c r="P72" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q72" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="R72" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S72" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="T72" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="U72" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="H72" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I72" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K72" s="1"/>
-      <c r="M72" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N72" s="16" t="s">
+      <c r="V72" s="17" t="n">
+        <v>39</v>
+      </c>
+      <c r="W72" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="X72" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z72" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="17"/>
-      <c r="W72" s="17"/>
-      <c r="X72" s="17"/>
-      <c r="Y72" s="17"/>
-      <c r="Z72" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="AA72" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C73," ","_") &amp; SUBSTITUTE(D73," ","_") &amp; SUBSTITUTE(E73," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericVocabulary_Status_Vocabulary</v>
+        <v>noria-bib-ref:OntologyGenericTemporal_Ontology:_Tenselessness_and_Quantification</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>49</v>
@@ -8236,53 +8254,44 @@
       <c r="C73" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="F73" s="1" t="s">
+      <c r="D73" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E73" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="F73" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="G73" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="H73" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J73" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="K73" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M73" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O73" s="18" t="n">
-        <f aca="false">K73/M73</f>
-        <v>1</v>
-      </c>
-      <c r="P73" s="25" t="s">
+      <c r="I73" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="M73" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="Q73" s="25" t="s">
-        <v>512</v>
-      </c>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
       <c r="R73" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="Z73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="17"/>
+      <c r="X73" s="17"/>
+      <c r="Y73" s="17"/>
+      <c r="Z73" s="16" t="s">
         <v>60</v>
       </c>
       <c r="AA73" s="16" t="s">
@@ -8292,7 +8301,7 @@
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C74," ","_") &amp; SUBSTITUTE(D74," ","_") &amp; SUBSTITUTE(E74," ","_")</f>
-        <v>noria-bib-ref:OntologyHealth_ScienceHeLiS</v>
+        <v>noria-bib-ref:OntologyGenericVocabulary_Status_Vocabulary</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>49</v>
@@ -8300,87 +8309,63 @@
       <c r="C74" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D74" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>518</v>
-      </c>
-      <c r="H74" s="16" t="s">
-        <v>64</v>
+      <c r="D74" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="K74" s="17" t="n">
-        <v>53</v>
-      </c>
-      <c r="L74" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="M74" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="N74" s="16" t="s">
-        <v>520</v>
+      <c r="J74" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="K74" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M74" s="2" t="n">
+        <v>-1</v>
       </c>
       <c r="O74" s="18" t="n">
         <f aca="false">K74/M74</f>
-        <v>3.11764705882353</v>
-      </c>
-      <c r="P74" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q74" s="20" t="s">
-        <v>522</v>
+        <v>1</v>
+      </c>
+      <c r="P74" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q74" s="25" t="s">
+        <v>517</v>
       </c>
       <c r="R74" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="T74" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="U74" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="V74" s="17" t="n">
-        <v>281</v>
-      </c>
-      <c r="W74" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="X74" s="17" t="n">
-        <v>31</v>
-      </c>
-      <c r="Y74" s="17" t="n">
-        <v>30005</v>
-      </c>
-      <c r="Z74" s="16" t="s">
-        <v>249</v>
+        <v>518</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z74" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="AA74" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB74" s="16" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C75," ","_") &amp; SUBSTITUTE(D75," ","_") &amp; SUBSTITUTE(E75," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITA_Semantic_Framework_for_Enabling_Radio_Spectrum_Policy_Management_and_Evaluation</v>
+        <v>noria-bib-ref:OntologyHealth_ScienceHeLiS</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>49</v>
@@ -8389,57 +8374,86 @@
         <v>50</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="F75" s="16"/>
+        <v>521</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>522</v>
+      </c>
       <c r="G75" s="16" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="H75" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I75" s="16" t="s">
+      <c r="I75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K75" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="L75" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="M75" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="N75" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="O75" s="18" t="n">
+        <f aca="false">K75/M75</f>
+        <v>3.11764705882353</v>
+      </c>
+      <c r="P75" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q75" s="20" t="s">
+        <v>527</v>
+      </c>
+      <c r="R75" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S75" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="T75" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="U75" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="K75" s="1"/>
-      <c r="M75" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N75" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T75" s="16"/>
-      <c r="U75" s="16"/>
-      <c r="V75" s="17"/>
-      <c r="W75" s="17"/>
-      <c r="X75" s="17"/>
-      <c r="Y75" s="17"/>
+      <c r="V75" s="17" t="n">
+        <v>281</v>
+      </c>
+      <c r="W75" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="X75" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y75" s="17" t="n">
+        <v>30005</v>
+      </c>
       <c r="Z75" s="16" t="s">
-        <v>68</v>
+        <v>249</v>
       </c>
       <c r="AA75" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB75" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB75" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C76," ","_") &amp; SUBSTITUTE(D76," ","_") &amp; SUBSTITUTE(E76," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITA_Semantic-Web_Approach_for_Modeling_Computing_Infrastructures_(INDL)</v>
+        <v>noria-bib-ref:OntologyNet-ITA_Semantic_Framework_for_Enabling_Radio_Spectrum_Policy_Management_and_Evaluation</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>49</v>
@@ -8448,86 +8462,57 @@
         <v>50</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E76" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="F76" s="16" t="s">
+      <c r="H76" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I76" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="J76" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="H76" s="16" t="s">
+      <c r="K76" s="1"/>
+      <c r="M76" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J76" s="16" t="s">
+      <c r="O76" s="16"/>
+      <c r="P76" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="K76" s="17" t="n">
-        <v>55</v>
-      </c>
-      <c r="L76" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="M76" s="17" t="n">
-        <v>29</v>
-      </c>
-      <c r="N76" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="O76" s="18" t="n">
-        <f aca="false">K76/M76</f>
-        <v>1.89655172413793</v>
-      </c>
-      <c r="P76" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q76" s="16" t="s">
-        <v>541</v>
-      </c>
+      <c r="Q76" s="16"/>
       <c r="R76" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S76" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="T76" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="U76" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="V76" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="W76" s="17" t="n">
-        <v>29</v>
-      </c>
-      <c r="X76" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y76" s="17" t="n">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="17"/>
+      <c r="W76" s="17"/>
+      <c r="X76" s="17"/>
+      <c r="Y76" s="17"/>
       <c r="Z76" s="16" t="s">
-        <v>545</v>
+        <v>68</v>
       </c>
       <c r="AA76" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB76" s="16" t="s">
-        <v>546</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB76" s="16"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C77," ","_") &amp; SUBSTITUTE(D77," ","_") &amp; SUBSTITUTE(E77," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITA_semantically_distributed_approach_to_map_IP_traffic_measurements_to_a_standardized_ontology</v>
+        <v>noria-bib-ref:OntologyNet-ITA_Semantic-Web_Approach_for_Modeling_Computing_Infrastructures_(INDL)</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>49</v>
@@ -8536,56 +8521,86 @@
         <v>50</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E77" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J77" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="K77" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="L77" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="M77" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="N77" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="O77" s="18" t="n">
+        <f aca="false">K77/M77</f>
+        <v>1.89655172413793</v>
+      </c>
+      <c r="P77" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q77" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="R77" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S77" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="T77" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="U77" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="H77" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I77" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K77" s="1"/>
-      <c r="M77" s="17" t="n">
-        <v>11</v>
-      </c>
-      <c r="N77" s="16" t="s">
+      <c r="V77" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="W77" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="X77" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y77" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T77" s="16" t="s">
+      <c r="AA77" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB77" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="U77" s="16"/>
-      <c r="V77" s="17"/>
-      <c r="W77" s="17"/>
-      <c r="X77" s="17"/>
-      <c r="Y77" s="17"/>
-      <c r="Z77" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA77" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB77" s="16"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C78," ","_") &amp; SUBSTITUTE(D78," ","_") &amp; SUBSTITUTE(E78," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_Ontology_for_Collaborative_Tasks_in_Multi-agent_Systems</v>
+        <v>noria-bib-ref:OntologyNet-ITA_semantically_distributed_approach_to_map_IP_traffic_measurements_to_a_standardized_ontology</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>49</v>
@@ -8594,7 +8609,7 @@
         <v>50</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>552</v>
@@ -8606,14 +8621,14 @@
         <v>554</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="K78" s="1"/>
       <c r="M78" s="17" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N78" s="16" t="s">
         <v>555</v>
@@ -8628,20 +8643,12 @@
         <v>556</v>
       </c>
       <c r="U78" s="16"/>
-      <c r="V78" s="17" t="n">
-        <v>34</v>
-      </c>
-      <c r="W78" s="17" t="n">
-        <v>31</v>
-      </c>
-      <c r="X78" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y78" s="17" t="n">
-        <v>73</v>
-      </c>
+      <c r="V78" s="17"/>
+      <c r="W78" s="17"/>
+      <c r="X78" s="17"/>
+      <c r="Y78" s="17"/>
       <c r="Z78" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AA78" s="16" t="s">
         <v>61</v>
@@ -8651,7 +8658,7 @@
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C79," ","_") &amp; SUBSTITUTE(D79," ","_") &amp; SUBSTITUTE(E79," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_ontology_for_exploring_knowledge_in_computer_networks</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_Ontology_for_Collaborative_Tasks_in_Multi-agent_Systems</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>49</v>
@@ -8660,17 +8667,19 @@
         <v>50</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="F79" s="16"/>
+      <c r="F79" s="16" t="s">
+        <v>558</v>
+      </c>
       <c r="G79" s="16" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I79" s="16" t="s">
         <v>65</v>
@@ -8680,7 +8689,7 @@
         <v>6</v>
       </c>
       <c r="N79" s="16" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O79" s="16"/>
       <c r="P79" s="16"/>
@@ -8689,24 +8698,33 @@
         <v>58</v>
       </c>
       <c r="T79" s="16" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="U79" s="16"/>
-      <c r="V79" s="17"/>
-      <c r="W79" s="17"/>
-      <c r="X79" s="17"/>
-      <c r="Y79" s="17"/>
+      <c r="V79" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="W79" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="X79" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y79" s="17" t="n">
+        <v>73</v>
+      </c>
       <c r="Z79" s="16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AA79" s="16" t="s">
         <v>61</v>
       </c>
+      <c r="AB79" s="16"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C80," ","_") &amp; SUBSTITUTE(D80," ","_") &amp; SUBSTITUTE(E80," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_ontology_for_managing_network_services_quality</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_ontology_for_exploring_knowledge_in_computer_networks</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>49</v>
@@ -8715,27 +8733,27 @@
         <v>50</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K80" s="1"/>
       <c r="M80" s="17" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N80" s="16" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O80" s="16"/>
       <c r="P80" s="16"/>
@@ -8743,7 +8761,9 @@
       <c r="R80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T80" s="16"/>
+      <c r="T80" s="16" t="s">
+        <v>565</v>
+      </c>
       <c r="U80" s="16"/>
       <c r="V80" s="17"/>
       <c r="W80" s="17"/>
@@ -8755,12 +8775,11 @@
       <c r="AA80" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AB80" s="16"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C81," ","_") &amp; SUBSTITUTE(D81," ","_") &amp; SUBSTITUTE(E81," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_Ontology_for_Network_Services</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_ontology_for_managing_network_services_quality</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>49</v>
@@ -8769,29 +8788,27 @@
         <v>50</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>564</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>565</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="F81" s="16"/>
       <c r="G81" s="16" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I81" s="16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K81" s="1"/>
       <c r="M81" s="17" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N81" s="16" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O81" s="16"/>
       <c r="P81" s="16"/>
@@ -8816,7 +8833,7 @@
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C82," ","_") &amp; SUBSTITUTE(D82," ","_") &amp; SUBSTITUTE(E82," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_ontology-based_approach_to_improve_SNMP_support_for_autonomic_management</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_Ontology_for_Network_Services</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>49</v>
@@ -8825,29 +8842,29 @@
         <v>50</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="F82" s="16" t="s">
         <v>569</v>
       </c>
+      <c r="F82" s="3" t="s">
+        <v>570</v>
+      </c>
       <c r="G82" s="16" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K82" s="1"/>
       <c r="M82" s="17" t="n">
         <v>2</v>
       </c>
       <c r="N82" s="16" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
@@ -8855,9 +8872,7 @@
       <c r="R82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T82" s="16" t="s">
-        <v>572</v>
-      </c>
+      <c r="T82" s="16"/>
       <c r="U82" s="16"/>
       <c r="V82" s="17"/>
       <c r="W82" s="17"/>
@@ -8869,11 +8884,12 @@
       <c r="AA82" s="16" t="s">
         <v>61</v>
       </c>
+      <c r="AB82" s="16"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C83," ","_") &amp; SUBSTITUTE(D83," ","_") &amp; SUBSTITUTE(E83," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_ontology-based_approach_to_improve_SNMP_support_for_autonomic_management</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>49</v>
@@ -8882,7 +8898,7 @@
         <v>50</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>573</v>
@@ -8894,66 +8910,43 @@
         <v>575</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J83" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K83" s="1"/>
+      <c r="M83" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="K83" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="L83" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="M83" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="N83" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="O83" s="18" t="n">
-        <f aca="false">K83/M83</f>
-        <v>2.16666666666667</v>
-      </c>
-      <c r="P83" s="22" t="s">
-        <v>579</v>
-      </c>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
       <c r="Q83" s="16"/>
       <c r="R83" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S83" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="T83" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="T83" s="16" t="s">
+        <v>577</v>
+      </c>
       <c r="U83" s="16"/>
-      <c r="V83" s="17" t="n">
-        <v>77</v>
-      </c>
-      <c r="W83" s="17" t="n">
-        <v>105</v>
-      </c>
-      <c r="X83" s="17" t="n">
-        <v>148</v>
-      </c>
-      <c r="Y83" s="17" t="n">
-        <v>15</v>
-      </c>
+      <c r="V83" s="17"/>
+      <c r="W83" s="17"/>
+      <c r="X83" s="17"/>
+      <c r="Y83" s="17"/>
       <c r="Z83" s="16" t="s">
-        <v>581</v>
+        <v>60</v>
       </c>
       <c r="AA83" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB83" s="16"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C84," ","_") &amp; SUBSTITUTE(D84," ","_") &amp; SUBSTITUTE(E84," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_network</v>
+        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>49</v>
@@ -8962,16 +8955,16 @@
         <v>50</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="H84" s="16" t="s">
         <v>71</v>
@@ -8979,18 +8972,20 @@
       <c r="I84" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J84" s="16"/>
+      <c r="J84" s="16" t="s">
+        <v>581</v>
+      </c>
       <c r="K84" s="17" t="n">
         <v>13</v>
       </c>
       <c r="L84" s="16" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="M84" s="17" t="n">
         <v>6</v>
       </c>
       <c r="N84" s="16" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="O84" s="18" t="n">
         <f aca="false">K84/M84</f>
@@ -8999,47 +8994,39 @@
       <c r="P84" s="22" t="s">
         <v>584</v>
       </c>
-      <c r="Q84" s="16" t="s">
-        <v>585</v>
-      </c>
+      <c r="Q84" s="16"/>
       <c r="R84" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S84" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="T84" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="17" t="n">
+        <v>77</v>
+      </c>
+      <c r="W84" s="17" t="n">
+        <v>105</v>
+      </c>
+      <c r="X84" s="17" t="n">
+        <v>148</v>
+      </c>
+      <c r="Y84" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z84" s="16" t="s">
         <v>586</v>
-      </c>
-      <c r="U84" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="V84" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="W84" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="X84" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y84" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z84" s="16" t="s">
-        <v>196</v>
       </c>
       <c r="AA84" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB84" s="16" t="s">
-        <v>279</v>
-      </c>
+      <c r="AB84" s="16"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C85," ","_") &amp; SUBSTITUTE(D85," ","_") &amp; SUBSTITUTE(E85," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_product</v>
+        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_network</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>49</v>
@@ -9048,16 +9035,16 @@
         <v>50</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E85" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="F85" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="F85" s="16" t="s">
-        <v>589</v>
-      </c>
       <c r="G85" s="16" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="H85" s="16" t="s">
         <v>71</v>
@@ -9070,62 +9057,62 @@
         <v>13</v>
       </c>
       <c r="L85" s="16" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="M85" s="17" t="n">
         <v>6</v>
       </c>
       <c r="N85" s="16" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="O85" s="18" t="n">
         <f aca="false">K85/M85</f>
         <v>2.16666666666667</v>
       </c>
       <c r="P85" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q85" s="16" t="s">
         <v>590</v>
-      </c>
-      <c r="Q85" s="16" t="s">
-        <v>591</v>
       </c>
       <c r="R85" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S85" s="16" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="T85" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="U85" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="U85" s="16" t="s">
-        <v>593</v>
-      </c>
       <c r="V85" s="17" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="W85" s="17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="X85" s="17" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Y85" s="17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z85" s="16" t="s">
-        <v>594</v>
+        <v>196</v>
       </c>
       <c r="AA85" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB85" s="16" t="s">
-        <v>595</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C86," ","_") &amp; SUBSTITUTE(D86," ","_") &amp; SUBSTITUTE(E86," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_workflow</v>
+        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_product</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>49</v>
@@ -9134,16 +9121,16 @@
         <v>50</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="H86" s="16" t="s">
         <v>71</v>
@@ -9156,62 +9143,62 @@
         <v>13</v>
       </c>
       <c r="L86" s="16" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="M86" s="17" t="n">
         <v>6</v>
       </c>
       <c r="N86" s="16" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="O86" s="18" t="n">
         <f aca="false">K86/M86</f>
         <v>2.16666666666667</v>
       </c>
       <c r="P86" s="22" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="Q86" s="16" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="R86" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S86" s="16" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="T86" s="16" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="U86" s="16" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="V86" s="17" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="W86" s="17" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="X86" s="17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Y86" s="17" t="n">
         <v>2</v>
       </c>
       <c r="Z86" s="16" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="AA86" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB86" s="16" t="s">
-        <v>88</v>
+        <v>600</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C87," ","_") &amp; SUBSTITUTE(D87," ","_") &amp; SUBSTITUTE(E87," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITModels_of_Telecommunications_Network_Monitoring_Based_on_Knowledge_Graphs</v>
+        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_workflow</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>49</v>
@@ -9220,56 +9207,84 @@
         <v>50</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E87" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="F87" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="F87" s="16" t="s">
-        <v>603</v>
-      </c>
       <c r="G87" s="16" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I87" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K87" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J87" s="16"/>
+      <c r="K87" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="L87" s="16" t="s">
+        <v>582</v>
+      </c>
       <c r="M87" s="17" t="n">
         <v>6</v>
       </c>
       <c r="N87" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="O87" s="18" t="n">
+        <f aca="false">K87/M87</f>
+        <v>2.16666666666667</v>
+      </c>
+      <c r="P87" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q87" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="R87" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S87" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="T87" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="O87" s="16"/>
-      <c r="P87" s="16"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T87" s="16" t="s">
+      <c r="U87" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="U87" s="16"/>
-      <c r="V87" s="17"/>
-      <c r="W87" s="17"/>
-      <c r="X87" s="17"/>
-      <c r="Y87" s="17"/>
+      <c r="V87" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="W87" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="X87" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y87" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="Z87" s="16" t="s">
-        <v>60</v>
+        <v>599</v>
       </c>
       <c r="AA87" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB87" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB87" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C88," ","_") &amp; SUBSTITUTE(D88," ","_") &amp; SUBSTITUTE(E88," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITStandardizing_Ontologies_for_the_IP_Traffic_Measurement</v>
+        <v>noria-bib-ref:OntologyNet-ITModels_of_Telecommunications_Network_Monitoring_Based_on_Knowledge_Graphs</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>49</v>
@@ -9278,33 +9293,39 @@
         <v>50</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="F88" s="16"/>
+      <c r="F88" s="16" t="s">
+        <v>608</v>
+      </c>
       <c r="G88" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>536</v>
+        <v>55</v>
       </c>
       <c r="I88" s="16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K88" s="1"/>
       <c r="M88" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N88" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="N88" s="16" t="s">
+        <v>610</v>
+      </c>
       <c r="O88" s="16"/>
       <c r="P88" s="16"/>
       <c r="Q88" s="16"/>
       <c r="R88" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T88" s="16"/>
+      <c r="T88" s="16" t="s">
+        <v>611</v>
+      </c>
       <c r="U88" s="16"/>
       <c r="V88" s="17"/>
       <c r="W88" s="17"/>
@@ -9321,7 +9342,7 @@
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C89," ","_") &amp; SUBSTITUTE(D89," ","_") &amp; SUBSTITUTE(E89," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITTelecommunications_Service_Domain_Ontology_(TSDO)</v>
+        <v>noria-bib-ref:OntologyNet-ITStandardizing_Ontologies_for_the_IP_Traffic_Measurement</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>49</v>
@@ -9330,46 +9351,40 @@
         <v>50</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="F89" s="16" t="s">
-        <v>610</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="F89" s="16"/>
       <c r="G89" s="16" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>64</v>
+        <v>541</v>
       </c>
       <c r="I89" s="16" t="s">
         <v>65</v>
       </c>
       <c r="K89" s="1"/>
       <c r="M89" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="N89" s="16" t="s">
-        <v>612</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="N89" s="16"/>
       <c r="O89" s="16"/>
       <c r="P89" s="16"/>
       <c r="Q89" s="16"/>
       <c r="R89" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T89" s="16" t="s">
-        <v>613</v>
-      </c>
+      <c r="T89" s="16"/>
       <c r="U89" s="16"/>
       <c r="V89" s="17"/>
       <c r="W89" s="17"/>
       <c r="X89" s="17"/>
       <c r="Y89" s="17"/>
       <c r="Z89" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AA89" s="16" t="s">
         <v>61</v>
@@ -9379,7 +9394,7 @@
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C90," ","_") &amp; SUBSTITUTE(D90," ","_") &amp; SUBSTITUTE(E90," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITThe_SEAS_Communication_ontology</v>
+        <v>noria-bib-ref:OntologyNet-ITTelecommunications_Service_Domain_Ontology_(TSDO)</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>49</v>
@@ -9388,86 +9403,56 @@
         <v>50</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>614</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="16" t="s">
         <v>615</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>466</v>
+        <v>616</v>
       </c>
       <c r="H90" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J90" s="16" t="s">
-        <v>616</v>
-      </c>
-      <c r="K90" s="17" t="n">
-        <v>40</v>
-      </c>
-      <c r="L90" s="16" t="s">
-        <v>467</v>
-      </c>
+      <c r="I90" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K90" s="1"/>
       <c r="M90" s="17" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N90" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="O90" s="18" t="n">
-        <f aca="false">K90/M90</f>
-        <v>1</v>
-      </c>
-      <c r="P90" s="20" t="s">
         <v>617</v>
       </c>
-      <c r="Q90" s="27" t="s">
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T90" s="16" t="s">
         <v>618</v>
       </c>
-      <c r="R90" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S90" s="16" t="s">
-        <v>619</v>
-      </c>
-      <c r="T90" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="U90" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="V90" s="17" t="n">
-        <v>69</v>
-      </c>
-      <c r="W90" s="17" t="n">
-        <v>46</v>
-      </c>
-      <c r="X90" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y90" s="17" t="n">
-        <v>6</v>
-      </c>
+      <c r="U90" s="16"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="17"/>
+      <c r="X90" s="17"/>
+      <c r="Y90" s="17"/>
       <c r="Z90" s="16" t="s">
-        <v>482</v>
+        <v>68</v>
       </c>
       <c r="AA90" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB90" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB90" s="16"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C91," ","_") &amp; SUBSTITUTE(D91," ","_") &amp; SUBSTITUTE(E91," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITToCo</v>
+        <v>noria-bib-ref:OntologyNet-ITThe_SEAS_Communication_ontology</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>49</v>
@@ -9476,14 +9461,16 @@
         <v>50</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>622</v>
-      </c>
-      <c r="F91" s="3"/>
+        <v>619</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="G91" s="16" t="s">
-        <v>623</v>
+        <v>471</v>
       </c>
       <c r="H91" s="16" t="s">
         <v>64</v>
@@ -9491,69 +9478,69 @@
       <c r="I91" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>624</v>
+      <c r="J91" s="16" t="s">
+        <v>621</v>
       </c>
       <c r="K91" s="17" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L91" s="16" t="s">
-        <v>625</v>
+        <v>472</v>
       </c>
       <c r="M91" s="17" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="N91" s="16" t="s">
-        <v>626</v>
+        <v>472</v>
       </c>
       <c r="O91" s="18" t="n">
         <f aca="false">K91/M91</f>
-        <v>4.33333333333333</v>
+        <v>1</v>
       </c>
       <c r="P91" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q91" s="20" t="s">
-        <v>628</v>
+        <v>622</v>
+      </c>
+      <c r="Q91" s="27" t="s">
+        <v>623</v>
       </c>
       <c r="R91" s="16" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="S91" s="16" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="T91" s="16" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="U91" s="16" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="V91" s="17" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="W91" s="17" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="X91" s="17" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="Y91" s="17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z91" s="16" t="s">
-        <v>632</v>
+        <v>487</v>
       </c>
       <c r="AA91" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB91" s="1" t="s">
-        <v>633</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C92," ","_") &amp; SUBSTITUTE(D92," ","_") &amp; SUBSTITUTE(E92," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITToward_Auto-configuration_in_Software_networks</v>
+        <v>noria-bib-ref:OntologyNet-ITToCo</v>
       </c>
       <c r="B92" s="16" t="s">
         <v>49</v>
@@ -9562,54 +9549,84 @@
         <v>50</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E92" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="K92" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="L92" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="M92" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="O92" s="18" t="n">
+        <f aca="false">K92/M92</f>
+        <v>4.33333333333333</v>
+      </c>
+      <c r="P92" s="20" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q92" s="20" t="s">
+        <v>633</v>
+      </c>
+      <c r="R92" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S92" s="16" t="s">
         <v>634</v>
       </c>
-      <c r="F92" s="16" t="s">
+      <c r="T92" s="16" t="s">
         <v>635</v>
       </c>
-      <c r="G92" s="16" t="s">
+      <c r="U92" s="16" t="s">
         <v>636</v>
       </c>
-      <c r="H92" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I92" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K92" s="1"/>
-      <c r="M92" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" s="16" t="s">
+      <c r="V92" s="17" t="n">
+        <v>85</v>
+      </c>
+      <c r="W92" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="X92" s="17" t="n">
+        <v>54</v>
+      </c>
+      <c r="Y92" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z92" s="16" t="s">
         <v>637</v>
       </c>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T92" s="16"/>
-      <c r="U92" s="16"/>
-      <c r="V92" s="17"/>
-      <c r="W92" s="17"/>
-      <c r="X92" s="17"/>
-      <c r="Y92" s="17"/>
-      <c r="Z92" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="AA92" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB92" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C93," ","_") &amp; SUBSTITUTE(D93," ","_") &amp; SUBSTITUTE(E93," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITUsing_the_Network_Description_Language_in_Optical_Networks</v>
+        <v>noria-bib-ref:OntologyNet-ITToward_Auto-configuration_in_Software_networks</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>49</v>
@@ -9618,14 +9635,16 @@
         <v>50</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>638</v>
-      </c>
-      <c r="F93" s="16"/>
+        <v>639</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>640</v>
+      </c>
       <c r="G93" s="16" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="H93" s="16" t="s">
         <v>71</v>
@@ -9635,10 +9654,10 @@
       </c>
       <c r="K93" s="1"/>
       <c r="M93" s="17" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N93" s="16" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O93" s="16"/>
       <c r="P93" s="16"/>
@@ -9646,9 +9665,7 @@
       <c r="R93" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T93" s="16" t="s">
-        <v>641</v>
-      </c>
+      <c r="T93" s="16"/>
       <c r="U93" s="16"/>
       <c r="V93" s="17"/>
       <c r="W93" s="17"/>
@@ -9665,7 +9682,7 @@
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C94," ","_") &amp; SUBSTITUTE(D94," ","_") &amp; SUBSTITUTE(E94," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITVers_une_ontologie_des_interactions_HTTP</v>
+        <v>noria-bib-ref:OntologyNet-ITUsing_the_Network_Description_Language_in_Optical_Networks</v>
       </c>
       <c r="B94" s="16" t="s">
         <v>49</v>
@@ -9674,102 +9691,70 @@
         <v>50</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F94" s="16"/>
       <c r="G94" s="16" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="K94" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="L94" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I94" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K94" s="1"/>
+      <c r="M94" s="17" t="n">
+        <v>33</v>
+      </c>
+      <c r="N94" s="16" t="s">
         <v>645</v>
       </c>
-      <c r="M94" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" s="16" t="s">
+      <c r="O94" s="16"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T94" s="16" t="s">
         <v>646</v>
       </c>
-      <c r="O94" s="18" t="n">
-        <f aca="false">K94/M94</f>
-        <v>2</v>
-      </c>
-      <c r="P94" s="16" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q94" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="R94" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S94" s="16" t="s">
-        <v>649</v>
-      </c>
-      <c r="T94" s="16" t="s">
-        <v>650</v>
-      </c>
-      <c r="U94" s="16" t="s">
-        <v>651</v>
-      </c>
-      <c r="V94" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="W94" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="X94" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y94" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="U94" s="16"/>
+      <c r="V94" s="17"/>
+      <c r="W94" s="17"/>
+      <c r="X94" s="17"/>
+      <c r="Y94" s="17"/>
       <c r="Z94" s="16" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="AA94" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB94" s="16" t="s">
-        <v>287</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB94" s="16"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C95," ","_") &amp; SUBSTITUTE(D95," ","_") &amp; SUBSTITUTE(E95," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelingActivity_Ontology</v>
-      </c>
-      <c r="B95" s="3" t="s">
+        <v>noria-bib-ref:OntologyNet-ITVers_une_ontologie_des_interactions_HTTP</v>
+      </c>
+      <c r="B95" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>652</v>
+        <v>531</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>654</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="F95" s="16"/>
       <c r="G95" s="16" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="H95" s="16" t="s">
         <v>64</v>
@@ -9777,85 +9762,87 @@
       <c r="I95" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J95" s="16" t="s">
-        <v>656</v>
+      <c r="J95" s="1" t="s">
+        <v>649</v>
       </c>
       <c r="K95" s="17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L95" s="16" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="M95" s="17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N95" s="16" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="O95" s="18" t="n">
         <f aca="false">K95/M95</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P95" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="Q95" s="16" t="s">
-        <v>659</v>
+        <v>652</v>
+      </c>
+      <c r="Q95" s="22" t="s">
+        <v>653</v>
       </c>
       <c r="R95" s="16" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="S95" s="16" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="T95" s="16" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="U95" s="16" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="V95" s="17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="W95" s="17" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="X95" s="17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y95" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z95" s="16" t="s">
-        <v>663</v>
+        <v>196</v>
       </c>
       <c r="AA95" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB95" s="16" t="s">
-        <v>664</v>
+        <v>287</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C96," ","_") &amp; SUBSTITUTE(D96," ","_") &amp; SUBSTITUTE(E96," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelingBPMN_ontology</v>
-      </c>
-      <c r="B96" s="16" t="s">
+        <v>noria-bib-ref:OntologyProcess_modelingActivity_Ontology</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C96" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>665</v>
-      </c>
-      <c r="F96" s="3"/>
+        <v>658</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>659</v>
+      </c>
       <c r="G96" s="16" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="H96" s="16" t="s">
         <v>64</v>
@@ -9863,83 +9850,69 @@
       <c r="I96" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J96" s="3" t="s">
-        <v>667</v>
+      <c r="J96" s="16" t="s">
+        <v>661</v>
       </c>
       <c r="K96" s="17" t="n">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="L96" s="16" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="M96" s="17" t="n">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="N96" s="16" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="O96" s="18" t="n">
         <f aca="false">K96/M96</f>
         <v>1</v>
       </c>
-      <c r="P96" s="27" t="s">
-        <v>669</v>
-      </c>
-      <c r="Q96" s="20" t="s">
-        <v>670</v>
+      <c r="P96" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q96" s="16" t="s">
+        <v>664</v>
       </c>
       <c r="R96" s="16" t="s">
         <v>151</v>
       </c>
       <c r="S96" s="16" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="T96" s="16" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="U96" s="16" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="V96" s="17" t="n">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="W96" s="17" t="n">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="X96" s="17" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Y96" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z96" s="16" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="AA96" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB96" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC96" s="16"/>
-      <c r="AD96" s="16"/>
-      <c r="AE96" s="16"/>
-      <c r="AF96" s="16"/>
-      <c r="AG96" s="16"/>
-      <c r="AH96" s="16"/>
-      <c r="AI96" s="16"/>
-      <c r="AJ96" s="16"/>
-      <c r="AK96" s="16"/>
-      <c r="AL96" s="16"/>
-      <c r="AM96" s="16"/>
-      <c r="AN96" s="16"/>
-      <c r="AO96" s="16"/>
-      <c r="AP96" s="16"/>
+        <v>669</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C97," ","_") &amp; SUBSTITUTE(D97," ","_") &amp; SUBSTITUTE(E97," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelingFOLIO</v>
+        <v>noria-bib-ref:OntologyProcess_modelingBPMN_ontology</v>
       </c>
       <c r="B97" s="16" t="s">
         <v>49</v>
@@ -9948,16 +9921,14 @@
         <v>50</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>675</v>
-      </c>
-      <c r="F97" s="16" t="s">
-        <v>676</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="F97" s="3"/>
       <c r="G97" s="16" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="H97" s="16" t="s">
         <v>64</v>
@@ -9965,61 +9936,63 @@
       <c r="I97" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J97" s="16"/>
-      <c r="K97" s="19" t="n">
-        <v>14</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="M97" s="19" t="n">
-        <v>14</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>678</v>
+      <c r="J97" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="K97" s="17" t="n">
+        <v>130</v>
+      </c>
+      <c r="L97" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="M97" s="17" t="n">
+        <v>130</v>
+      </c>
+      <c r="N97" s="16" t="s">
+        <v>673</v>
       </c>
       <c r="O97" s="18" t="n">
         <f aca="false">K97/M97</f>
         <v>1</v>
       </c>
-      <c r="P97" s="20" t="s">
-        <v>679</v>
+      <c r="P97" s="27" t="s">
+        <v>674</v>
       </c>
       <c r="Q97" s="20" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="R97" s="16" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="S97" s="16" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="T97" s="16" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="U97" s="16" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="V97" s="17" t="n">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="W97" s="17" t="n">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="X97" s="17" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="Y97" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z97" s="16" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="AA97" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB97" s="16" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AC97" s="16"/>
       <c r="AD97" s="16"/>
@@ -10039,85 +10012,87 @@
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C98," ","_") &amp; SUBSTITUTE(D98," ","_") &amp; SUBSTITUTE(E98," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelinggist</v>
-      </c>
-      <c r="B98" s="3" t="s">
+        <v>noria-bib-ref:OntologyProcess_modelingFOLIO</v>
+      </c>
+      <c r="B98" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>71</v>
+        <v>657</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J98" s="16" t="s">
-        <v>688</v>
-      </c>
-      <c r="K98" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N98" s="3"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="M98" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>683</v>
+      </c>
       <c r="O98" s="18" t="n">
         <f aca="false">K98/M98</f>
         <v>1</v>
       </c>
-      <c r="P98" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="Q98" s="3" t="s">
-        <v>690</v>
+      <c r="P98" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q98" s="20" t="s">
+        <v>685</v>
       </c>
       <c r="R98" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="S98" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="T98" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="U98" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="V98" s="19" t="n">
-        <v>138</v>
-      </c>
-      <c r="W98" s="19" t="n">
-        <v>71</v>
-      </c>
-      <c r="X98" s="19" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y98" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z98" s="3" t="s">
-        <v>167</v>
+      <c r="S98" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="T98" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="U98" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="V98" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="W98" s="17" t="n">
+        <v>19</v>
+      </c>
+      <c r="X98" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y98" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="16" t="s">
+        <v>689</v>
       </c>
       <c r="AA98" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB98" s="16" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="AC98" s="16"/>
       <c r="AD98" s="16"/>
@@ -10137,67 +10112,86 @@
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C99," ","_") &amp; SUBSTITUTE(D99," ","_") &amp; SUBSTITUTE(E99," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelingIncident_Management_ontology</v>
-      </c>
-      <c r="B99" s="16" t="s">
+        <v>noria-bib-ref:OntologyProcess_modelinggist</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="E99" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J99" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="K99" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N99" s="3"/>
+      <c r="O99" s="18" t="n">
+        <f aca="false">K99/M99</f>
+        <v>1</v>
+      </c>
+      <c r="P99" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="Q99" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="G99" s="16" t="s">
+      <c r="R99" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S99" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="H99" s="16" t="s">
+      <c r="T99" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="U99" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="V99" s="19" t="n">
+        <v>138</v>
+      </c>
+      <c r="W99" s="19" t="n">
         <v>71</v>
       </c>
-      <c r="I99" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J99" s="16" t="s">
-        <v>697</v>
-      </c>
-      <c r="K99" s="17"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N99" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="S99" s="16"/>
-      <c r="T99" s="16" t="s">
-        <v>699</v>
-      </c>
-      <c r="U99" s="16" t="s">
-        <v>700</v>
-      </c>
-      <c r="V99" s="17"/>
-      <c r="W99" s="17"/>
-      <c r="X99" s="17"/>
-      <c r="Y99" s="17"/>
-      <c r="Z99" s="16" t="s">
-        <v>68</v>
+      <c r="X99" s="19" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y99" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z99" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="AA99" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB99" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB99" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="AC99" s="16"/>
       <c r="AD99" s="16"/>
       <c r="AE99" s="16"/>
@@ -10216,7 +10210,7 @@
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C100," ","_") &amp; SUBSTITUTE(D100," ","_") &amp; SUBSTITUTE(E100," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIA_Formal_Ontology_for_Industrial_Maintenance_(IMAMO)</v>
+        <v>noria-bib-ref:OntologyProcess_modelingIncident_Management_ontology</v>
       </c>
       <c r="B100" s="16" t="s">
         <v>49</v>
@@ -10225,30 +10219,33 @@
         <v>50</v>
       </c>
       <c r="D100" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="G100" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="E100" s="16" t="s">
-        <v>702</v>
-      </c>
-      <c r="F100" s="16" t="s">
-        <v>703</v>
-      </c>
-      <c r="G100" s="16" t="s">
-        <v>704</v>
-      </c>
       <c r="H100" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>65</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>702</v>
       </c>
       <c r="K100" s="17"/>
       <c r="L100" s="16"/>
       <c r="M100" s="17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N100" s="16" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="O100" s="16"/>
       <c r="P100" s="16"/>
@@ -10256,27 +10253,22 @@
       <c r="R100" s="16" t="s">
         <v>58</v>
       </c>
+      <c r="S100" s="16"/>
       <c r="T100" s="16" t="s">
-        <v>706</v>
-      </c>
-      <c r="U100" s="16"/>
-      <c r="V100" s="17" t="n">
-        <v>163</v>
-      </c>
-      <c r="W100" s="17" t="n">
-        <v>187</v>
-      </c>
-      <c r="X100" s="17" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y100" s="17" t="n">
-        <v>0</v>
-      </c>
+        <v>704</v>
+      </c>
+      <c r="U100" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="V100" s="17"/>
+      <c r="W100" s="17"/>
+      <c r="X100" s="17"/>
+      <c r="Y100" s="17"/>
       <c r="Z100" s="16" t="s">
-        <v>707</v>
+        <v>68</v>
       </c>
       <c r="AA100" s="16" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="AB100" s="16"/>
       <c r="AC100" s="16"/>
@@ -10297,7 +10289,7 @@
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C101," ","_") &amp; SUBSTITUTE(D101," ","_") &amp; SUBSTITUTE(E101," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIBOnSAI</v>
+        <v>noria-bib-ref:OntologySE-SIA_Formal_Ontology_for_Industrial_Maintenance_(IMAMO)</v>
       </c>
       <c r="B101" s="16" t="s">
         <v>49</v>
@@ -10306,75 +10298,60 @@
         <v>50</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E101" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="F101" s="16" t="s">
         <v>708</v>
       </c>
-      <c r="F101" s="16" t="s">
+      <c r="G101" s="16" t="s">
         <v>709</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>710</v>
       </c>
       <c r="H101" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K101" s="17" t="n">
-        <v>154</v>
-      </c>
-      <c r="L101" s="16" t="s">
+      <c r="I101" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K101" s="17"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T101" s="16" t="s">
         <v>711</v>
       </c>
-      <c r="M101" s="17" t="n">
-        <v>61</v>
-      </c>
-      <c r="N101" s="16" t="s">
+      <c r="U101" s="16"/>
+      <c r="V101" s="17" t="n">
+        <v>163</v>
+      </c>
+      <c r="W101" s="17" t="n">
+        <v>187</v>
+      </c>
+      <c r="X101" s="17" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y101" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="16" t="s">
         <v>712</v>
-      </c>
-      <c r="O101" s="18" t="n">
-        <f aca="false">K101/M101</f>
-        <v>2.52459016393443</v>
-      </c>
-      <c r="Q101" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="R101" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S101" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="T101" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="U101" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="V101" s="17" t="n">
-        <v>99</v>
-      </c>
-      <c r="W101" s="17" t="n">
-        <v>76</v>
-      </c>
-      <c r="X101" s="17" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y101" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z101" s="16" t="s">
-        <v>717</v>
       </c>
       <c r="AA101" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB101" s="16" t="s">
-        <v>546</v>
-      </c>
+      <c r="AB101" s="16"/>
       <c r="AC101" s="16"/>
       <c r="AD101" s="16"/>
       <c r="AE101" s="16"/>
@@ -10393,7 +10370,7 @@
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C102," ","_") &amp; SUBSTITUTE(D102," ","_") &amp; SUBSTITUTE(E102," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIDogOnt</v>
+        <v>noria-bib-ref:OntologySE-SIBOnSAI</v>
       </c>
       <c r="B102" s="16" t="s">
         <v>49</v>
@@ -10402,16 +10379,16 @@
         <v>50</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="H102" s="16" t="s">
         <v>64</v>
@@ -10420,59 +10397,56 @@
         <v>77</v>
       </c>
       <c r="K102" s="17" t="n">
-        <v>356</v>
+        <v>154</v>
       </c>
       <c r="L102" s="16" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="M102" s="17" t="n">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="N102" s="16" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="O102" s="18" t="n">
         <f aca="false">K102/M102</f>
-        <v>3.49019607843137</v>
-      </c>
-      <c r="P102" s="16" t="s">
-        <v>723</v>
-      </c>
-      <c r="Q102" s="20" t="s">
-        <v>724</v>
+        <v>2.52459016393443</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>718</v>
       </c>
       <c r="R102" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S102" s="1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="T102" s="16" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="U102" s="16" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="V102" s="17" t="n">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="W102" s="17" t="n">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="X102" s="17" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Y102" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z102" s="16" t="s">
-        <v>448</v>
+        <v>722</v>
       </c>
       <c r="AA102" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB102" s="16" t="s">
-        <v>633</v>
+        <v>551</v>
       </c>
       <c r="AC102" s="16"/>
       <c r="AD102" s="16"/>
@@ -10492,7 +10466,7 @@
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C103," ","_") &amp; SUBSTITUTE(D103," ","_") &amp; SUBSTITUTE(E103," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIIoT-Lite</v>
+        <v>noria-bib-ref:OntologySE-SIDogOnt</v>
       </c>
       <c r="B103" s="16" t="s">
         <v>49</v>
@@ -10501,78 +10475,77 @@
         <v>50</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>730</v>
-      </c>
-      <c r="H103" s="16"/>
+        <v>725</v>
+      </c>
+      <c r="H103" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I103" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J103" s="1" t="s">
-        <v>731</v>
-      </c>
       <c r="K103" s="17" t="n">
-        <v>142</v>
+        <v>356</v>
       </c>
       <c r="L103" s="16" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="M103" s="17" t="n">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="N103" s="16" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="O103" s="18" t="n">
         <f aca="false">K103/M103</f>
-        <v>1.84415584415584</v>
+        <v>3.49019607843137</v>
       </c>
       <c r="P103" s="16" t="s">
-        <v>734</v>
-      </c>
-      <c r="Q103" s="16" t="s">
-        <v>735</v>
+        <v>728</v>
+      </c>
+      <c r="Q103" s="20" t="s">
+        <v>729</v>
       </c>
       <c r="R103" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="T103" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="U103" s="16" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="V103" s="17" t="n">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="W103" s="17" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="X103" s="17" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="Y103" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z103" s="16" t="s">
-        <v>739</v>
+        <v>453</v>
       </c>
       <c r="AA103" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB103" s="1" t="s">
-        <v>740</v>
+      <c r="AB103" s="16" t="s">
+        <v>638</v>
       </c>
       <c r="AC103" s="16"/>
       <c r="AD103" s="16"/>
@@ -10592,7 +10565,7 @@
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C104," ","_") &amp; SUBSTITUTE(D104," ","_") &amp; SUBSTITUTE(E104," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SImIO!_Ontology_Network</v>
+        <v>noria-bib-ref:OntologySE-SIIoT-Lite</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>49</v>
@@ -10601,78 +10574,78 @@
         <v>50</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="H104" s="16"/>
       <c r="I104" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="K104" s="17" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="L104" s="16" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="M104" s="17" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="N104" s="16" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="O104" s="18" t="n">
         <f aca="false">K104/M104</f>
-        <v>1.82051282051282</v>
+        <v>1.84415584415584</v>
       </c>
       <c r="P104" s="16" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="Q104" s="16" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="R104" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="T104" s="16" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="U104" s="16" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="V104" s="17" t="n">
-        <v>624</v>
+        <v>20</v>
       </c>
       <c r="W104" s="17" t="n">
-        <v>364</v>
+        <v>13</v>
       </c>
       <c r="X104" s="17" t="n">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="Y104" s="17" t="n">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="Z104" s="16" t="s">
-        <v>167</v>
+        <v>744</v>
       </c>
       <c r="AA104" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB104" s="16" t="s">
-        <v>168</v>
+      <c r="AB104" s="1" t="s">
+        <v>745</v>
       </c>
       <c r="AC104" s="16"/>
       <c r="AD104" s="16"/>
@@ -10692,7 +10665,7 @@
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C105," ","_") &amp; SUBSTITUTE(D105," ","_") &amp; SUBSTITUTE(E105," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIRAMI_Ontology</v>
+        <v>noria-bib-ref:OntologySE-SImIO!_Ontology_Network</v>
       </c>
       <c r="B105" s="16" t="s">
         <v>49</v>
@@ -10701,77 +10674,78 @@
         <v>50</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>754</v>
-      </c>
-      <c r="H105" s="16" t="s">
-        <v>64</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="H105" s="16"/>
       <c r="I105" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="J105" s="1" t="s">
+        <v>749</v>
+      </c>
       <c r="K105" s="17" t="n">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="L105" s="16" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="M105" s="17" t="n">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="N105" s="16" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="O105" s="18" t="n">
         <f aca="false">K105/M105</f>
-        <v>1.93181818181818</v>
+        <v>1.82051282051282</v>
       </c>
       <c r="P105" s="16" t="s">
-        <v>757</v>
-      </c>
-      <c r="Q105" s="20" t="s">
-        <v>758</v>
+        <v>752</v>
+      </c>
+      <c r="Q105" s="16" t="s">
+        <v>753</v>
       </c>
       <c r="R105" s="16" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="T105" s="16" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="U105" s="16" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="V105" s="17" t="n">
-        <v>35</v>
+        <v>624</v>
       </c>
       <c r="W105" s="17" t="n">
-        <v>47</v>
+        <v>364</v>
       </c>
       <c r="X105" s="17" t="n">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="Y105" s="17" t="n">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="Z105" s="16" t="s">
-        <v>762</v>
+        <v>167</v>
       </c>
       <c r="AA105" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB105" s="1" t="s">
-        <v>279</v>
+      <c r="AB105" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="AC105" s="16"/>
       <c r="AD105" s="16"/>
@@ -10791,7 +10765,7 @@
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C106," ","_") &amp; SUBSTITUTE(D106," ","_") &amp; SUBSTITUTE(E106," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SISAREF</v>
+        <v>noria-bib-ref:OntologySE-SIRAMI_Ontology</v>
       </c>
       <c r="B106" s="16" t="s">
         <v>49</v>
@@ -10800,74 +10774,77 @@
         <v>50</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J106" s="16"/>
       <c r="K106" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L106" s="16"/>
+        <v>170</v>
+      </c>
+      <c r="L106" s="16" t="s">
+        <v>760</v>
+      </c>
       <c r="M106" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N106" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="N106" s="16" t="s">
+        <v>761</v>
+      </c>
       <c r="O106" s="18" t="n">
         <f aca="false">K106/M106</f>
-        <v>1</v>
-      </c>
-      <c r="P106" s="20" t="s">
-        <v>766</v>
+        <v>1.93181818181818</v>
+      </c>
+      <c r="P106" s="16" t="s">
+        <v>762</v>
       </c>
       <c r="Q106" s="20" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="R106" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="S106" s="16" t="s">
-        <v>768</v>
+      <c r="S106" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="T106" s="16" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="U106" s="16" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="V106" s="17" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="W106" s="17" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="X106" s="17" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Y106" s="17" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Z106" s="16" t="s">
-        <v>249</v>
+        <v>767</v>
       </c>
       <c r="AA106" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="AC106" s="16"/>
       <c r="AD106" s="16"/>
@@ -10887,7 +10864,7 @@
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C107," ","_") &amp; SUBSTITUTE(D107," ","_") &amp; SUBSTITUTE(E107," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SISAREF4SYST</v>
+        <v>noria-bib-ref:OntologySE-SISAREF</v>
       </c>
       <c r="B107" s="16" t="s">
         <v>49</v>
@@ -10896,16 +10873,16 @@
         <v>50</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="H107" s="16" t="s">
         <v>71</v>
@@ -10927,43 +10904,43 @@
         <v>1</v>
       </c>
       <c r="P107" s="20" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="Q107" s="20" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="R107" s="16" t="s">
         <v>151</v>
       </c>
       <c r="S107" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="T107" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="U107" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="T107" s="16" t="s">
-        <v>776</v>
-      </c>
-      <c r="U107" s="16" t="s">
-        <v>777</v>
-      </c>
       <c r="V107" s="17" t="n">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="W107" s="17" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="X107" s="17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y107" s="17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z107" s="16" t="s">
-        <v>778</v>
+        <v>249</v>
       </c>
       <c r="AA107" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="AC107" s="16"/>
       <c r="AD107" s="16"/>
@@ -10983,7 +10960,7 @@
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C108," ","_") &amp; SUBSTITUTE(D108," ","_") &amp; SUBSTITUTE(E108," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SISOSA</v>
+        <v>noria-bib-ref:OntologySE-SISAREF4SYST</v>
       </c>
       <c r="B108" s="16" t="s">
         <v>49</v>
@@ -10992,76 +10969,74 @@
         <v>50</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>779</v>
-      </c>
-      <c r="F108" s="3"/>
+        <v>776</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>777</v>
+      </c>
       <c r="G108" s="16" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="H108" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J108" s="3" t="s">
-        <v>781</v>
-      </c>
+      <c r="J108" s="16"/>
       <c r="K108" s="17" t="n">
-        <v>435</v>
-      </c>
-      <c r="L108" s="16" t="s">
-        <v>782</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="L108" s="16"/>
       <c r="M108" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="N108" s="16" t="s">
-        <v>783</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="N108" s="16"/>
       <c r="O108" s="18" t="n">
         <f aca="false">K108/M108</f>
-        <v>43.5</v>
-      </c>
-      <c r="P108" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="P108" s="20" t="s">
+        <v>778</v>
+      </c>
       <c r="Q108" s="20" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="R108" s="16" t="s">
         <v>151</v>
       </c>
       <c r="S108" s="16" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="T108" s="16" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="U108" s="16" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="V108" s="17" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="W108" s="17" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="X108" s="17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y108" s="17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z108" s="16" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="AA108" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB108" s="1" t="s">
-        <v>502</v>
+        <v>279</v>
       </c>
       <c r="AC108" s="16"/>
       <c r="AD108" s="16"/>
@@ -11081,7 +11056,7 @@
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C109," ","_") &amp; SUBSTITUTE(D109," ","_") &amp; SUBSTITUTE(E109," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SISOUPA</v>
+        <v>noria-bib-ref:OntologySE-SISOSA</v>
       </c>
       <c r="B109" s="16" t="s">
         <v>49</v>
@@ -11090,55 +11065,77 @@
         <v>50</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>789</v>
-      </c>
-      <c r="F109" s="16" t="s">
-        <v>790</v>
-      </c>
+        <v>784</v>
+      </c>
+      <c r="F109" s="3"/>
       <c r="G109" s="16" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="H109" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I109" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="J109" s="1" t="s">
+      <c r="I109" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="K109" s="17" t="n">
+        <v>435</v>
+      </c>
+      <c r="L109" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="M109" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N109" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="O109" s="18" t="n">
+        <f aca="false">K109/M109</f>
+        <v>43.5</v>
+      </c>
+      <c r="P109" s="16"/>
+      <c r="Q109" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="R109" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S109" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="T109" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="U109" s="16" t="s">
         <v>792</v>
       </c>
-      <c r="K109" s="17"/>
-      <c r="L109" s="16"/>
-      <c r="M109" s="17" t="n">
-        <v>214</v>
-      </c>
-      <c r="N109" s="16" t="s">
+      <c r="V109" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="W109" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="X109" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y109" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z109" s="16" t="s">
         <v>793</v>
       </c>
-      <c r="O109" s="16"/>
-      <c r="P109" s="16"/>
-      <c r="Q109" s="16"/>
-      <c r="R109" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T109" s="16" t="s">
-        <v>794</v>
-      </c>
-      <c r="U109" s="16"/>
-      <c r="V109" s="17"/>
-      <c r="W109" s="17"/>
-      <c r="X109" s="17"/>
-      <c r="Y109" s="17"/>
-      <c r="Z109" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="AA109" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB109" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB109" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="AC109" s="16"/>
       <c r="AD109" s="16"/>
       <c r="AE109" s="16"/>
@@ -11157,7 +11154,7 @@
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C110," ","_") &amp; SUBSTITUTE(D110," ","_") &amp; SUBSTITUTE(E110," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIThe_Building_Topology_Ontology_(BOT)</v>
+        <v>noria-bib-ref:OntologySE-SISOUPA</v>
       </c>
       <c r="B110" s="16" t="s">
         <v>49</v>
@@ -11166,79 +11163,55 @@
         <v>50</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="E110" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="F110" s="16" t="s">
         <v>795</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="G110" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="H110" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I110" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J110" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J110" s="16"/>
-      <c r="K110" s="2" t="n">
-        <v>160</v>
-      </c>
-      <c r="L110" s="1" t="s">
+      <c r="K110" s="17"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="17" t="n">
+        <v>214</v>
+      </c>
+      <c r="N110" s="16" t="s">
         <v>798</v>
       </c>
-      <c r="M110" s="2" t="n">
-        <v>160</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="O110" s="18" t="n">
-        <f aca="false">K110/M110</f>
-        <v>1</v>
-      </c>
-      <c r="P110" s="25" t="s">
+      <c r="O110" s="16"/>
+      <c r="P110" s="16"/>
+      <c r="Q110" s="16"/>
+      <c r="R110" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T110" s="16" t="s">
         <v>799</v>
       </c>
-      <c r="Q110" s="25" t="s">
-        <v>800</v>
-      </c>
-      <c r="R110" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S110" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="T110" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="U110" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="V110" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="W110" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="X110" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y110" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z110" s="1" t="s">
-        <v>778</v>
+      <c r="U110" s="16"/>
+      <c r="V110" s="17"/>
+      <c r="W110" s="17"/>
+      <c r="X110" s="17"/>
+      <c r="Y110" s="17"/>
+      <c r="Z110" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="AA110" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB110" s="16" t="s">
-        <v>595</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB110" s="16"/>
       <c r="AC110" s="16"/>
       <c r="AD110" s="16"/>
       <c r="AE110" s="16"/>
@@ -11255,34 +11228,90 @@
       <c r="AP110" s="16"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="16"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
+      <c r="A111" s="6" t="str">
+        <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C111," ","_") &amp; SUBSTITUTE(D111," ","_") &amp; SUBSTITUTE(E111," ","_")</f>
+        <v>noria-bib-ref:OntologySE-SIThe_Building_Topology_Ontology_(BOT)</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="J111" s="16"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="16"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="16"/>
-      <c r="O111" s="16"/>
-      <c r="P111" s="16"/>
-      <c r="Q111" s="16"/>
-      <c r="R111" s="16"/>
-      <c r="S111" s="16"/>
-      <c r="T111" s="16"/>
-      <c r="U111" s="16"/>
-      <c r="V111" s="17"/>
-      <c r="W111" s="17"/>
-      <c r="X111" s="17"/>
-      <c r="Y111" s="17"/>
-      <c r="Z111" s="16"/>
-      <c r="AA111" s="16"/>
-      <c r="AB111" s="16"/>
+      <c r="K111" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="M111" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="O111" s="18" t="n">
+        <f aca="false">K111/M111</f>
+        <v>1</v>
+      </c>
+      <c r="P111" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q111" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="R111" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="T111" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="U111" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="V111" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="W111" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="X111" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y111" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z111" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="AA111" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB111" s="16" t="s">
+        <v>600</v>
+      </c>
       <c r="AC111" s="16"/>
       <c r="AD111" s="16"/>
       <c r="AE111" s="16"/>
@@ -47202,8 +47231,52 @@
       <c r="AO927" s="16"/>
       <c r="AP927" s="16"/>
     </row>
+    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A928" s="16"/>
+      <c r="B928" s="16"/>
+      <c r="C928" s="16"/>
+      <c r="D928" s="16"/>
+      <c r="E928" s="16"/>
+      <c r="F928" s="16"/>
+      <c r="G928" s="16"/>
+      <c r="H928" s="16"/>
+      <c r="I928" s="16"/>
+      <c r="J928" s="16"/>
+      <c r="K928" s="17"/>
+      <c r="L928" s="16"/>
+      <c r="M928" s="17"/>
+      <c r="N928" s="16"/>
+      <c r="O928" s="16"/>
+      <c r="P928" s="16"/>
+      <c r="Q928" s="16"/>
+      <c r="R928" s="16"/>
+      <c r="S928" s="16"/>
+      <c r="T928" s="16"/>
+      <c r="U928" s="16"/>
+      <c r="V928" s="17"/>
+      <c r="W928" s="17"/>
+      <c r="X928" s="17"/>
+      <c r="Y928" s="17"/>
+      <c r="Z928" s="16"/>
+      <c r="AA928" s="16"/>
+      <c r="AB928" s="16"/>
+      <c r="AC928" s="16"/>
+      <c r="AD928" s="16"/>
+      <c r="AE928" s="16"/>
+      <c r="AF928" s="16"/>
+      <c r="AG928" s="16"/>
+      <c r="AH928" s="16"/>
+      <c r="AI928" s="16"/>
+      <c r="AJ928" s="16"/>
+      <c r="AK928" s="16"/>
+      <c r="AL928" s="16"/>
+      <c r="AM928" s="16"/>
+      <c r="AN928" s="16"/>
+      <c r="AO928" s="16"/>
+      <c r="AP928" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A14:AB110">
+  <autoFilter ref="A14:AB111">
     <filterColumn colId="18">
       <filters>
         <filter val="dm-rdf/ACCT"/>
@@ -47257,12 +47330,12 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="I15:I110">
+  <conditionalFormatting sqref="I15:I111">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K110">
+  <conditionalFormatting sqref="K15:K111">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>-1</formula>
     </cfRule>
@@ -47278,23 +47351,23 @@
     <hyperlink ref="Q41" r:id="rId5" display="https://raw.githubusercontent.com/OWASP/OdTM/master/OdTMBaseThreatModel.owl "/>
     <hyperlink ref="Q47" r:id="rId6" display="https://sepses.ifs.tuwien.ac.at/ns/logex/ontology.ttl"/>
     <hyperlink ref="Q50" r:id="rId7" display="https://raw.githubusercontent.com/ucoProject/UCO/master/uco-core/core.ttl "/>
-    <hyperlink ref="P53" r:id="rId8" display="http://www.ontobee.org/ontology/GEO"/>
-    <hyperlink ref="Q55" r:id="rId9" display="http://ns.inria.fr/emoca/emoca.ttl "/>
-    <hyperlink ref="P64" r:id="rId10" display="https://github.com/HajoRijgersberg/OM"/>
-    <hyperlink ref="P65" r:id="rId11" display="http://www.daml.org/services/owl-s/1.1/"/>
-    <hyperlink ref="P66" r:id="rId12" display="https://www.w3.org/TR/owl-time/ "/>
-    <hyperlink ref="Q68" r:id="rId13" display="https://raw.githubusercontent.com/thesmartenergy/pep/master/pep-website/src/main/ontop/pep-1.1.ttl"/>
-    <hyperlink ref="P70" r:id="rId14" display="http://www.qudt.org/"/>
-    <hyperlink ref="P73" r:id="rId15" display="https://www.w3.org/2003/06/"/>
-    <hyperlink ref="Q73" r:id="rId16" display="https://www.w3.org/2003/06/sw-vocab-status/ns#"/>
-    <hyperlink ref="Q74" r:id="rId17" display="https://horus-ai.fbk.eu/helis/ontology/helis_v1.10.owl "/>
-    <hyperlink ref="P76" r:id="rId18" display="https://staff.fnwi.uva.nl/p.grosso/INDL.html"/>
-    <hyperlink ref="Q90" r:id="rId19" display="https://w3id.org/seas/CommunicationOntology-1.0.ttl"/>
-    <hyperlink ref="P91" r:id="rId20" display="https://qianruzhou333.github.io/toco_ontology/toco_doc.html "/>
-    <hyperlink ref="Q91" r:id="rId21" display="https://qianruzhou333.github.io/toco_ontology/resource/toco.rdf "/>
-    <hyperlink ref="Q94" r:id="rId22" display="http://www.w3.org/2011/http#"/>
-    <hyperlink ref="Q102" r:id="rId23" display="https://raw.githubusercontent.com/iot-ontologies/dogont/master/dogont.owl "/>
-    <hyperlink ref="P107" r:id="rId24" display="https://saref.etsi.org/extensions.html "/>
+    <hyperlink ref="P54" r:id="rId8" display="http://www.ontobee.org/ontology/GEO"/>
+    <hyperlink ref="Q56" r:id="rId9" display="http://ns.inria.fr/emoca/emoca.ttl "/>
+    <hyperlink ref="P65" r:id="rId10" display="https://github.com/HajoRijgersberg/OM"/>
+    <hyperlink ref="P66" r:id="rId11" display="http://www.daml.org/services/owl-s/1.1/"/>
+    <hyperlink ref="P67" r:id="rId12" display="https://www.w3.org/TR/owl-time/ "/>
+    <hyperlink ref="Q69" r:id="rId13" display="https://raw.githubusercontent.com/thesmartenergy/pep/master/pep-website/src/main/ontop/pep-1.1.ttl"/>
+    <hyperlink ref="P71" r:id="rId14" display="http://www.qudt.org/"/>
+    <hyperlink ref="P74" r:id="rId15" display="https://www.w3.org/2003/06/"/>
+    <hyperlink ref="Q74" r:id="rId16" display="https://www.w3.org/2003/06/sw-vocab-status/ns#"/>
+    <hyperlink ref="Q75" r:id="rId17" display="https://horus-ai.fbk.eu/helis/ontology/helis_v1.10.owl "/>
+    <hyperlink ref="P77" r:id="rId18" display="https://staff.fnwi.uva.nl/p.grosso/INDL.html"/>
+    <hyperlink ref="Q91" r:id="rId19" display="https://w3id.org/seas/CommunicationOntology-1.0.ttl"/>
+    <hyperlink ref="P92" r:id="rId20" display="https://qianruzhou333.github.io/toco_ontology/toco_doc.html "/>
+    <hyperlink ref="Q92" r:id="rId21" display="https://qianruzhou333.github.io/toco_ontology/resource/toco.rdf "/>
+    <hyperlink ref="Q95" r:id="rId22" display="http://www.w3.org/2011/http#"/>
+    <hyperlink ref="Q103" r:id="rId23" display="https://raw.githubusercontent.com/iot-ontologies/dogont/master/dogont.owl "/>
+    <hyperlink ref="P108" r:id="rId24" display="https://saref.etsi.org/extensions.html "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/docs/sota/noria-sota-ontology.xlsx
+++ b/docs/sota/noria-sota-ontology.xlsx
@@ -11,8 +11,8 @@
     <sheet name="ModelSOTA" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ModelSOTA!$A$14:$AB$111</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">ModelSOTA!$D$14:$AA$92</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ModelSOTA!$A$14:$AB$112</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">ModelSOTA!$D$14:$AA$93</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="815">
   <si>
     <t xml:space="preserve">ConceptScheme URI</t>
   </si>
@@ -985,6 +985,24 @@
   </si>
   <si>
     <t xml:space="preserve">depLib, product, cweName, severity, state, disclosedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontology-based approach to real-time risk management and cyber-situational awareness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carmensanchez-zasOntologybasedApproachRealtime2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similar to the idea of leveraging CTI data in ontologies like UCO and ICAS, the authors propose an anomaly detection system that utilizes a combination of a SWRL-based inference rule set and SPARQL queries to classify and provide guidance on various situations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scholar.google.com/scholar?cites=17737343496363770212&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset, CorrelatedAnomaly, DetectedAnomaly, Risk, Threat, Safeguards, Vulnerability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">causedBy, generates, mitigates, protects, exploits, threatens, damages</t>
   </si>
   <si>
     <t xml:space="preserve">Generic</t>
@@ -2971,10 +2989,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ928"/>
+  <dimension ref="A1:AMJ929"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X40" activeCellId="0" sqref="X40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3597,14 +3615,14 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="8" t="n">
-        <f aca="false">SUM(K15:K66)</f>
-        <v>4870</v>
+        <f aca="false">SUM(K15:K67)</f>
+        <v>4897</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M13" s="8" t="n">
-        <f aca="false">SUM(M15:M66)</f>
+        <f aca="false">SUM(M15:M67)</f>
         <v>5664</v>
       </c>
       <c r="N13" s="6" t="s">
@@ -3612,7 +3630,7 @@
       </c>
       <c r="O13" s="10" t="n">
         <f aca="false">K13/M13</f>
-        <v>0.859816384180791</v>
+        <v>0.864583333333333</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -6576,8 +6594,8 @@
       <c r="U51" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0"/>
       <c r="X51" s="17"/>
       <c r="Y51" s="17"/>
       <c r="Z51" s="16" t="s">
@@ -6590,7 +6608,7 @@
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C52," ","_") &amp; SUBSTITUTE(D52," ","_") &amp; SUBSTITUTE(E52," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericA_Core_Pattern_for_Events</v>
+        <v>noria-bib-ref:OntologyCyberSecOntology-based_approach_to_real-time_risk_management_and_cyber-situational_awareness</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>49</v>
@@ -6599,81 +6617,60 @@
         <v>50</v>
       </c>
       <c r="D52" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="F52" s="16"/>
+      <c r="G52" s="16" t="s">
         <v>315</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>317</v>
       </c>
       <c r="H52" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>77</v>
+      <c r="I52" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="K52" s="17" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L52" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="M52" s="17"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="M52" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="N52" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="O52" s="18" t="n">
-        <f aca="false">K52/M52</f>
-        <v>1</v>
-      </c>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16" t="s">
+      <c r="U52" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="R52" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="T52" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="V52" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="W52" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="X52" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>323</v>
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="17"/>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="AA52" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB52" s="16" t="s">
-        <v>287</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C53," ","_") &amp; SUBSTITUTE(D53," ","_") &amp; SUBSTITUTE(E53," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericActivO</v>
+        <v>noria-bib-ref:OntologyGenericA_Core_Pattern_for_Events</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>49</v>
@@ -6682,57 +6679,81 @@
         <v>50</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E53" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="L53" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="M53" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="N53" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="O53" s="18" t="n">
+        <f aca="false">K53/M53</f>
+        <v>1</v>
+      </c>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="R53" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S53" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H53" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I53" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K53" s="1"/>
-      <c r="M53" s="17" t="n">
-        <v>194</v>
-      </c>
-      <c r="N53" s="16" t="s">
+      <c r="T53" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T53" s="16" t="s">
+      <c r="U53" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="U53" s="16" t="s">
+      <c r="V53" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="W53" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="X53" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="17"/>
-      <c r="Z53" s="16" t="s">
-        <v>100</v>
-      </c>
       <c r="AA53" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB53" s="16" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C54," ","_") &amp; SUBSTITUTE(D54," ","_") &amp; SUBSTITUTE(E54," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericBasic_geo_Ontology</v>
+        <v>noria-bib-ref:OntologyGenericActivO</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>49</v>
@@ -6741,7 +6762,7 @@
         <v>50</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>330</v>
@@ -6752,67 +6773,46 @@
       <c r="G54" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="H54" s="16"/>
-      <c r="I54" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J54" s="16"/>
-      <c r="K54" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L54" s="16"/>
+      <c r="H54" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K54" s="1"/>
       <c r="M54" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N54" s="16"/>
-      <c r="O54" s="18" t="n">
-        <f aca="false">K54/M54</f>
-        <v>1</v>
-      </c>
-      <c r="P54" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="N54" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="Q54" s="22" t="s">
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T54" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="R54" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S54" s="16" t="s">
+      <c r="U54" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="T54" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="U54" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="V54" s="17" t="n">
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="W54" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="X54" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y54" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z54" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA54" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB54" s="16" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C55," ","_") &amp; SUBSTITUTE(D55," ","_") &amp; SUBSTITUTE(E55," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericCommand_and_Control_ontology_(C2)</v>
+        <v>noria-bib-ref:OntologyGenericBasic_geo_Ontology</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>49</v>
@@ -6821,56 +6821,78 @@
         <v>50</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E55" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="G55" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16" t="s">
+      <c r="H55" s="16"/>
+      <c r="I55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J55" s="16"/>
+      <c r="K55" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L55" s="16"/>
+      <c r="M55" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N55" s="16"/>
+      <c r="O55" s="18" t="n">
+        <f aca="false">K55/M55</f>
+        <v>1</v>
+      </c>
+      <c r="P55" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="H55" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J55" s="1" t="s">
+      <c r="Q55" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="K55" s="1"/>
-      <c r="M55" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="N55" s="16" t="s">
+      <c r="R55" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S55" s="16" t="s">
         <v>341</v>
-      </c>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="T55" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="U55" s="16"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
+      <c r="U55" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="V55" s="17" t="n">
+        <v>61</v>
+      </c>
+      <c r="W55" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="X55" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="Z55" s="16" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="AA55" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB55" s="16" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C56," ","_") &amp; SUBSTITUTE(D56," ","_") &amp; SUBSTITUTE(E56," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericEmOCA</v>
+        <v>noria-bib-ref:OntologyGenericCommand_and_Control_ontology_(C2)</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>49</v>
@@ -6879,83 +6901,56 @@
         <v>50</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="F56" s="16" t="s">
         <v>344</v>
       </c>
+      <c r="F56" s="16"/>
       <c r="G56" s="16" t="s">
         <v>345</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K56" s="17" t="n">
-        <v>35</v>
-      </c>
-      <c r="L56" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>346</v>
       </c>
+      <c r="K56" s="1"/>
       <c r="M56" s="17" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N56" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="O56" s="18" t="n">
-        <f aca="false">K56/M56</f>
-        <v>1.45833333333333</v>
-      </c>
-      <c r="P56" s="16" t="s">
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T56" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="Q56" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="R56" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="T56" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="U56" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="V56" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="W56" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="X56" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y56" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U56" s="16"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17"/>
       <c r="Z56" s="16" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="AA56" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB56" s="16" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C57," ","_") &amp; SUBSTITUTE(D57," ","_") &amp; SUBSTITUTE(E57," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericeTOM</v>
+        <v>noria-bib-ref:OntologyGenericEmOCA</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>49</v>
@@ -6964,58 +6959,83 @@
         <v>50</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H57" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I57" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J57" s="1" t="s">
+      <c r="I57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K57" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="M57" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="N57" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="O57" s="18" t="n">
+        <f aca="false">K57/M57</f>
+        <v>1.45833333333333</v>
+      </c>
+      <c r="P57" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q57" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="R57" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S57" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K57" s="1"/>
-      <c r="M57" s="17" t="n">
+      <c r="T57" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="U57" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="V57" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="W57" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="X57" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y57" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="N57" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T57" s="16"/>
-      <c r="U57" s="16"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="17"/>
       <c r="Z57" s="16" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="AA57" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB57" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C58," ","_") &amp; SUBSTITUTE(D58," ","_") &amp; SUBSTITUTE(E58," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericEvent_Ontology</v>
+        <v>noria-bib-ref:OntologyGenericeTOM</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>49</v>
@@ -7024,86 +7044,58 @@
         <v>50</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>359</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="K58" s="17" t="n">
-        <v>244</v>
-      </c>
-      <c r="L58" s="16" t="s">
-        <v>363</v>
-      </c>
+      <c r="K58" s="1"/>
       <c r="M58" s="17" t="n">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="N58" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="O58" s="18" t="n">
-        <f aca="false">K58/M58</f>
-        <v>1</v>
-      </c>
+      <c r="O58" s="16"/>
       <c r="P58" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="Q58" s="16" t="s">
-        <v>365</v>
-      </c>
+      <c r="Q58" s="16"/>
       <c r="R58" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="T58" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="U58" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="V58" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="W58" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="X58" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="17" t="n">
-        <v>2</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17"/>
       <c r="Z58" s="16" t="s">
-        <v>370</v>
+        <v>60</v>
       </c>
       <c r="AA58" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB58" s="16" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C59," ","_") &amp; SUBSTITUTE(D59," ","_") &amp; SUBSTITUTE(E59," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericEventKG</v>
+        <v>noria-bib-ref:OntologyGenericEvent_Ontology</v>
       </c>
       <c r="B59" s="16" t="s">
         <v>49</v>
@@ -7112,71 +7104,74 @@
         <v>50</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="J59" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="K59" s="17" t="n">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="L59" s="16" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M59" s="17" t="n">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="N59" s="16" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="O59" s="18" t="n">
         <f aca="false">K59/M59</f>
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="P59" s="16" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="R59" s="16" t="s">
-        <v>151</v>
+        <v>372</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="T59" s="16" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="U59" s="16" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="V59" s="17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W59" s="17" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="X59" s="17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y59" s="17" t="n">
         <v>2</v>
       </c>
       <c r="Z59" s="16" t="s">
-        <v>155</v>
+        <v>376</v>
       </c>
       <c r="AA59" s="16" t="s">
         <v>87</v>
@@ -7188,80 +7183,80 @@
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C60," ","_") &amp; SUBSTITUTE(D60," ","_") &amp; SUBSTITUTE(E60," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericFARO</v>
-      </c>
-      <c r="B60" s="3" t="s">
+        <v>noria-bib-ref:OntologyGenericEventKG</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>64</v>
+        <v>380</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J60" s="16"/>
       <c r="K60" s="17" t="n">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M60" s="17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N60" s="16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O60" s="18" t="n">
-        <v>0</v>
+        <f aca="false">K60/M60</f>
+        <v>2.9</v>
       </c>
       <c r="P60" s="16" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q60" s="16" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R60" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="S60" s="16" t="s">
-        <v>389</v>
+      <c r="S60" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="T60" s="16" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="U60" s="16" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="V60" s="17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W60" s="17" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="X60" s="17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y60" s="17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z60" s="16" t="s">
-        <v>392</v>
+        <v>155</v>
       </c>
       <c r="AA60" s="16" t="s">
         <v>87</v>
@@ -7273,91 +7268,92 @@
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C61," ","_") &amp; SUBSTITUTE(D61," ","_") &amp; SUBSTITUTE(E61," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericFOAF</v>
-      </c>
-      <c r="B61" s="16" t="s">
+        <v>noria-bib-ref:OntologyGenericFARO</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="H61" s="16"/>
+        <v>390</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I61" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="16"/>
+      <c r="K61" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="M61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="O61" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q61" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="R61" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S61" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="T61" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="K61" s="17" t="n">
-        <v>1320</v>
-      </c>
-      <c r="L61" s="16" t="s">
+      <c r="U61" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="M61" s="17" t="n">
-        <v>1320</v>
-      </c>
-      <c r="N61" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="O61" s="18" t="n">
-        <f aca="false">K61/M61</f>
-        <v>1</v>
-      </c>
-      <c r="P61" s="16" t="s">
+      <c r="V61" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="W61" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="X61" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z61" s="16" t="s">
         <v>398</v>
-      </c>
-      <c r="Q61" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="R61" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="T61" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="U61" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="V61" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="W61" s="17" t="n">
-        <v>36</v>
-      </c>
-      <c r="X61" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y61" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="16" t="s">
-        <v>403</v>
       </c>
       <c r="AA61" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB61" s="16"/>
+      <c r="AB61" s="16" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C62," ","_") &amp; SUBSTITUTE(D62," ","_") &amp; SUBSTITUTE(E62," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericGeonames</v>
+        <v>noria-bib-ref:OntologyGenericFOAF</v>
       </c>
       <c r="B62" s="16" t="s">
         <v>49</v>
@@ -7366,70 +7362,72 @@
         <v>50</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="H62" s="16" t="s">
-        <v>71</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="H62" s="16"/>
       <c r="I62" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="K62" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L62" s="16"/>
+        <v>1320</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>403</v>
+      </c>
       <c r="M62" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N62" s="16"/>
+        <v>1320</v>
+      </c>
+      <c r="N62" s="16" t="s">
+        <v>403</v>
+      </c>
       <c r="O62" s="18" t="n">
         <f aca="false">K62/M62</f>
         <v>1</v>
       </c>
       <c r="P62" s="16" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="R62" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="T62" s="16" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="U62" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="V62" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="W62" s="17" t="n">
+        <v>36</v>
+      </c>
+      <c r="X62" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="W62" s="17" t="n">
-        <v>33</v>
-      </c>
-      <c r="X62" s="17" t="n">
-        <v>17</v>
-      </c>
       <c r="Y62" s="17" t="n">
-        <v>701</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="16" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AA62" s="16" t="s">
         <v>87</v>
@@ -7439,7 +7437,7 @@
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C63," ","_") &amp; SUBSTITUTE(D63," ","_") &amp; SUBSTITUTE(E63," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericGeoSPARQL</v>
+        <v>noria-bib-ref:OntologyGenericGeonames</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>49</v>
@@ -7448,81 +7446,80 @@
         <v>50</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="H63" s="16"/>
+        <v>412</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="I63" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K63" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="L63" s="16" t="s">
-        <v>418</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="L63" s="16"/>
       <c r="M63" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="N63" s="16" t="s">
-        <v>418</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="N63" s="16"/>
       <c r="O63" s="18" t="n">
         <f aca="false">K63/M63</f>
         <v>1</v>
       </c>
       <c r="P63" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q63" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="R63" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="T63" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="U63" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="V63" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="W63" s="17" t="n">
+        <v>33</v>
+      </c>
+      <c r="X63" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y63" s="17" t="n">
+        <v>701</v>
+      </c>
+      <c r="Z63" s="16" t="s">
         <v>419</v>
-      </c>
-      <c r="Q63" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="R63" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="T63" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="U63" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="V63" s="17" t="n">
-        <v>9</v>
-      </c>
-      <c r="W63" s="17" t="n">
-        <v>37</v>
-      </c>
-      <c r="X63" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y63" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="16" t="s">
-        <v>424</v>
       </c>
       <c r="AA63" s="16" t="s">
         <v>87</v>
       </c>
+      <c r="AB63" s="16"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C64," ","_") &amp; SUBSTITUTE(D64," ","_") &amp; SUBSTITUTE(E64," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericMining_Minds_Context_Ontology</v>
+        <v>noria-bib-ref:OntologyGenericGeoSPARQL</v>
       </c>
       <c r="B64" s="16" t="s">
         <v>49</v>
@@ -7531,69 +7528,72 @@
         <v>50</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="H64" s="16" t="s">
-        <v>64</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="H64" s="16"/>
       <c r="I64" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="J64" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="K64" s="17" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="L64" s="16" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M64" s="17" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="N64" s="16" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="O64" s="18" t="n">
         <f aca="false">K64/M64</f>
         <v>1</v>
       </c>
-      <c r="P64" s="16"/>
+      <c r="P64" s="16" t="s">
+        <v>425</v>
+      </c>
       <c r="Q64" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="R64" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="T64" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="U64" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="R64" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="T64" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="U64" s="16" t="s">
-        <v>432</v>
-      </c>
       <c r="V64" s="17" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="W64" s="17" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="X64" s="17" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Y64" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z64" s="16" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AA64" s="16" t="s">
         <v>87</v>
@@ -7602,7 +7602,7 @@
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C65," ","_") &amp; SUBSTITUTE(D65," ","_") &amp; SUBSTITUTE(E65," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericOM</v>
+        <v>noria-bib-ref:OntologyGenericMining_Minds_Context_Ontology</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>49</v>
@@ -7611,70 +7611,69 @@
         <v>50</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="H65" s="16"/>
+        <v>433</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I65" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J65" s="16"/>
       <c r="K65" s="17" t="n">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="L65" s="16" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M65" s="17" t="n">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="N65" s="16" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="O65" s="18" t="n">
         <f aca="false">K65/M65</f>
         <v>1</v>
       </c>
-      <c r="P65" s="20" t="s">
-        <v>438</v>
-      </c>
+      <c r="P65" s="16"/>
       <c r="Q65" s="16" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="R65" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="S65" s="16" t="s">
-        <v>440</v>
+      <c r="S65" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="T65" s="16" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="U65" s="16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="V65" s="17" t="n">
-        <v>815</v>
+        <v>52</v>
       </c>
       <c r="W65" s="17" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="X65" s="17" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="Y65" s="17" t="n">
-        <v>2242</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="16" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AA65" s="16" t="s">
         <v>87</v>
@@ -7683,7 +7682,7 @@
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C66," ","_") &amp; SUBSTITUTE(D66," ","_") &amp; SUBSTITUTE(E66," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericOWL-S</v>
+        <v>noria-bib-ref:OntologyGenericOM</v>
       </c>
       <c r="B66" s="16" t="s">
         <v>49</v>
@@ -7692,84 +7691,79 @@
         <v>50</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>64</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="H66" s="16"/>
       <c r="I66" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J66" s="1" t="s">
-        <v>447</v>
-      </c>
+      <c r="J66" s="16"/>
       <c r="K66" s="17" t="n">
-        <v>2340</v>
+        <v>228</v>
       </c>
       <c r="L66" s="16" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="M66" s="17" t="n">
-        <v>2340</v>
+        <v>228</v>
       </c>
       <c r="N66" s="16" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="O66" s="18" t="n">
         <f aca="false">K66/M66</f>
         <v>1</v>
       </c>
       <c r="P66" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q66" s="3"/>
+        <v>444</v>
+      </c>
+      <c r="Q66" s="16" t="s">
+        <v>445</v>
+      </c>
       <c r="R66" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="S66" s="1" t="s">
-        <v>450</v>
+      <c r="S66" s="16" t="s">
+        <v>446</v>
       </c>
       <c r="T66" s="16" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U66" s="16" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="V66" s="17" t="n">
-        <v>86</v>
+        <v>815</v>
       </c>
       <c r="W66" s="17" t="n">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="X66" s="17" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Y66" s="17" t="n">
-        <v>13</v>
+        <v>2242</v>
       </c>
       <c r="Z66" s="16" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AA66" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="AB66" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C67," ","_") &amp; SUBSTITUTE(D67," ","_") &amp; SUBSTITUTE(E67," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericOWL-Time</v>
+        <v>noria-bib-ref:OntologyGenericOWL-S</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>49</v>
@@ -7778,82 +7772,84 @@
         <v>50</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>456</v>
+        <v>450</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>451</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="H67" s="16"/>
+        <v>452</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I67" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J67" s="16"/>
+      <c r="J67" s="1" t="s">
+        <v>453</v>
+      </c>
       <c r="K67" s="17" t="n">
-        <v>6</v>
+        <v>2340</v>
       </c>
       <c r="L67" s="16" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M67" s="17" t="n">
-        <v>6</v>
+        <v>2340</v>
       </c>
       <c r="N67" s="16" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="O67" s="18" t="n">
         <f aca="false">K67/M67</f>
         <v>1</v>
       </c>
       <c r="P67" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S67" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="T67" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="U67" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="V67" s="17" t="n">
+        <v>86</v>
+      </c>
+      <c r="W67" s="17" t="n">
+        <v>88</v>
+      </c>
+      <c r="X67" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y67" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z67" s="16" t="s">
         <v>459</v>
-      </c>
-      <c r="Q67" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="R67" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S67" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="T67" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="U67" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="V67" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="W67" s="17" t="n">
-        <v>33</v>
-      </c>
-      <c r="X67" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y67" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z67" s="16" t="s">
-        <v>185</v>
       </c>
       <c r="AA67" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB67" s="1" t="s">
-        <v>287</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C68," ","_") &amp; SUBSTITUTE(D68," ","_") &amp; SUBSTITUTE(E68," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericoXPDL :_A_process_ontology_for_business_intelligence</v>
+        <v>noria-bib-ref:OntologyGenericOWL-Time</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>49</v>
@@ -7862,57 +7858,82 @@
         <v>50</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E68" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="H68" s="16"/>
+      <c r="I68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J68" s="16"/>
+      <c r="K68" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L68" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="F68" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="G68" s="16" t="s">
+      <c r="M68" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N68" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="O68" s="18" t="n">
+        <f aca="false">K68/M68</f>
+        <v>1</v>
+      </c>
+      <c r="P68" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="H68" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I68" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K68" s="1"/>
-      <c r="M68" s="17" t="n">
+      <c r="Q68" s="20" t="s">
+        <v>466</v>
+      </c>
+      <c r="R68" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S68" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="U68" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="V68" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="W68" s="17" t="n">
+        <v>33</v>
+      </c>
+      <c r="X68" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y68" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="N68" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T68" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="U68" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="V68" s="17"/>
-      <c r="W68" s="17"/>
-      <c r="X68" s="17"/>
-      <c r="Y68" s="17"/>
       <c r="Z68" s="16" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="AA68" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB68" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C69," ","_") &amp; SUBSTITUTE(D69," ","_") &amp; SUBSTITUTE(E69," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericProcedure_Execution_Platform</v>
+        <v>noria-bib-ref:OntologyGenericoXPDL :_A_process_ontology_for_business_intelligence</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>49</v>
@@ -7920,84 +7941,58 @@
       <c r="C69" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="D69" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="E69" s="16" t="s">
         <v>470</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>360</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K69" s="17" t="n">
-        <v>40</v>
-      </c>
-      <c r="L69" s="16" t="s">
-        <v>472</v>
-      </c>
+      <c r="I69" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K69" s="1"/>
       <c r="M69" s="17" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N69" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="O69" s="18" t="n">
-        <f aca="false">K69/M69</f>
-        <v>1</v>
-      </c>
-      <c r="P69" s="23" t="s">
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T69" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="Q69" s="24" t="s">
+      <c r="U69" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="R69" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S69" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="T69" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="U69" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="V69" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="W69" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="X69" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z69" s="1" t="s">
-        <v>478</v>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+      <c r="X69" s="17"/>
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AA69" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB69" s="1" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C70," ","_") &amp; SUBSTITUTE(D70," ","_") &amp; SUBSTITUTE(E70," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericPROV-O</v>
+        <v>noria-bib-ref:OntologyGenericProcedure_Execution_Platform</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>49</v>
@@ -8005,81 +8000,84 @@
       <c r="C70" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>480</v>
+      <c r="D70" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="H70" s="16"/>
+        <v>477</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="I70" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J70" s="16"/>
       <c r="K70" s="17" t="n">
-        <v>726</v>
+        <v>40</v>
       </c>
       <c r="L70" s="16" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M70" s="17" t="n">
-        <v>726</v>
+        <v>40</v>
       </c>
       <c r="N70" s="16" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="O70" s="18" t="n">
         <f aca="false">K70/M70</f>
         <v>1</v>
       </c>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="20" t="s">
-        <v>483</v>
+      <c r="P70" s="23" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q70" s="24" t="s">
+        <v>480</v>
       </c>
       <c r="R70" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="S70" s="16" t="s">
+      <c r="S70" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="V70" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W70" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="X70" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z70" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="T70" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="U70" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="V70" s="17" t="n">
-        <v>31</v>
-      </c>
-      <c r="W70" s="17" t="n">
-        <v>44</v>
-      </c>
-      <c r="X70" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y70" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z70" s="16" t="s">
-        <v>487</v>
       </c>
       <c r="AA70" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB70" s="1" t="s">
-        <v>287</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C71," ","_") &amp; SUBSTITUTE(D71," ","_") &amp; SUBSTITUTE(E71," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericQUDT</v>
+        <v>noria-bib-ref:OntologyGenericPROV-O</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>49</v>
@@ -8088,14 +8086,16 @@
         <v>50</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="F71" s="16"/>
+        <v>485</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>486</v>
+      </c>
       <c r="G71" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H71" s="16"/>
       <c r="I71" s="1" t="s">
@@ -8103,53 +8103,51 @@
       </c>
       <c r="J71" s="16"/>
       <c r="K71" s="17" t="n">
-        <v>70</v>
+        <v>726</v>
       </c>
       <c r="L71" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M71" s="17" t="n">
-        <v>70</v>
+        <v>726</v>
       </c>
       <c r="N71" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O71" s="18" t="n">
         <f aca="false">K71/M71</f>
         <v>1</v>
       </c>
-      <c r="P71" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q71" s="25" t="s">
-        <v>492</v>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="20" t="s">
+        <v>489</v>
       </c>
       <c r="R71" s="16" t="s">
         <v>151</v>
       </c>
       <c r="S71" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="T71" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="U71" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="V71" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="W71" s="17" t="n">
+        <v>44</v>
+      </c>
+      <c r="X71" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y71" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z71" s="16" t="s">
         <v>493</v>
-      </c>
-      <c r="T71" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="U71" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="V71" s="17" t="n">
-        <v>138</v>
-      </c>
-      <c r="W71" s="17" t="n">
-        <v>132</v>
-      </c>
-      <c r="X71" s="17" t="n">
-        <v>102</v>
-      </c>
-      <c r="Y71" s="17" t="n">
-        <v>78</v>
-      </c>
-      <c r="Z71" s="16" t="s">
-        <v>496</v>
       </c>
       <c r="AA71" s="16" t="s">
         <v>87</v>
@@ -8161,7 +8159,7 @@
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C72," ","_") &amp; SUBSTITUTE(D72," ","_") &amp; SUBSTITUTE(E72," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericSemantic_Sensor_Network_Ontology</v>
+        <v>noria-bib-ref:OntologyGenericQUDT</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>49</v>
@@ -8170,83 +8168,80 @@
         <v>50</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>498</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="F72" s="16"/>
       <c r="G72" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>64</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="H72" s="16"/>
       <c r="I72" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="J72" s="16"/>
       <c r="K72" s="17" t="n">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="L72" s="16" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M72" s="17" t="n">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="N72" s="16" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="O72" s="18" t="n">
         <f aca="false">K72/M72</f>
         <v>1</v>
       </c>
-      <c r="P72" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q72" s="26" t="s">
-        <v>502</v>
+      <c r="P72" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q72" s="25" t="s">
+        <v>498</v>
       </c>
       <c r="R72" s="16" t="s">
         <v>151</v>
       </c>
       <c r="S72" s="16" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="T72" s="16" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="U72" s="16" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="V72" s="17" t="n">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="W72" s="17" t="n">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="X72" s="17" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="Y72" s="17" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="Z72" s="16" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AA72" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB72" s="1" t="s">
-        <v>507</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C73," ","_") &amp; SUBSTITUTE(D73," ","_") &amp; SUBSTITUTE(E73," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericTemporal_Ontology:_Tenselessness_and_Quantification</v>
+        <v>noria-bib-ref:OntologyGenericSemantic_Sensor_Network_Ontology</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>49</v>
@@ -8255,53 +8250,83 @@
         <v>50</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E73" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K73" s="17" t="n">
+        <v>137</v>
+      </c>
+      <c r="L73" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="M73" s="17" t="n">
+        <v>137</v>
+      </c>
+      <c r="N73" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="O73" s="18" t="n">
+        <f aca="false">K73/M73</f>
+        <v>1</v>
+      </c>
+      <c r="P73" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q73" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="R73" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S73" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="T73" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="H73" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I73" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K73" s="1"/>
-      <c r="M73" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N73" s="16" t="s">
+      <c r="U73" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16"/>
-      <c r="V73" s="17"/>
-      <c r="W73" s="17"/>
-      <c r="X73" s="17"/>
-      <c r="Y73" s="17"/>
+      <c r="V73" s="17" t="n">
+        <v>39</v>
+      </c>
+      <c r="W73" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="X73" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="Z73" s="16" t="s">
-        <v>60</v>
+        <v>512</v>
       </c>
       <c r="AA73" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB73" s="1" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C74," ","_") &amp; SUBSTITUTE(D74," ","_") &amp; SUBSTITUTE(E74," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericVocabulary_Status_Vocabulary</v>
+        <v>noria-bib-ref:OntologyGenericTemporal_Ontology:_Tenselessness_and_Quantification</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>49</v>
@@ -8309,53 +8334,44 @@
       <c r="C74" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="G74" s="1" t="s">
+      <c r="D74" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="F74" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="H74" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J74" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="K74" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M74" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O74" s="18" t="n">
-        <f aca="false">K74/M74</f>
-        <v>1</v>
-      </c>
-      <c r="P74" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q74" s="25" t="s">
+      <c r="I74" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="M74" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" s="16" t="s">
         <v>517</v>
       </c>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
       <c r="R74" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="U74" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="Z74" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+      <c r="X74" s="17"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="16" t="s">
         <v>60</v>
       </c>
       <c r="AA74" s="16" t="s">
@@ -8365,7 +8381,7 @@
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C75," ","_") &amp; SUBSTITUTE(D75," ","_") &amp; SUBSTITUTE(E75," ","_")</f>
-        <v>noria-bib-ref:OntologyHealth_ScienceHeLiS</v>
+        <v>noria-bib-ref:OntologyGenericVocabulary_Status_Vocabulary</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>49</v>
@@ -8373,87 +8389,63 @@
       <c r="C75" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="E75" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>522</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="H75" s="16" t="s">
-        <v>64</v>
+      <c r="H75" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="K75" s="17" t="n">
-        <v>53</v>
-      </c>
-      <c r="L75" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="M75" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="N75" s="16" t="s">
-        <v>525</v>
+      <c r="J75" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="K75" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M75" s="2" t="n">
+        <v>-1</v>
       </c>
       <c r="O75" s="18" t="n">
         <f aca="false">K75/M75</f>
-        <v>3.11764705882353</v>
-      </c>
-      <c r="P75" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q75" s="20" t="s">
-        <v>527</v>
+        <v>1</v>
+      </c>
+      <c r="P75" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q75" s="25" t="s">
+        <v>523</v>
       </c>
       <c r="R75" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="T75" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="U75" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="V75" s="17" t="n">
-        <v>281</v>
-      </c>
-      <c r="W75" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="X75" s="17" t="n">
-        <v>31</v>
-      </c>
-      <c r="Y75" s="17" t="n">
-        <v>30005</v>
-      </c>
-      <c r="Z75" s="16" t="s">
-        <v>249</v>
+        <v>524</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Z75" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="AA75" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB75" s="16" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C76," ","_") &amp; SUBSTITUTE(D76," ","_") &amp; SUBSTITUTE(E76," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITA_Semantic_Framework_for_Enabling_Radio_Spectrum_Policy_Management_and_Evaluation</v>
+        <v>noria-bib-ref:OntologyHealth_ScienceHeLiS</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>49</v>
@@ -8462,57 +8454,86 @@
         <v>50</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="F76" s="16"/>
+        <v>527</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>528</v>
+      </c>
       <c r="G76" s="16" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H76" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I76" s="16" t="s">
+      <c r="I76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="K76" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="L76" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="M76" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="N76" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="O76" s="18" t="n">
+        <f aca="false">K76/M76</f>
+        <v>3.11764705882353</v>
+      </c>
+      <c r="P76" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q76" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="R76" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S76" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="T76" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="K76" s="1"/>
-      <c r="M76" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N76" s="16" t="s">
+      <c r="U76" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T76" s="16"/>
-      <c r="U76" s="16"/>
-      <c r="V76" s="17"/>
-      <c r="W76" s="17"/>
-      <c r="X76" s="17"/>
-      <c r="Y76" s="17"/>
+      <c r="V76" s="17" t="n">
+        <v>281</v>
+      </c>
+      <c r="W76" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="X76" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y76" s="17" t="n">
+        <v>30005</v>
+      </c>
       <c r="Z76" s="16" t="s">
-        <v>68</v>
+        <v>249</v>
       </c>
       <c r="AA76" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB76" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB76" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C77," ","_") &amp; SUBSTITUTE(D77," ","_") &amp; SUBSTITUTE(E77," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITA_Semantic-Web_Approach_for_Modeling_Computing_Infrastructures_(INDL)</v>
+        <v>noria-bib-ref:OntologyNet-ITA_Semantic_Framework_for_Enabling_Radio_Spectrum_Policy_Management_and_Evaluation</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>49</v>
@@ -8521,86 +8542,57 @@
         <v>50</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="F77" s="16"/>
+      <c r="G77" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="H77" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I77" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="H77" s="16" t="s">
+      <c r="J77" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J77" s="16" t="s">
+      <c r="K77" s="1"/>
+      <c r="M77" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="K77" s="17" t="n">
-        <v>55</v>
-      </c>
-      <c r="L77" s="16" t="s">
+      <c r="O77" s="16"/>
+      <c r="P77" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="M77" s="17" t="n">
-        <v>29</v>
-      </c>
-      <c r="N77" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="O77" s="18" t="n">
-        <f aca="false">K77/M77</f>
-        <v>1.89655172413793</v>
-      </c>
-      <c r="P77" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q77" s="16" t="s">
-        <v>546</v>
-      </c>
+      <c r="Q77" s="16"/>
       <c r="R77" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S77" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="T77" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="U77" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="V77" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="W77" s="17" t="n">
-        <v>29</v>
-      </c>
-      <c r="X77" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y77" s="17" t="n">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="17"/>
+      <c r="W77" s="17"/>
+      <c r="X77" s="17"/>
+      <c r="Y77" s="17"/>
       <c r="Z77" s="16" t="s">
-        <v>550</v>
+        <v>68</v>
       </c>
       <c r="AA77" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB77" s="16" t="s">
-        <v>551</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB77" s="16"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C78," ","_") &amp; SUBSTITUTE(D78," ","_") &amp; SUBSTITUTE(E78," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITA_semantically_distributed_approach_to_map_IP_traffic_measurements_to_a_standardized_ontology</v>
+        <v>noria-bib-ref:OntologyNet-ITA_Semantic-Web_Approach_for_Modeling_Computing_Infrastructures_(INDL)</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>49</v>
@@ -8609,56 +8601,86 @@
         <v>50</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E78" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J78" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="K78" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="L78" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="M78" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="N78" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="O78" s="18" t="n">
+        <f aca="false">K78/M78</f>
+        <v>1.89655172413793</v>
+      </c>
+      <c r="P78" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q78" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="R78" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S78" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="T78" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="H78" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K78" s="1"/>
-      <c r="M78" s="17" t="n">
-        <v>11</v>
-      </c>
-      <c r="N78" s="16" t="s">
+      <c r="U78" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T78" s="16" t="s">
+      <c r="V78" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="W78" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="X78" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y78" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="U78" s="16"/>
-      <c r="V78" s="17"/>
-      <c r="W78" s="17"/>
-      <c r="X78" s="17"/>
-      <c r="Y78" s="17"/>
-      <c r="Z78" s="16" t="s">
-        <v>60</v>
-      </c>
       <c r="AA78" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB78" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB78" s="16" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C79," ","_") &amp; SUBSTITUTE(D79," ","_") &amp; SUBSTITUTE(E79," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_Ontology_for_Collaborative_Tasks_in_Multi-agent_Systems</v>
+        <v>noria-bib-ref:OntologyNet-ITA_semantically_distributed_approach_to_map_IP_traffic_measurements_to_a_standardized_ontology</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>49</v>
@@ -8667,29 +8689,29 @@
         <v>50</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="K79" s="1"/>
       <c r="M79" s="17" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N79" s="16" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O79" s="16"/>
       <c r="P79" s="16"/>
@@ -8698,23 +8720,15 @@
         <v>58</v>
       </c>
       <c r="T79" s="16" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="U79" s="16"/>
-      <c r="V79" s="17" t="n">
-        <v>34</v>
-      </c>
-      <c r="W79" s="17" t="n">
-        <v>31</v>
-      </c>
-      <c r="X79" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y79" s="17" t="n">
-        <v>73</v>
-      </c>
+      <c r="V79" s="17"/>
+      <c r="W79" s="17"/>
+      <c r="X79" s="17"/>
+      <c r="Y79" s="17"/>
       <c r="Z79" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AA79" s="16" t="s">
         <v>61</v>
@@ -8724,7 +8738,7 @@
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C80," ","_") &amp; SUBSTITUTE(D80," ","_") &amp; SUBSTITUTE(E80," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_ontology_for_exploring_knowledge_in_computer_networks</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_Ontology_for_Collaborative_Tasks_in_Multi-agent_Systems</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>49</v>
@@ -8733,17 +8747,19 @@
         <v>50</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="F80" s="16"/>
+        <v>563</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>564</v>
+      </c>
       <c r="G80" s="16" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I80" s="16" t="s">
         <v>65</v>
@@ -8753,7 +8769,7 @@
         <v>6</v>
       </c>
       <c r="N80" s="16" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="O80" s="16"/>
       <c r="P80" s="16"/>
@@ -8762,24 +8778,33 @@
         <v>58</v>
       </c>
       <c r="T80" s="16" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="U80" s="16"/>
-      <c r="V80" s="17"/>
-      <c r="W80" s="17"/>
-      <c r="X80" s="17"/>
-      <c r="Y80" s="17"/>
+      <c r="V80" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="W80" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="X80" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y80" s="17" t="n">
+        <v>73</v>
+      </c>
       <c r="Z80" s="16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AA80" s="16" t="s">
         <v>61</v>
       </c>
+      <c r="AB80" s="16"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C81," ","_") &amp; SUBSTITUTE(D81," ","_") &amp; SUBSTITUTE(E81," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_ontology_for_managing_network_services_quality</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_ontology_for_exploring_knowledge_in_computer_networks</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>49</v>
@@ -8788,27 +8813,27 @@
         <v>50</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F81" s="16"/>
       <c r="G81" s="16" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I81" s="16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K81" s="1"/>
       <c r="M81" s="17" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N81" s="16" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="O81" s="16"/>
       <c r="P81" s="16"/>
@@ -8816,7 +8841,9 @@
       <c r="R81" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T81" s="16"/>
+      <c r="T81" s="16" t="s">
+        <v>571</v>
+      </c>
       <c r="U81" s="16"/>
       <c r="V81" s="17"/>
       <c r="W81" s="17"/>
@@ -8828,12 +8855,11 @@
       <c r="AA81" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AB81" s="16"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C82," ","_") &amp; SUBSTITUTE(D82," ","_") &amp; SUBSTITUTE(E82," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_Ontology_for_Network_Services</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_ontology_for_managing_network_services_quality</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>49</v>
@@ -8842,29 +8868,27 @@
         <v>50</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>569</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>570</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="F82" s="16"/>
       <c r="G82" s="16" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K82" s="1"/>
       <c r="M82" s="17" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N82" s="16" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
@@ -8889,7 +8913,7 @@
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C83," ","_") &amp; SUBSTITUTE(D83," ","_") &amp; SUBSTITUTE(E83," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_ontology-based_approach_to_improve_SNMP_support_for_autonomic_management</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_Ontology_for_Network_Services</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>49</v>
@@ -8898,29 +8922,29 @@
         <v>50</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>574</v>
+        <v>575</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>576</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K83" s="1"/>
       <c r="M83" s="17" t="n">
         <v>2</v>
       </c>
       <c r="N83" s="16" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="O83" s="16"/>
       <c r="P83" s="16"/>
@@ -8928,9 +8952,7 @@
       <c r="R83" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T83" s="16" t="s">
-        <v>577</v>
-      </c>
+      <c r="T83" s="16"/>
       <c r="U83" s="16"/>
       <c r="V83" s="17"/>
       <c r="W83" s="17"/>
@@ -8942,11 +8964,12 @@
       <c r="AA83" s="16" t="s">
         <v>61</v>
       </c>
+      <c r="AB83" s="16"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C84," ","_") &amp; SUBSTITUTE(D84," ","_") &amp; SUBSTITUTE(E84," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_ontology-based_approach_to_improve_SNMP_support_for_autonomic_management</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>49</v>
@@ -8955,78 +8978,55 @@
         <v>50</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J84" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="K84" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="L84" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K84" s="1"/>
+      <c r="M84" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="M84" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="N84" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="O84" s="18" t="n">
-        <f aca="false">K84/M84</f>
-        <v>2.16666666666667</v>
-      </c>
-      <c r="P84" s="22" t="s">
-        <v>584</v>
-      </c>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
       <c r="Q84" s="16"/>
       <c r="R84" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S84" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="T84" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="T84" s="16" t="s">
+        <v>583</v>
+      </c>
       <c r="U84" s="16"/>
-      <c r="V84" s="17" t="n">
-        <v>77</v>
-      </c>
-      <c r="W84" s="17" t="n">
-        <v>105</v>
-      </c>
-      <c r="X84" s="17" t="n">
-        <v>148</v>
-      </c>
-      <c r="Y84" s="17" t="n">
-        <v>15</v>
-      </c>
+      <c r="V84" s="17"/>
+      <c r="W84" s="17"/>
+      <c r="X84" s="17"/>
+      <c r="Y84" s="17"/>
       <c r="Z84" s="16" t="s">
-        <v>586</v>
+        <v>60</v>
       </c>
       <c r="AA84" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB84" s="16"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C85," ","_") &amp; SUBSTITUTE(D85," ","_") &amp; SUBSTITUTE(E85," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_network</v>
+        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>49</v>
@@ -9035,16 +9035,16 @@
         <v>50</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H85" s="16" t="s">
         <v>71</v>
@@ -9052,67 +9052,61 @@
       <c r="I85" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J85" s="16"/>
+      <c r="J85" s="16" t="s">
+        <v>587</v>
+      </c>
       <c r="K85" s="17" t="n">
         <v>13</v>
       </c>
       <c r="L85" s="16" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="M85" s="17" t="n">
         <v>6</v>
       </c>
       <c r="N85" s="16" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="O85" s="18" t="n">
         <f aca="false">K85/M85</f>
         <v>2.16666666666667</v>
       </c>
       <c r="P85" s="22" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q85" s="16" t="s">
         <v>590</v>
       </c>
+      <c r="Q85" s="16"/>
       <c r="R85" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S85" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="T85" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="U85" s="16" t="s">
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="17" t="n">
+        <v>77</v>
+      </c>
+      <c r="W85" s="17" t="n">
+        <v>105</v>
+      </c>
+      <c r="X85" s="17" t="n">
+        <v>148</v>
+      </c>
+      <c r="Y85" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z85" s="16" t="s">
         <v>592</v>
-      </c>
-      <c r="V85" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="W85" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="X85" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y85" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z85" s="16" t="s">
-        <v>196</v>
       </c>
       <c r="AA85" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB85" s="16" t="s">
-        <v>279</v>
-      </c>
+      <c r="AB85" s="16"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C86," ","_") &amp; SUBSTITUTE(D86," ","_") &amp; SUBSTITUTE(E86," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_product</v>
+        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_network</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>49</v>
@@ -9121,7 +9115,7 @@
         <v>50</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>593</v>
@@ -9130,7 +9124,7 @@
         <v>594</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H86" s="16" t="s">
         <v>71</v>
@@ -9143,13 +9137,13 @@
         <v>13</v>
       </c>
       <c r="L86" s="16" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="M86" s="17" t="n">
         <v>6</v>
       </c>
       <c r="N86" s="16" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="O86" s="18" t="n">
         <f aca="false">K86/M86</f>
@@ -9165,7 +9159,7 @@
         <v>192</v>
       </c>
       <c r="S86" s="16" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="T86" s="16" t="s">
         <v>597</v>
@@ -9174,31 +9168,31 @@
         <v>598</v>
       </c>
       <c r="V86" s="17" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="W86" s="17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="X86" s="17" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Y86" s="17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z86" s="16" t="s">
-        <v>599</v>
+        <v>196</v>
       </c>
       <c r="AA86" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB86" s="16" t="s">
-        <v>600</v>
+        <v>279</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C87," ","_") &amp; SUBSTITUTE(D87," ","_") &amp; SUBSTITUTE(E87," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_workflow</v>
+        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_product</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>49</v>
@@ -9207,16 +9201,16 @@
         <v>50</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H87" s="16" t="s">
         <v>71</v>
@@ -9229,62 +9223,62 @@
         <v>13</v>
       </c>
       <c r="L87" s="16" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="M87" s="17" t="n">
         <v>6</v>
       </c>
       <c r="N87" s="16" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="O87" s="18" t="n">
         <f aca="false">K87/M87</f>
         <v>2.16666666666667</v>
       </c>
       <c r="P87" s="22" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="Q87" s="16" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="R87" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S87" s="16" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="T87" s="16" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="U87" s="16" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="V87" s="17" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="W87" s="17" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="X87" s="17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Y87" s="17" t="n">
         <v>2</v>
       </c>
       <c r="Z87" s="16" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="AA87" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB87" s="16" t="s">
-        <v>88</v>
+        <v>606</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C88," ","_") &amp; SUBSTITUTE(D88," ","_") &amp; SUBSTITUTE(E88," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITModels_of_Telecommunications_Network_Monitoring_Based_on_Knowledge_Graphs</v>
+        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_workflow</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>49</v>
@@ -9293,7 +9287,7 @@
         <v>50</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>607</v>
@@ -9302,47 +9296,75 @@
         <v>608</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I88" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K88" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J88" s="16"/>
+      <c r="K88" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="L88" s="16" t="s">
+        <v>588</v>
+      </c>
       <c r="M88" s="17" t="n">
         <v>6</v>
       </c>
       <c r="N88" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="O88" s="18" t="n">
+        <f aca="false">K88/M88</f>
+        <v>2.16666666666667</v>
+      </c>
+      <c r="P88" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q88" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
       <c r="R88" s="16" t="s">
-        <v>58</v>
+        <v>192</v>
+      </c>
+      <c r="S88" s="16" t="s">
+        <v>591</v>
       </c>
       <c r="T88" s="16" t="s">
         <v>611</v>
       </c>
-      <c r="U88" s="16"/>
-      <c r="V88" s="17"/>
-      <c r="W88" s="17"/>
-      <c r="X88" s="17"/>
-      <c r="Y88" s="17"/>
+      <c r="U88" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="V88" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="W88" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="X88" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y88" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="Z88" s="16" t="s">
-        <v>60</v>
+        <v>605</v>
       </c>
       <c r="AA88" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB88" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB88" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C89," ","_") &amp; SUBSTITUTE(D89," ","_") &amp; SUBSTITUTE(E89," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITStandardizing_Ontologies_for_the_IP_Traffic_Measurement</v>
+        <v>noria-bib-ref:OntologyNet-ITModels_of_Telecommunications_Network_Monitoring_Based_on_Knowledge_Graphs</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>49</v>
@@ -9351,33 +9373,39 @@
         <v>50</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="F89" s="16"/>
+        <v>613</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>614</v>
+      </c>
       <c r="G89" s="16" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>541</v>
+        <v>55</v>
       </c>
       <c r="I89" s="16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K89" s="1"/>
       <c r="M89" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N89" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="N89" s="16" t="s">
+        <v>616</v>
+      </c>
       <c r="O89" s="16"/>
       <c r="P89" s="16"/>
       <c r="Q89" s="16"/>
       <c r="R89" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T89" s="16"/>
+      <c r="T89" s="16" t="s">
+        <v>617</v>
+      </c>
       <c r="U89" s="16"/>
       <c r="V89" s="17"/>
       <c r="W89" s="17"/>
@@ -9394,7 +9422,7 @@
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C90," ","_") &amp; SUBSTITUTE(D90," ","_") &amp; SUBSTITUTE(E90," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITTelecommunications_Service_Domain_Ontology_(TSDO)</v>
+        <v>noria-bib-ref:OntologyNet-ITStandardizing_Ontologies_for_the_IP_Traffic_Measurement</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>49</v>
@@ -9403,46 +9431,40 @@
         <v>50</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="F90" s="16" t="s">
-        <v>615</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="F90" s="16"/>
       <c r="G90" s="16" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>64</v>
+        <v>547</v>
       </c>
       <c r="I90" s="16" t="s">
         <v>65</v>
       </c>
       <c r="K90" s="1"/>
       <c r="M90" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="N90" s="16" t="s">
-        <v>617</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="N90" s="16"/>
       <c r="O90" s="16"/>
       <c r="P90" s="16"/>
       <c r="Q90" s="16"/>
       <c r="R90" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T90" s="16" t="s">
-        <v>618</v>
-      </c>
+      <c r="T90" s="16"/>
       <c r="U90" s="16"/>
       <c r="V90" s="17"/>
       <c r="W90" s="17"/>
       <c r="X90" s="17"/>
       <c r="Y90" s="17"/>
       <c r="Z90" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AA90" s="16" t="s">
         <v>61</v>
@@ -9452,7 +9474,7 @@
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C91," ","_") &amp; SUBSTITUTE(D91," ","_") &amp; SUBSTITUTE(E91," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITThe_SEAS_Communication_ontology</v>
+        <v>noria-bib-ref:OntologyNet-ITTelecommunications_Service_Domain_Ontology_(TSDO)</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>49</v>
@@ -9461,86 +9483,56 @@
         <v>50</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>619</v>
-      </c>
-      <c r="F91" s="3" t="s">
         <v>620</v>
       </c>
+      <c r="F91" s="16" t="s">
+        <v>621</v>
+      </c>
       <c r="G91" s="16" t="s">
-        <v>471</v>
+        <v>622</v>
       </c>
       <c r="H91" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J91" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="K91" s="17" t="n">
-        <v>40</v>
-      </c>
-      <c r="L91" s="16" t="s">
-        <v>472</v>
-      </c>
+      <c r="I91" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K91" s="1"/>
       <c r="M91" s="17" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N91" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="O91" s="18" t="n">
-        <f aca="false">K91/M91</f>
-        <v>1</v>
-      </c>
-      <c r="P91" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q91" s="27" t="s">
         <v>623</v>
       </c>
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="16"/>
       <c r="R91" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S91" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T91" s="16" t="s">
         <v>624</v>
       </c>
-      <c r="T91" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="U91" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="V91" s="17" t="n">
-        <v>69</v>
-      </c>
-      <c r="W91" s="17" t="n">
-        <v>46</v>
-      </c>
-      <c r="X91" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="17" t="n">
-        <v>6</v>
-      </c>
+      <c r="U91" s="16"/>
+      <c r="V91" s="17"/>
+      <c r="W91" s="17"/>
+      <c r="X91" s="17"/>
+      <c r="Y91" s="17"/>
       <c r="Z91" s="16" t="s">
-        <v>487</v>
+        <v>68</v>
       </c>
       <c r="AA91" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB91" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB91" s="16"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C92," ","_") &amp; SUBSTITUTE(D92," ","_") &amp; SUBSTITUTE(E92," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITToCo</v>
+        <v>noria-bib-ref:OntologyNet-ITThe_SEAS_Communication_ontology</v>
       </c>
       <c r="B92" s="16" t="s">
         <v>49</v>
@@ -9549,14 +9541,16 @@
         <v>50</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>627</v>
-      </c>
-      <c r="F92" s="3"/>
+        <v>625</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>626</v>
+      </c>
       <c r="G92" s="16" t="s">
-        <v>628</v>
+        <v>477</v>
       </c>
       <c r="H92" s="16" t="s">
         <v>64</v>
@@ -9564,69 +9558,69 @@
       <c r="I92" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J92" s="3" t="s">
-        <v>629</v>
+      <c r="J92" s="16" t="s">
+        <v>627</v>
       </c>
       <c r="K92" s="17" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L92" s="16" t="s">
-        <v>630</v>
+        <v>478</v>
       </c>
       <c r="M92" s="17" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="N92" s="16" t="s">
-        <v>631</v>
+        <v>478</v>
       </c>
       <c r="O92" s="18" t="n">
         <f aca="false">K92/M92</f>
-        <v>4.33333333333333</v>
+        <v>1</v>
       </c>
       <c r="P92" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q92" s="27" t="s">
+        <v>629</v>
+      </c>
+      <c r="R92" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S92" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="T92" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="U92" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="Q92" s="20" t="s">
-        <v>633</v>
-      </c>
-      <c r="R92" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S92" s="16" t="s">
-        <v>634</v>
-      </c>
-      <c r="T92" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="U92" s="16" t="s">
-        <v>636</v>
-      </c>
       <c r="V92" s="17" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="W92" s="17" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="X92" s="17" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="Y92" s="17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z92" s="16" t="s">
-        <v>637</v>
+        <v>493</v>
       </c>
       <c r="AA92" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB92" s="1" t="s">
-        <v>638</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C93," ","_") &amp; SUBSTITUTE(D93," ","_") &amp; SUBSTITUTE(E93," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITToward_Auto-configuration_in_Software_networks</v>
+        <v>noria-bib-ref:OntologyNet-ITToCo</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>49</v>
@@ -9635,54 +9629,84 @@
         <v>50</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E93" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="K93" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="L93" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="M93" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="O93" s="18" t="n">
+        <f aca="false">K93/M93</f>
+        <v>4.33333333333333</v>
+      </c>
+      <c r="P93" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q93" s="20" t="s">
         <v>639</v>
       </c>
-      <c r="F93" s="16" t="s">
+      <c r="R93" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S93" s="16" t="s">
         <v>640</v>
       </c>
-      <c r="G93" s="16" t="s">
+      <c r="T93" s="16" t="s">
         <v>641</v>
       </c>
-      <c r="H93" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I93" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K93" s="1"/>
-      <c r="M93" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" s="16" t="s">
+      <c r="U93" s="16" t="s">
         <v>642</v>
       </c>
-      <c r="O93" s="16"/>
-      <c r="P93" s="16"/>
-      <c r="Q93" s="16"/>
-      <c r="R93" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T93" s="16"/>
-      <c r="U93" s="16"/>
-      <c r="V93" s="17"/>
-      <c r="W93" s="17"/>
-      <c r="X93" s="17"/>
-      <c r="Y93" s="17"/>
+      <c r="V93" s="17" t="n">
+        <v>85</v>
+      </c>
+      <c r="W93" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="X93" s="17" t="n">
+        <v>54</v>
+      </c>
+      <c r="Y93" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="Z93" s="16" t="s">
-        <v>68</v>
+        <v>643</v>
       </c>
       <c r="AA93" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB93" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB93" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C94," ","_") &amp; SUBSTITUTE(D94," ","_") &amp; SUBSTITUTE(E94," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITUsing_the_Network_Description_Language_in_Optical_Networks</v>
+        <v>noria-bib-ref:OntologyNet-ITToward_Auto-configuration_in_Software_networks</v>
       </c>
       <c r="B94" s="16" t="s">
         <v>49</v>
@@ -9691,14 +9715,16 @@
         <v>50</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>643</v>
-      </c>
-      <c r="F94" s="16"/>
+        <v>645</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>646</v>
+      </c>
       <c r="G94" s="16" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="H94" s="16" t="s">
         <v>71</v>
@@ -9708,10 +9734,10 @@
       </c>
       <c r="K94" s="1"/>
       <c r="M94" s="17" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N94" s="16" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="O94" s="16"/>
       <c r="P94" s="16"/>
@@ -9719,9 +9745,7 @@
       <c r="R94" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T94" s="16" t="s">
-        <v>646</v>
-      </c>
+      <c r="T94" s="16"/>
       <c r="U94" s="16"/>
       <c r="V94" s="17"/>
       <c r="W94" s="17"/>
@@ -9738,7 +9762,7 @@
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C95," ","_") &amp; SUBSTITUTE(D95," ","_") &amp; SUBSTITUTE(E95," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITVers_une_ontologie_des_interactions_HTTP</v>
+        <v>noria-bib-ref:OntologyNet-ITUsing_the_Network_Description_Language_in_Optical_Networks</v>
       </c>
       <c r="B95" s="16" t="s">
         <v>49</v>
@@ -9747,102 +9771,70 @@
         <v>50</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F95" s="16"/>
       <c r="G95" s="16" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="K95" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="L95" s="16" t="s">
-        <v>650</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K95" s="1"/>
       <c r="M95" s="17" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="N95" s="16" t="s">
         <v>651</v>
       </c>
-      <c r="O95" s="18" t="n">
-        <f aca="false">K95/M95</f>
-        <v>2</v>
-      </c>
-      <c r="P95" s="16" t="s">
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T95" s="16" t="s">
         <v>652</v>
       </c>
-      <c r="Q95" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="R95" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S95" s="16" t="s">
-        <v>654</v>
-      </c>
-      <c r="T95" s="16" t="s">
-        <v>655</v>
-      </c>
-      <c r="U95" s="16" t="s">
-        <v>656</v>
-      </c>
-      <c r="V95" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="W95" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="X95" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y95" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="U95" s="16"/>
+      <c r="V95" s="17"/>
+      <c r="W95" s="17"/>
+      <c r="X95" s="17"/>
+      <c r="Y95" s="17"/>
       <c r="Z95" s="16" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="AA95" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB95" s="16" t="s">
-        <v>287</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB95" s="16"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C96," ","_") &amp; SUBSTITUTE(D96," ","_") &amp; SUBSTITUTE(E96," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelingActivity_Ontology</v>
-      </c>
-      <c r="B96" s="3" t="s">
+        <v>noria-bib-ref:OntologyNet-ITVers_une_ontologie_des_interactions_HTTP</v>
+      </c>
+      <c r="B96" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C96" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>657</v>
+        <v>537</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="F96" s="16" t="s">
-        <v>659</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="F96" s="16"/>
       <c r="G96" s="16" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="H96" s="16" t="s">
         <v>64</v>
@@ -9850,85 +9842,87 @@
       <c r="I96" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J96" s="16" t="s">
-        <v>661</v>
+      <c r="J96" s="1" t="s">
+        <v>655</v>
       </c>
       <c r="K96" s="17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L96" s="16" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="M96" s="17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N96" s="16" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="O96" s="18" t="n">
         <f aca="false">K96/M96</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P96" s="16" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q96" s="16" t="s">
-        <v>664</v>
+        <v>658</v>
+      </c>
+      <c r="Q96" s="22" t="s">
+        <v>659</v>
       </c>
       <c r="R96" s="16" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="S96" s="16" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="T96" s="16" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="U96" s="16" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="V96" s="17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="W96" s="17" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="X96" s="17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y96" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z96" s="16" t="s">
-        <v>668</v>
+        <v>196</v>
       </c>
       <c r="AA96" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB96" s="16" t="s">
-        <v>669</v>
+        <v>287</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C97," ","_") &amp; SUBSTITUTE(D97," ","_") &amp; SUBSTITUTE(E97," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelingBPMN_ontology</v>
-      </c>
-      <c r="B97" s="16" t="s">
+        <v>noria-bib-ref:OntologyProcess_modelingActivity_Ontology</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C97" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>670</v>
-      </c>
-      <c r="F97" s="3"/>
+        <v>664</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>665</v>
+      </c>
       <c r="G97" s="16" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H97" s="16" t="s">
         <v>64</v>
@@ -9936,83 +9930,69 @@
       <c r="I97" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J97" s="3" t="s">
-        <v>672</v>
+      <c r="J97" s="16" t="s">
+        <v>667</v>
       </c>
       <c r="K97" s="17" t="n">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="L97" s="16" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="M97" s="17" t="n">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="N97" s="16" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="O97" s="18" t="n">
         <f aca="false">K97/M97</f>
         <v>1</v>
       </c>
-      <c r="P97" s="27" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q97" s="20" t="s">
-        <v>675</v>
+      <c r="P97" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q97" s="16" t="s">
+        <v>670</v>
       </c>
       <c r="R97" s="16" t="s">
         <v>151</v>
       </c>
       <c r="S97" s="16" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="T97" s="16" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="U97" s="16" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="V97" s="17" t="n">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="W97" s="17" t="n">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="X97" s="17" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Y97" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z97" s="16" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="AA97" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB97" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC97" s="16"/>
-      <c r="AD97" s="16"/>
-      <c r="AE97" s="16"/>
-      <c r="AF97" s="16"/>
-      <c r="AG97" s="16"/>
-      <c r="AH97" s="16"/>
-      <c r="AI97" s="16"/>
-      <c r="AJ97" s="16"/>
-      <c r="AK97" s="16"/>
-      <c r="AL97" s="16"/>
-      <c r="AM97" s="16"/>
-      <c r="AN97" s="16"/>
-      <c r="AO97" s="16"/>
-      <c r="AP97" s="16"/>
+        <v>675</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C98," ","_") &amp; SUBSTITUTE(D98," ","_") &amp; SUBSTITUTE(E98," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelingFOLIO</v>
+        <v>noria-bib-ref:OntologyProcess_modelingBPMN_ontology</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>49</v>
@@ -10021,16 +10001,14 @@
         <v>50</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>680</v>
-      </c>
-      <c r="F98" s="16" t="s">
-        <v>681</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="F98" s="3"/>
       <c r="G98" s="16" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="H98" s="16" t="s">
         <v>64</v>
@@ -10038,61 +10016,63 @@
       <c r="I98" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J98" s="16"/>
-      <c r="K98" s="19" t="n">
-        <v>14</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="M98" s="19" t="n">
-        <v>14</v>
-      </c>
-      <c r="N98" s="3" t="s">
-        <v>683</v>
+      <c r="J98" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="K98" s="17" t="n">
+        <v>130</v>
+      </c>
+      <c r="L98" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="M98" s="17" t="n">
+        <v>130</v>
+      </c>
+      <c r="N98" s="16" t="s">
+        <v>679</v>
       </c>
       <c r="O98" s="18" t="n">
         <f aca="false">K98/M98</f>
         <v>1</v>
       </c>
-      <c r="P98" s="20" t="s">
+      <c r="P98" s="27" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q98" s="20" t="s">
+        <v>681</v>
+      </c>
+      <c r="R98" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S98" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="T98" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="U98" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="Q98" s="20" t="s">
-        <v>685</v>
-      </c>
-      <c r="R98" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S98" s="16" t="s">
-        <v>686</v>
-      </c>
-      <c r="T98" s="16" t="s">
-        <v>687</v>
-      </c>
-      <c r="U98" s="16" t="s">
-        <v>688</v>
-      </c>
       <c r="V98" s="17" t="n">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="W98" s="17" t="n">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="X98" s="17" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="Y98" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z98" s="16" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="AA98" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB98" s="16" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AC98" s="16"/>
       <c r="AD98" s="16"/>
@@ -10112,85 +10092,87 @@
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C99," ","_") &amp; SUBSTITUTE(D99," ","_") &amp; SUBSTITUTE(E99," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelinggist</v>
-      </c>
-      <c r="B99" s="3" t="s">
+        <v>noria-bib-ref:OntologyProcess_modelingFOLIO</v>
+      </c>
+      <c r="B99" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>657</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>71</v>
+        <v>663</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J99" s="16" t="s">
-        <v>693</v>
-      </c>
-      <c r="K99" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N99" s="3"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="M99" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>689</v>
+      </c>
       <c r="O99" s="18" t="n">
         <f aca="false">K99/M99</f>
         <v>1</v>
       </c>
-      <c r="P99" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="Q99" s="3" t="s">
-        <v>695</v>
+      <c r="P99" s="20" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q99" s="20" t="s">
+        <v>691</v>
       </c>
       <c r="R99" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="S99" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="T99" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="U99" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="V99" s="19" t="n">
-        <v>138</v>
-      </c>
-      <c r="W99" s="19" t="n">
-        <v>71</v>
-      </c>
-      <c r="X99" s="19" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y99" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z99" s="3" t="s">
-        <v>167</v>
+      <c r="S99" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="T99" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="U99" s="16" t="s">
+        <v>694</v>
+      </c>
+      <c r="V99" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="W99" s="17" t="n">
+        <v>19</v>
+      </c>
+      <c r="X99" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y99" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="16" t="s">
+        <v>695</v>
       </c>
       <c r="AA99" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB99" s="16" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="AC99" s="16"/>
       <c r="AD99" s="16"/>
@@ -10210,67 +10192,86 @@
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C100," ","_") &amp; SUBSTITUTE(D100," ","_") &amp; SUBSTITUTE(E100," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelingIncident_Management_ontology</v>
-      </c>
-      <c r="B100" s="16" t="s">
+        <v>noria-bib-ref:OntologyProcess_modelinggist</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>657</v>
-      </c>
-      <c r="E100" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J100" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="K100" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N100" s="3"/>
+      <c r="O100" s="18" t="n">
+        <f aca="false">K100/M100</f>
+        <v>1</v>
+      </c>
+      <c r="P100" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="G100" s="16" t="s">
+      <c r="Q100" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="H100" s="16" t="s">
+      <c r="R100" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="V100" s="19" t="n">
+        <v>138</v>
+      </c>
+      <c r="W100" s="19" t="n">
         <v>71</v>
       </c>
-      <c r="I100" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J100" s="16" t="s">
-        <v>702</v>
-      </c>
-      <c r="K100" s="17"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N100" s="16" t="s">
-        <v>703</v>
-      </c>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="16"/>
-      <c r="R100" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="S100" s="16"/>
-      <c r="T100" s="16" t="s">
-        <v>704</v>
-      </c>
-      <c r="U100" s="16" t="s">
-        <v>705</v>
-      </c>
-      <c r="V100" s="17"/>
-      <c r="W100" s="17"/>
-      <c r="X100" s="17"/>
-      <c r="Y100" s="17"/>
-      <c r="Z100" s="16" t="s">
-        <v>68</v>
+      <c r="X100" s="19" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y100" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="AA100" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB100" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB100" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="AC100" s="16"/>
       <c r="AD100" s="16"/>
       <c r="AE100" s="16"/>
@@ -10289,7 +10290,7 @@
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C101," ","_") &amp; SUBSTITUTE(D101," ","_") &amp; SUBSTITUTE(E101," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIA_Formal_Ontology_for_Industrial_Maintenance_(IMAMO)</v>
+        <v>noria-bib-ref:OntologyProcess_modelingIncident_Management_ontology</v>
       </c>
       <c r="B101" s="16" t="s">
         <v>49</v>
@@ -10298,30 +10299,33 @@
         <v>50</v>
       </c>
       <c r="D101" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="G101" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="F101" s="16" t="s">
-        <v>708</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>709</v>
-      </c>
       <c r="H101" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I101" s="16" t="s">
         <v>65</v>
+      </c>
+      <c r="J101" s="16" t="s">
+        <v>708</v>
       </c>
       <c r="K101" s="17"/>
       <c r="L101" s="16"/>
       <c r="M101" s="17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N101" s="16" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O101" s="16"/>
       <c r="P101" s="16"/>
@@ -10329,27 +10333,22 @@
       <c r="R101" s="16" t="s">
         <v>58</v>
       </c>
+      <c r="S101" s="16"/>
       <c r="T101" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="U101" s="16" t="s">
         <v>711</v>
       </c>
-      <c r="U101" s="16"/>
-      <c r="V101" s="17" t="n">
-        <v>163</v>
-      </c>
-      <c r="W101" s="17" t="n">
-        <v>187</v>
-      </c>
-      <c r="X101" s="17" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y101" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="V101" s="17"/>
+      <c r="W101" s="17"/>
+      <c r="X101" s="17"/>
+      <c r="Y101" s="17"/>
       <c r="Z101" s="16" t="s">
-        <v>712</v>
+        <v>68</v>
       </c>
       <c r="AA101" s="16" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="AB101" s="16"/>
       <c r="AC101" s="16"/>
@@ -10370,7 +10369,7 @@
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C102," ","_") &amp; SUBSTITUTE(D102," ","_") &amp; SUBSTITUTE(E102," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIBOnSAI</v>
+        <v>noria-bib-ref:OntologySE-SIA_Formal_Ontology_for_Industrial_Maintenance_(IMAMO)</v>
       </c>
       <c r="B102" s="16" t="s">
         <v>49</v>
@@ -10379,7 +10378,7 @@
         <v>50</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>713</v>
@@ -10393,61 +10392,46 @@
       <c r="H102" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K102" s="17" t="n">
-        <v>154</v>
-      </c>
-      <c r="L102" s="16" t="s">
+      <c r="I102" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K102" s="17"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" s="16" t="s">
         <v>716</v>
       </c>
-      <c r="M102" s="17" t="n">
-        <v>61</v>
-      </c>
-      <c r="N102" s="16" t="s">
+      <c r="O102" s="16"/>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T102" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="O102" s="18" t="n">
-        <f aca="false">K102/M102</f>
-        <v>2.52459016393443</v>
-      </c>
-      <c r="Q102" s="1" t="s">
+      <c r="U102" s="16"/>
+      <c r="V102" s="17" t="n">
+        <v>163</v>
+      </c>
+      <c r="W102" s="17" t="n">
+        <v>187</v>
+      </c>
+      <c r="X102" s="17" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y102" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="16" t="s">
         <v>718</v>
-      </c>
-      <c r="R102" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S102" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="T102" s="16" t="s">
-        <v>720</v>
-      </c>
-      <c r="U102" s="16" t="s">
-        <v>721</v>
-      </c>
-      <c r="V102" s="17" t="n">
-        <v>99</v>
-      </c>
-      <c r="W102" s="17" t="n">
-        <v>76</v>
-      </c>
-      <c r="X102" s="17" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y102" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z102" s="16" t="s">
-        <v>722</v>
       </c>
       <c r="AA102" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB102" s="16" t="s">
-        <v>551</v>
-      </c>
+      <c r="AB102" s="16"/>
       <c r="AC102" s="16"/>
       <c r="AD102" s="16"/>
       <c r="AE102" s="16"/>
@@ -10466,7 +10450,7 @@
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C103," ","_") &amp; SUBSTITUTE(D103," ","_") &amp; SUBSTITUTE(E103," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIDogOnt</v>
+        <v>noria-bib-ref:OntologySE-SIBOnSAI</v>
       </c>
       <c r="B103" s="16" t="s">
         <v>49</v>
@@ -10475,16 +10459,16 @@
         <v>50</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="H103" s="16" t="s">
         <v>64</v>
@@ -10493,59 +10477,56 @@
         <v>77</v>
       </c>
       <c r="K103" s="17" t="n">
-        <v>356</v>
+        <v>154</v>
       </c>
       <c r="L103" s="16" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="M103" s="17" t="n">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="N103" s="16" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="O103" s="18" t="n">
         <f aca="false">K103/M103</f>
-        <v>3.49019607843137</v>
-      </c>
-      <c r="P103" s="16" t="s">
-        <v>728</v>
-      </c>
-      <c r="Q103" s="20" t="s">
-        <v>729</v>
+        <v>2.52459016393443</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>724</v>
       </c>
       <c r="R103" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S103" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="T103" s="16" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="U103" s="16" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="V103" s="17" t="n">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="W103" s="17" t="n">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="X103" s="17" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Y103" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z103" s="16" t="s">
-        <v>453</v>
+        <v>728</v>
       </c>
       <c r="AA103" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB103" s="16" t="s">
-        <v>638</v>
+        <v>557</v>
       </c>
       <c r="AC103" s="16"/>
       <c r="AD103" s="16"/>
@@ -10565,7 +10546,7 @@
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C104," ","_") &amp; SUBSTITUTE(D104," ","_") &amp; SUBSTITUTE(E104," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIIoT-Lite</v>
+        <v>noria-bib-ref:OntologySE-SIDogOnt</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>49</v>
@@ -10574,78 +10555,77 @@
         <v>50</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>735</v>
-      </c>
-      <c r="H104" s="16"/>
+        <v>731</v>
+      </c>
+      <c r="H104" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I104" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J104" s="1" t="s">
-        <v>736</v>
-      </c>
       <c r="K104" s="17" t="n">
-        <v>142</v>
+        <v>356</v>
       </c>
       <c r="L104" s="16" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="M104" s="17" t="n">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="N104" s="16" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="O104" s="18" t="n">
         <f aca="false">K104/M104</f>
-        <v>1.84415584415584</v>
+        <v>3.49019607843137</v>
       </c>
       <c r="P104" s="16" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q104" s="16" t="s">
-        <v>740</v>
+        <v>734</v>
+      </c>
+      <c r="Q104" s="20" t="s">
+        <v>735</v>
       </c>
       <c r="R104" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="T104" s="16" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="U104" s="16" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="V104" s="17" t="n">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="W104" s="17" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="X104" s="17" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="Y104" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z104" s="16" t="s">
-        <v>744</v>
+        <v>459</v>
       </c>
       <c r="AA104" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB104" s="1" t="s">
-        <v>745</v>
+      <c r="AB104" s="16" t="s">
+        <v>644</v>
       </c>
       <c r="AC104" s="16"/>
       <c r="AD104" s="16"/>
@@ -10665,7 +10645,7 @@
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C105," ","_") &amp; SUBSTITUTE(D105," ","_") &amp; SUBSTITUTE(E105," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SImIO!_Ontology_Network</v>
+        <v>noria-bib-ref:OntologySE-SIIoT-Lite</v>
       </c>
       <c r="B105" s="16" t="s">
         <v>49</v>
@@ -10674,78 +10654,78 @@
         <v>50</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="H105" s="16"/>
       <c r="I105" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="K105" s="17" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="L105" s="16" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="M105" s="17" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="N105" s="16" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="O105" s="18" t="n">
         <f aca="false">K105/M105</f>
-        <v>1.82051282051282</v>
+        <v>1.84415584415584</v>
       </c>
       <c r="P105" s="16" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="Q105" s="16" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="R105" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="T105" s="16" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="U105" s="16" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="V105" s="17" t="n">
-        <v>624</v>
+        <v>20</v>
       </c>
       <c r="W105" s="17" t="n">
-        <v>364</v>
+        <v>13</v>
       </c>
       <c r="X105" s="17" t="n">
-        <v>310</v>
+        <v>9</v>
       </c>
       <c r="Y105" s="17" t="n">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="Z105" s="16" t="s">
-        <v>167</v>
+        <v>750</v>
       </c>
       <c r="AA105" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB105" s="16" t="s">
-        <v>168</v>
+      <c r="AB105" s="1" t="s">
+        <v>751</v>
       </c>
       <c r="AC105" s="16"/>
       <c r="AD105" s="16"/>
@@ -10765,7 +10745,7 @@
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C106," ","_") &amp; SUBSTITUTE(D106," ","_") &amp; SUBSTITUTE(E106," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIRAMI_Ontology</v>
+        <v>noria-bib-ref:OntologySE-SImIO!_Ontology_Network</v>
       </c>
       <c r="B106" s="16" t="s">
         <v>49</v>
@@ -10774,77 +10754,78 @@
         <v>50</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>759</v>
-      </c>
-      <c r="H106" s="16" t="s">
-        <v>64</v>
-      </c>
+        <v>754</v>
+      </c>
+      <c r="H106" s="16"/>
       <c r="I106" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="J106" s="1" t="s">
+        <v>755</v>
+      </c>
       <c r="K106" s="17" t="n">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="L106" s="16" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="M106" s="17" t="n">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="N106" s="16" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="O106" s="18" t="n">
         <f aca="false">K106/M106</f>
-        <v>1.93181818181818</v>
+        <v>1.82051282051282</v>
       </c>
       <c r="P106" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="Q106" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="R106" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="T106" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="U106" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="Q106" s="20" t="s">
-        <v>763</v>
-      </c>
-      <c r="R106" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S106" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="T106" s="16" t="s">
-        <v>765</v>
-      </c>
-      <c r="U106" s="16" t="s">
-        <v>766</v>
-      </c>
       <c r="V106" s="17" t="n">
-        <v>35</v>
+        <v>624</v>
       </c>
       <c r="W106" s="17" t="n">
-        <v>47</v>
+        <v>364</v>
       </c>
       <c r="X106" s="17" t="n">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="Y106" s="17" t="n">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="Z106" s="16" t="s">
-        <v>767</v>
+        <v>167</v>
       </c>
       <c r="AA106" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB106" s="1" t="s">
-        <v>279</v>
+      <c r="AB106" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="AC106" s="16"/>
       <c r="AD106" s="16"/>
@@ -10864,7 +10845,7 @@
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C107," ","_") &amp; SUBSTITUTE(D107," ","_") &amp; SUBSTITUTE(E107," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SISAREF</v>
+        <v>noria-bib-ref:OntologySE-SIRAMI_Ontology</v>
       </c>
       <c r="B107" s="16" t="s">
         <v>49</v>
@@ -10873,74 +10854,77 @@
         <v>50</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J107" s="16"/>
       <c r="K107" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L107" s="16"/>
+        <v>170</v>
+      </c>
+      <c r="L107" s="16" t="s">
+        <v>766</v>
+      </c>
       <c r="M107" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N107" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="N107" s="16" t="s">
+        <v>767</v>
+      </c>
       <c r="O107" s="18" t="n">
         <f aca="false">K107/M107</f>
-        <v>1</v>
-      </c>
-      <c r="P107" s="20" t="s">
-        <v>771</v>
+        <v>1.93181818181818</v>
+      </c>
+      <c r="P107" s="16" t="s">
+        <v>768</v>
       </c>
       <c r="Q107" s="20" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="R107" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="S107" s="16" t="s">
+      <c r="S107" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="T107" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="U107" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="V107" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="W107" s="17" t="n">
+        <v>47</v>
+      </c>
+      <c r="X107" s="17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y107" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z107" s="16" t="s">
         <v>773</v>
-      </c>
-      <c r="T107" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="U107" s="16" t="s">
-        <v>775</v>
-      </c>
-      <c r="V107" s="17" t="n">
-        <v>81</v>
-      </c>
-      <c r="W107" s="17" t="n">
-        <v>35</v>
-      </c>
-      <c r="X107" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y107" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z107" s="16" t="s">
-        <v>249</v>
       </c>
       <c r="AA107" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="AC107" s="16"/>
       <c r="AD107" s="16"/>
@@ -10960,7 +10944,7 @@
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C108," ","_") &amp; SUBSTITUTE(D108," ","_") &amp; SUBSTITUTE(E108," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SISAREF4SYST</v>
+        <v>noria-bib-ref:OntologySE-SISAREF</v>
       </c>
       <c r="B108" s="16" t="s">
         <v>49</v>
@@ -10969,16 +10953,16 @@
         <v>50</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E108" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="G108" s="16" t="s">
         <v>776</v>
-      </c>
-      <c r="F108" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="G108" s="16" t="s">
-        <v>770</v>
       </c>
       <c r="H108" s="16" t="s">
         <v>71</v>
@@ -11000,43 +10984,43 @@
         <v>1</v>
       </c>
       <c r="P108" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q108" s="20" t="s">
         <v>778</v>
-      </c>
-      <c r="Q108" s="20" t="s">
-        <v>779</v>
       </c>
       <c r="R108" s="16" t="s">
         <v>151</v>
       </c>
       <c r="S108" s="16" t="s">
+        <v>779</v>
+      </c>
+      <c r="T108" s="16" t="s">
         <v>780</v>
       </c>
-      <c r="T108" s="16" t="s">
+      <c r="U108" s="16" t="s">
         <v>781</v>
       </c>
-      <c r="U108" s="16" t="s">
-        <v>782</v>
-      </c>
       <c r="V108" s="17" t="n">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="W108" s="17" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="X108" s="17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y108" s="17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z108" s="16" t="s">
-        <v>783</v>
+        <v>249</v>
       </c>
       <c r="AA108" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB108" s="1" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="AC108" s="16"/>
       <c r="AD108" s="16"/>
@@ -11056,7 +11040,7 @@
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C109," ","_") &amp; SUBSTITUTE(D109," ","_") &amp; SUBSTITUTE(E109," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SISOSA</v>
+        <v>noria-bib-ref:OntologySE-SISAREF4SYST</v>
       </c>
       <c r="B109" s="16" t="s">
         <v>49</v>
@@ -11065,76 +11049,74 @@
         <v>50</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>784</v>
-      </c>
-      <c r="F109" s="3"/>
+        <v>782</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>783</v>
+      </c>
       <c r="G109" s="16" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="H109" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J109" s="3" t="s">
-        <v>786</v>
-      </c>
+      <c r="J109" s="16"/>
       <c r="K109" s="17" t="n">
-        <v>435</v>
-      </c>
-      <c r="L109" s="16" t="s">
-        <v>787</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="L109" s="16"/>
       <c r="M109" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="N109" s="16" t="s">
-        <v>788</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="N109" s="16"/>
       <c r="O109" s="18" t="n">
         <f aca="false">K109/M109</f>
-        <v>43.5</v>
-      </c>
-      <c r="P109" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="P109" s="20" t="s">
+        <v>784</v>
+      </c>
       <c r="Q109" s="20" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="R109" s="16" t="s">
         <v>151</v>
       </c>
       <c r="S109" s="16" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="T109" s="16" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="U109" s="16" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="V109" s="17" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="W109" s="17" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="X109" s="17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y109" s="17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z109" s="16" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="AA109" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB109" s="1" t="s">
-        <v>507</v>
+        <v>279</v>
       </c>
       <c r="AC109" s="16"/>
       <c r="AD109" s="16"/>
@@ -11154,7 +11136,7 @@
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C110," ","_") &amp; SUBSTITUTE(D110," ","_") &amp; SUBSTITUTE(E110," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SISOUPA</v>
+        <v>noria-bib-ref:OntologySE-SISOSA</v>
       </c>
       <c r="B110" s="16" t="s">
         <v>49</v>
@@ -11163,55 +11145,77 @@
         <v>50</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>794</v>
-      </c>
-      <c r="F110" s="16" t="s">
-        <v>795</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="F110" s="3"/>
       <c r="G110" s="16" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="H110" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I110" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="J110" s="1" t="s">
+      <c r="I110" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="K110" s="17" t="n">
+        <v>435</v>
+      </c>
+      <c r="L110" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="M110" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N110" s="16" t="s">
+        <v>794</v>
+      </c>
+      <c r="O110" s="18" t="n">
+        <f aca="false">K110/M110</f>
+        <v>43.5</v>
+      </c>
+      <c r="P110" s="16"/>
+      <c r="Q110" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="R110" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S110" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="T110" s="16" t="s">
         <v>797</v>
       </c>
-      <c r="K110" s="17"/>
-      <c r="L110" s="16"/>
-      <c r="M110" s="17" t="n">
-        <v>214</v>
-      </c>
-      <c r="N110" s="16" t="s">
+      <c r="U110" s="16" t="s">
         <v>798</v>
       </c>
-      <c r="O110" s="16"/>
-      <c r="P110" s="16"/>
-      <c r="Q110" s="16"/>
-      <c r="R110" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T110" s="16" t="s">
+      <c r="V110" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="W110" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="X110" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y110" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z110" s="16" t="s">
         <v>799</v>
       </c>
-      <c r="U110" s="16"/>
-      <c r="V110" s="17"/>
-      <c r="W110" s="17"/>
-      <c r="X110" s="17"/>
-      <c r="Y110" s="17"/>
-      <c r="Z110" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="AA110" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB110" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB110" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="AC110" s="16"/>
       <c r="AD110" s="16"/>
       <c r="AE110" s="16"/>
@@ -11230,7 +11234,7 @@
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C111," ","_") &amp; SUBSTITUTE(D111," ","_") &amp; SUBSTITUTE(E111," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIThe_Building_Topology_Ontology_(BOT)</v>
+        <v>noria-bib-ref:OntologySE-SISOUPA</v>
       </c>
       <c r="B111" s="16" t="s">
         <v>49</v>
@@ -11239,79 +11243,55 @@
         <v>50</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>706</v>
-      </c>
-      <c r="E111" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>800</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="16" t="s">
         <v>801</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G111" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="H111" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J111" s="16"/>
-      <c r="K111" s="2" t="n">
-        <v>160</v>
-      </c>
-      <c r="L111" s="1" t="s">
+      <c r="I111" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J111" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="M111" s="2" t="n">
-        <v>160</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="O111" s="18" t="n">
-        <f aca="false">K111/M111</f>
-        <v>1</v>
-      </c>
-      <c r="P111" s="25" t="s">
+      <c r="K111" s="17"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="17" t="n">
+        <v>214</v>
+      </c>
+      <c r="N111" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="Q111" s="25" t="s">
+      <c r="O111" s="16"/>
+      <c r="P111" s="16"/>
+      <c r="Q111" s="16"/>
+      <c r="R111" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T111" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="R111" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S111" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="T111" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="U111" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="V111" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="W111" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="X111" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y111" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z111" s="1" t="s">
-        <v>783</v>
+      <c r="U111" s="16"/>
+      <c r="V111" s="17"/>
+      <c r="W111" s="17"/>
+      <c r="X111" s="17"/>
+      <c r="Y111" s="17"/>
+      <c r="Z111" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="AA111" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB111" s="16" t="s">
-        <v>600</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB111" s="16"/>
       <c r="AC111" s="16"/>
       <c r="AD111" s="16"/>
       <c r="AE111" s="16"/>
@@ -11328,34 +11308,90 @@
       <c r="AP111" s="16"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
+      <c r="A112" s="6" t="str">
+        <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C112," ","_") &amp; SUBSTITUTE(D112," ","_") &amp; SUBSTITUTE(E112," ","_")</f>
+        <v>noria-bib-ref:OntologySE-SIThe_Building_Topology_Ontology_(BOT)</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="J112" s="16"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="16"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="16"/>
-      <c r="O112" s="16"/>
-      <c r="P112" s="16"/>
-      <c r="Q112" s="16"/>
-      <c r="R112" s="16"/>
-      <c r="S112" s="16"/>
-      <c r="T112" s="16"/>
-      <c r="U112" s="16"/>
-      <c r="V112" s="17"/>
-      <c r="W112" s="17"/>
-      <c r="X112" s="17"/>
-      <c r="Y112" s="17"/>
-      <c r="Z112" s="16"/>
-      <c r="AA112" s="16"/>
-      <c r="AB112" s="16"/>
+      <c r="K112" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="M112" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="O112" s="18" t="n">
+        <f aca="false">K112/M112</f>
+        <v>1</v>
+      </c>
+      <c r="P112" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="Q112" s="25" t="s">
+        <v>811</v>
+      </c>
+      <c r="R112" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S112" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="T112" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="U112" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="V112" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="W112" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="X112" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y112" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z112" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="AA112" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB112" s="16" t="s">
+        <v>606</v>
+      </c>
       <c r="AC112" s="16"/>
       <c r="AD112" s="16"/>
       <c r="AE112" s="16"/>
@@ -47275,8 +47311,52 @@
       <c r="AO928" s="16"/>
       <c r="AP928" s="16"/>
     </row>
+    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A929" s="16"/>
+      <c r="B929" s="16"/>
+      <c r="C929" s="16"/>
+      <c r="D929" s="16"/>
+      <c r="E929" s="16"/>
+      <c r="F929" s="16"/>
+      <c r="G929" s="16"/>
+      <c r="H929" s="16"/>
+      <c r="I929" s="16"/>
+      <c r="J929" s="16"/>
+      <c r="K929" s="17"/>
+      <c r="L929" s="16"/>
+      <c r="M929" s="17"/>
+      <c r="N929" s="16"/>
+      <c r="O929" s="16"/>
+      <c r="P929" s="16"/>
+      <c r="Q929" s="16"/>
+      <c r="R929" s="16"/>
+      <c r="S929" s="16"/>
+      <c r="T929" s="16"/>
+      <c r="U929" s="16"/>
+      <c r="V929" s="17"/>
+      <c r="W929" s="17"/>
+      <c r="X929" s="17"/>
+      <c r="Y929" s="17"/>
+      <c r="Z929" s="16"/>
+      <c r="AA929" s="16"/>
+      <c r="AB929" s="16"/>
+      <c r="AC929" s="16"/>
+      <c r="AD929" s="16"/>
+      <c r="AE929" s="16"/>
+      <c r="AF929" s="16"/>
+      <c r="AG929" s="16"/>
+      <c r="AH929" s="16"/>
+      <c r="AI929" s="16"/>
+      <c r="AJ929" s="16"/>
+      <c r="AK929" s="16"/>
+      <c r="AL929" s="16"/>
+      <c r="AM929" s="16"/>
+      <c r="AN929" s="16"/>
+      <c r="AO929" s="16"/>
+      <c r="AP929" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A14:AB111">
+  <autoFilter ref="A14:AB112">
     <filterColumn colId="18">
       <filters>
         <filter val="dm-rdf/ACCT"/>
@@ -47330,12 +47410,12 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="I15:I111">
+  <conditionalFormatting sqref="I15:I112">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K111">
+  <conditionalFormatting sqref="K15:K112">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>-1</formula>
     </cfRule>
@@ -47351,23 +47431,23 @@
     <hyperlink ref="Q41" r:id="rId5" display="https://raw.githubusercontent.com/OWASP/OdTM/master/OdTMBaseThreatModel.owl "/>
     <hyperlink ref="Q47" r:id="rId6" display="https://sepses.ifs.tuwien.ac.at/ns/logex/ontology.ttl"/>
     <hyperlink ref="Q50" r:id="rId7" display="https://raw.githubusercontent.com/ucoProject/UCO/master/uco-core/core.ttl "/>
-    <hyperlink ref="P54" r:id="rId8" display="http://www.ontobee.org/ontology/GEO"/>
-    <hyperlink ref="Q56" r:id="rId9" display="http://ns.inria.fr/emoca/emoca.ttl "/>
-    <hyperlink ref="P65" r:id="rId10" display="https://github.com/HajoRijgersberg/OM"/>
-    <hyperlink ref="P66" r:id="rId11" display="http://www.daml.org/services/owl-s/1.1/"/>
-    <hyperlink ref="P67" r:id="rId12" display="https://www.w3.org/TR/owl-time/ "/>
-    <hyperlink ref="Q69" r:id="rId13" display="https://raw.githubusercontent.com/thesmartenergy/pep/master/pep-website/src/main/ontop/pep-1.1.ttl"/>
-    <hyperlink ref="P71" r:id="rId14" display="http://www.qudt.org/"/>
-    <hyperlink ref="P74" r:id="rId15" display="https://www.w3.org/2003/06/"/>
-    <hyperlink ref="Q74" r:id="rId16" display="https://www.w3.org/2003/06/sw-vocab-status/ns#"/>
-    <hyperlink ref="Q75" r:id="rId17" display="https://horus-ai.fbk.eu/helis/ontology/helis_v1.10.owl "/>
-    <hyperlink ref="P77" r:id="rId18" display="https://staff.fnwi.uva.nl/p.grosso/INDL.html"/>
-    <hyperlink ref="Q91" r:id="rId19" display="https://w3id.org/seas/CommunicationOntology-1.0.ttl"/>
-    <hyperlink ref="P92" r:id="rId20" display="https://qianruzhou333.github.io/toco_ontology/toco_doc.html "/>
-    <hyperlink ref="Q92" r:id="rId21" display="https://qianruzhou333.github.io/toco_ontology/resource/toco.rdf "/>
-    <hyperlink ref="Q95" r:id="rId22" display="http://www.w3.org/2011/http#"/>
-    <hyperlink ref="Q103" r:id="rId23" display="https://raw.githubusercontent.com/iot-ontologies/dogont/master/dogont.owl "/>
-    <hyperlink ref="P108" r:id="rId24" display="https://saref.etsi.org/extensions.html "/>
+    <hyperlink ref="P55" r:id="rId8" display="http://www.ontobee.org/ontology/GEO"/>
+    <hyperlink ref="Q57" r:id="rId9" display="http://ns.inria.fr/emoca/emoca.ttl "/>
+    <hyperlink ref="P66" r:id="rId10" display="https://github.com/HajoRijgersberg/OM"/>
+    <hyperlink ref="P67" r:id="rId11" display="http://www.daml.org/services/owl-s/1.1/"/>
+    <hyperlink ref="P68" r:id="rId12" display="https://www.w3.org/TR/owl-time/ "/>
+    <hyperlink ref="Q70" r:id="rId13" display="https://raw.githubusercontent.com/thesmartenergy/pep/master/pep-website/src/main/ontop/pep-1.1.ttl"/>
+    <hyperlink ref="P72" r:id="rId14" display="http://www.qudt.org/"/>
+    <hyperlink ref="P75" r:id="rId15" display="https://www.w3.org/2003/06/"/>
+    <hyperlink ref="Q75" r:id="rId16" display="https://www.w3.org/2003/06/sw-vocab-status/ns#"/>
+    <hyperlink ref="Q76" r:id="rId17" display="https://horus-ai.fbk.eu/helis/ontology/helis_v1.10.owl "/>
+    <hyperlink ref="P78" r:id="rId18" display="https://staff.fnwi.uva.nl/p.grosso/INDL.html"/>
+    <hyperlink ref="Q92" r:id="rId19" display="https://w3id.org/seas/CommunicationOntology-1.0.ttl"/>
+    <hyperlink ref="P93" r:id="rId20" display="https://qianruzhou333.github.io/toco_ontology/toco_doc.html "/>
+    <hyperlink ref="Q93" r:id="rId21" display="https://qianruzhou333.github.io/toco_ontology/resource/toco.rdf "/>
+    <hyperlink ref="Q96" r:id="rId22" display="http://www.w3.org/2011/http#"/>
+    <hyperlink ref="Q104" r:id="rId23" display="https://raw.githubusercontent.com/iot-ontologies/dogont/master/dogont.owl "/>
+    <hyperlink ref="P109" r:id="rId24" display="https://saref.etsi.org/extensions.html "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/docs/sota/noria-sota-ontology.xlsx
+++ b/docs/sota/noria-sota-ontology.xlsx
@@ -11,8 +11,8 @@
     <sheet name="ModelSOTA" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ModelSOTA!$A$14:$AB$112</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">ModelSOTA!$D$14:$AA$93</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ModelSOTA!$A$14:$AB$113</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">ModelSOTA!$D$14:$AA$94</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="825">
   <si>
     <t xml:space="preserve">ConceptScheme URI</t>
   </si>
@@ -1005,6 +1005,33 @@
     <t xml:space="preserve">causedBy, generates, mitigates, protects, exploits, threatens, damages</t>
   </si>
   <si>
+    <t xml:space="preserve">ICS-SEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ICS-SEC KG: An Integrated Cybersecurity Resource for Industrial Control Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabulkurniawanICSSECKGIntegrated2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sepses/ics-sec-kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raw.githubusercontent.com/sepses/ics-sec-kg/refs/heads/master/src/main/resources/owl/integrated.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dm-rdf/ICS-SEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset, Campaign, Consequence, Malware, Mitigation, Product, Reference, Software, Tactic, Vendor, Vulnerability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accomplishesTactic, hasConsequence, hasExecutionFlow, hasMitigation, hasProduct, hasReference, has Software, hasTechnique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALHI(D)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Generic</t>
   </si>
   <si>
@@ -1455,7 +1482,7 @@
     <t xml:space="preserve">hasDuration,timePosition,hasEnd</t>
   </si>
   <si>
-    <t xml:space="preserve">oXPDL : A process ontology for business intelligence</t>
+    <t xml:space="preserve">oXPDL - A process ontology for business intelligence</t>
   </si>
   <si>
     <t xml:space="preserve">arminhallerProcessOntologyBusiness2008</t>
@@ -1824,7 +1851,7 @@
     <t xml:space="preserve">ALCHOIQ(D)</t>
   </si>
   <si>
-    <t xml:space="preserve">Devops Infrastructure: network</t>
+    <t xml:space="preserve">Devops Infrastructure – network</t>
   </si>
   <si>
     <t xml:space="preserve">Ontology for the representation of the network-related parts of a DevOps infrastructure</t>
@@ -1842,7 +1869,7 @@
     <t xml:space="preserve">hasMember,isInScheme,serviceInstanceDeployment</t>
   </si>
   <si>
-    <t xml:space="preserve">Devops Infrastructure: product</t>
+    <t xml:space="preserve">Devops Infrastructure – product</t>
   </si>
   <si>
     <t xml:space="preserve">Business Product ontology, which defines the business offering of a company, including the offered services and microservices</t>
@@ -1866,7 +1893,7 @@
     <t xml:space="preserve">noria-bib:FacetStructural</t>
   </si>
   <si>
-    <t xml:space="preserve">Devops Infrastructure: workflow</t>
+    <t xml:space="preserve">Devops Infrastructure – workflow</t>
   </si>
   <si>
     <t xml:space="preserve">Workflow ontology, used to describe workflows and actions that can be used for common DevOps operations</t>
@@ -1964,6 +1991,9 @@
   </si>
   <si>
     <t xml:space="preserve">ToCo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOUCAN Ontology (ToCo) : An ontology for hybrid telecommunication networks. See also https://github.com/Point-Topic/cto-ontology</t>
   </si>
   <si>
     <t xml:space="preserve">qianruzhouToCoOntologyRepresenting2019</t>
@@ -2989,15 +3019,15 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ929"/>
+  <dimension ref="A1:AMJ930"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.94"/>
@@ -3615,14 +3645,14 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="8" t="n">
-        <f aca="false">SUM(K15:K67)</f>
+        <f aca="false">SUM(K15:K68)</f>
         <v>4897</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M13" s="8" t="n">
-        <f aca="false">SUM(M15:M67)</f>
+        <f aca="false">SUM(M15:M68)</f>
         <v>5664</v>
       </c>
       <c r="N13" s="6" t="s">
@@ -6670,7 +6700,7 @@
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C53," ","_") &amp; SUBSTITUTE(D53," ","_") &amp; SUBSTITUTE(E53," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericA_Core_Pattern_for_Events</v>
+        <v>noria-bib-ref:OntologyCyberSecICS-SEC</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>49</v>
@@ -6679,81 +6709,73 @@
         <v>50</v>
       </c>
       <c r="D53" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="F53" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="G53" s="16" t="s">
         <v>322</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>323</v>
       </c>
       <c r="H53" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K53" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="L53" s="16" t="s">
+      <c r="J53" s="16"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q53" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="M53" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="N53" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="O53" s="18" t="n">
-        <f aca="false">K53/M53</f>
-        <v>1</v>
-      </c>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16" t="s">
+      <c r="R53" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S53" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="R53" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S53" s="1" t="s">
+      <c r="T53" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="T53" s="16" t="s">
+      <c r="U53" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="U53" s="3" t="s">
+      <c r="V53" s="17" t="n">
+        <v>56</v>
+      </c>
+      <c r="W53" s="17" t="n">
+        <v>66</v>
+      </c>
+      <c r="X53" s="17" t="n">
+        <v>139</v>
+      </c>
+      <c r="Y53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="16" t="s">
         <v>328</v>
-      </c>
-      <c r="V53" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="W53" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="X53" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="AA53" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB53" s="16" t="s">
-        <v>287</v>
+      <c r="AB53" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C54," ","_") &amp; SUBSTITUTE(D54," ","_") &amp; SUBSTITUTE(E54," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericActivO</v>
+        <v>noria-bib-ref:OntologyGenericA_Core_Pattern_for_Events</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>49</v>
@@ -6762,7 +6784,7 @@
         <v>50</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>330</v>
@@ -6774,45 +6796,69 @@
         <v>332</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K54" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>333</v>
+      </c>
       <c r="M54" s="17" t="n">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="N54" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="O54" s="16"/>
+      <c r="O54" s="18" t="n">
+        <f aca="false">K54/M54</f>
+        <v>1</v>
+      </c>
       <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
+      <c r="Q54" s="16" t="s">
+        <v>334</v>
+      </c>
       <c r="R54" s="16" t="s">
-        <v>58</v>
+        <v>192</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="T54" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="U54" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="16" t="s">
-        <v>100</v>
+        <v>336</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="V54" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="W54" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="X54" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="AA54" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB54" s="16" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C55," ","_") &amp; SUBSTITUTE(D55," ","_") &amp; SUBSTITUTE(E55," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericBasic_geo_Ontology</v>
+        <v>noria-bib-ref:OntologyGenericActivO</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>49</v>
@@ -6821,78 +6867,57 @@
         <v>50</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="H55" s="16"/>
-      <c r="I55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J55" s="16"/>
-      <c r="K55" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L55" s="16"/>
+        <v>341</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" s="1"/>
       <c r="M55" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N55" s="16"/>
-      <c r="O55" s="18" t="n">
-        <f aca="false">K55/M55</f>
-        <v>1</v>
-      </c>
-      <c r="P55" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q55" s="22" t="s">
-        <v>340</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N55" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
       <c r="R55" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S55" s="16" t="s">
-        <v>341</v>
+        <v>58</v>
       </c>
       <c r="T55" s="16" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U55" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="V55" s="17" t="n">
+        <v>344</v>
+      </c>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA55" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="W55" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="X55" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y55" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z55" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA55" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB55" s="16" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C56," ","_") &amp; SUBSTITUTE(D56," ","_") &amp; SUBSTITUTE(E56," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericCommand_and_Control_ontology_(C2)</v>
+        <v>noria-bib-ref:OntologyGenericBasic_geo_Ontology</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>49</v>
@@ -6901,56 +6926,78 @@
         <v>50</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="F56" s="16"/>
+        <v>345</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>346</v>
+      </c>
       <c r="G56" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="H56" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K56" s="1"/>
+        <v>347</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" s="16"/>
+      <c r="K56" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L56" s="16"/>
       <c r="M56" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="N56" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
+        <v>-1</v>
+      </c>
+      <c r="N56" s="16"/>
+      <c r="O56" s="18" t="n">
+        <f aca="false">K56/M56</f>
+        <v>1</v>
+      </c>
+      <c r="P56" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q56" s="22" t="s">
+        <v>349</v>
+      </c>
       <c r="R56" s="16" t="s">
-        <v>58</v>
+        <v>192</v>
+      </c>
+      <c r="S56" s="16" t="s">
+        <v>350</v>
       </c>
       <c r="T56" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="U56" s="16"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
+        <v>351</v>
+      </c>
+      <c r="U56" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="V56" s="17" t="n">
+        <v>61</v>
+      </c>
+      <c r="W56" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="X56" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="Z56" s="16" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="AA56" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB56" s="16" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C57," ","_") &amp; SUBSTITUTE(D57," ","_") &amp; SUBSTITUTE(E57," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericEmOCA</v>
+        <v>noria-bib-ref:OntologyGenericCommand_and_Control_ontology_(C2)</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>49</v>
@@ -6959,83 +7006,56 @@
         <v>50</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>350</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="F57" s="16"/>
       <c r="G57" s="16" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K57" s="17" t="n">
-        <v>35</v>
-      </c>
-      <c r="L57" s="16" t="s">
-        <v>352</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K57" s="1"/>
       <c r="M57" s="17" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N57" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="O57" s="18" t="n">
-        <f aca="false">K57/M57</f>
-        <v>1.45833333333333</v>
-      </c>
-      <c r="P57" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q57" s="20" t="s">
-        <v>355</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
       <c r="R57" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>356</v>
+        <v>58</v>
       </c>
       <c r="T57" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="U57" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="V57" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="W57" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="X57" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y57" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U57" s="16"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
       <c r="Z57" s="16" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="AA57" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB57" s="16" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C58," ","_") &amp; SUBSTITUTE(D58," ","_") &amp; SUBSTITUTE(E58," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericeTOM</v>
+        <v>noria-bib-ref:OntologyGenericEmOCA</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>49</v>
@@ -7044,58 +7064,83 @@
         <v>50</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E58" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="F58" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="G58" s="16" t="s">
         <v>360</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>361</v>
       </c>
       <c r="H58" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I58" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J58" s="1" t="s">
+      <c r="I58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K58" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="M58" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="N58" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="K58" s="1"/>
-      <c r="M58" s="17" t="n">
+      <c r="O58" s="18" t="n">
+        <f aca="false">K58/M58</f>
+        <v>1.45833333333333</v>
+      </c>
+      <c r="P58" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q58" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="R58" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="T58" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="U58" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="V58" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="W58" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="X58" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y58" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="N58" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T58" s="16"/>
-      <c r="U58" s="16"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
-      <c r="Y58" s="17"/>
       <c r="Z58" s="16" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="AA58" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB58" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C59," ","_") &amp; SUBSTITUTE(D59," ","_") &amp; SUBSTITUTE(E59," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericEvent_Ontology</v>
+        <v>noria-bib-ref:OntologyGenericeTOM</v>
       </c>
       <c r="B59" s="16" t="s">
         <v>49</v>
@@ -7104,86 +7149,58 @@
         <v>50</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="K59" s="17" t="n">
-        <v>244</v>
-      </c>
-      <c r="L59" s="16" t="s">
-        <v>369</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="K59" s="1"/>
       <c r="M59" s="17" t="n">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="N59" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="O59" s="18" t="n">
-        <f aca="false">K59/M59</f>
-        <v>1</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="O59" s="16"/>
       <c r="P59" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q59" s="16" t="s">
-        <v>371</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="Q59" s="16"/>
       <c r="R59" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="T59" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="U59" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="V59" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="W59" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="X59" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="17" t="n">
-        <v>2</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="17"/>
       <c r="Z59" s="16" t="s">
-        <v>376</v>
+        <v>60</v>
       </c>
       <c r="AA59" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB59" s="16" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C60," ","_") &amp; SUBSTITUTE(D60," ","_") &amp; SUBSTITUTE(E60," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericEventKG</v>
+        <v>noria-bib-ref:OntologyGenericEvent_Ontology</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>49</v>
@@ -7192,71 +7209,74 @@
         <v>50</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="J60" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="K60" s="17" t="n">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M60" s="17" t="n">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="N60" s="16" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="O60" s="18" t="n">
         <f aca="false">K60/M60</f>
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="P60" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q60" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="R60" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="T60" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="Q60" s="16" t="s">
+      <c r="U60" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="R60" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="T60" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="U60" s="16" t="s">
-        <v>387</v>
-      </c>
       <c r="V60" s="17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W60" s="17" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="X60" s="17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y60" s="17" t="n">
         <v>2</v>
       </c>
       <c r="Z60" s="16" t="s">
-        <v>155</v>
+        <v>385</v>
       </c>
       <c r="AA60" s="16" t="s">
         <v>87</v>
@@ -7268,80 +7288,80 @@
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C61," ","_") &amp; SUBSTITUTE(D61," ","_") &amp; SUBSTITUTE(E61," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericFARO</v>
-      </c>
-      <c r="B61" s="3" t="s">
+        <v>noria-bib-ref:OntologyGenericEventKG</v>
+      </c>
+      <c r="B61" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E61" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G61" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="H61" s="16" t="s">
         <v>389</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="H61" s="16" t="s">
-        <v>64</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J61" s="16"/>
       <c r="K61" s="17" t="n">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="L61" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="M61" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="N61" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="M61" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="16" t="s">
+      <c r="O61" s="18" t="n">
+        <f aca="false">K61/M61</f>
+        <v>2.9</v>
+      </c>
+      <c r="P61" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="O61" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" s="16" t="s">
+      <c r="Q61" s="16" t="s">
         <v>393</v>
-      </c>
-      <c r="Q61" s="16" t="s">
-        <v>394</v>
       </c>
       <c r="R61" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="S61" s="16" t="s">
+      <c r="S61" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="T61" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="T61" s="16" t="s">
+      <c r="U61" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="U61" s="16" t="s">
-        <v>397</v>
-      </c>
       <c r="V61" s="17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="W61" s="17" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="X61" s="17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y61" s="17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z61" s="16" t="s">
-        <v>398</v>
+        <v>155</v>
       </c>
       <c r="AA61" s="16" t="s">
         <v>87</v>
@@ -7353,91 +7373,92 @@
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C62," ","_") &amp; SUBSTITUTE(D62," ","_") &amp; SUBSTITUTE(E62," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericFOAF</v>
-      </c>
-      <c r="B62" s="16" t="s">
+        <v>noria-bib-ref:OntologyGenericFARO</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E62" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="G62" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="F62" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="H62" s="16"/>
+      <c r="H62" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I62" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="16"/>
+      <c r="K62" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="M62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="O62" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="K62" s="17" t="n">
-        <v>1320</v>
-      </c>
-      <c r="L62" s="16" t="s">
+      <c r="Q62" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="M62" s="17" t="n">
-        <v>1320</v>
-      </c>
-      <c r="N62" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="O62" s="18" t="n">
-        <f aca="false">K62/M62</f>
-        <v>1</v>
-      </c>
-      <c r="P62" s="16" t="s">
+      <c r="R62" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S62" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="Q62" s="16" t="s">
+      <c r="T62" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="R62" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S62" s="1" t="s">
+      <c r="U62" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="T62" s="16" t="s">
+      <c r="V62" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="W62" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="X62" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="16" t="s">
         <v>407</v>
-      </c>
-      <c r="U62" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="V62" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="W62" s="17" t="n">
-        <v>36</v>
-      </c>
-      <c r="X62" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y62" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="16" t="s">
-        <v>409</v>
       </c>
       <c r="AA62" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB62" s="16"/>
+      <c r="AB62" s="16" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C63," ","_") &amp; SUBSTITUTE(D63," ","_") &amp; SUBSTITUTE(E63," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericGeonames</v>
+        <v>noria-bib-ref:OntologyGenericFOAF</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>49</v>
@@ -7446,70 +7467,72 @@
         <v>50</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E63" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="G63" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="F63" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>71</v>
-      </c>
+      <c r="H63" s="16"/>
       <c r="I63" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K63" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L63" s="16"/>
+        <v>1320</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>412</v>
+      </c>
       <c r="M63" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N63" s="16"/>
+        <v>1320</v>
+      </c>
+      <c r="N63" s="16" t="s">
+        <v>412</v>
+      </c>
       <c r="O63" s="18" t="n">
         <f aca="false">K63/M63</f>
         <v>1</v>
       </c>
       <c r="P63" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q63" s="16" t="s">
         <v>414</v>
-      </c>
-      <c r="Q63" s="16" t="s">
-        <v>415</v>
       </c>
       <c r="R63" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S63" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="T63" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="T63" s="16" t="s">
+      <c r="U63" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="U63" s="16" t="s">
+      <c r="V63" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="W63" s="17" t="n">
+        <v>36</v>
+      </c>
+      <c r="X63" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y63" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="16" t="s">
         <v>418</v>
-      </c>
-      <c r="V63" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="W63" s="17" t="n">
-        <v>33</v>
-      </c>
-      <c r="X63" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y63" s="17" t="n">
-        <v>701</v>
-      </c>
-      <c r="Z63" s="16" t="s">
-        <v>419</v>
       </c>
       <c r="AA63" s="16" t="s">
         <v>87</v>
@@ -7519,7 +7542,7 @@
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C64," ","_") &amp; SUBSTITUTE(D64," ","_") &amp; SUBSTITUTE(E64," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericGeoSPARQL</v>
+        <v>noria-bib-ref:OntologyGenericGeonames</v>
       </c>
       <c r="B64" s="16" t="s">
         <v>49</v>
@@ -7528,81 +7551,80 @@
         <v>50</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E64" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="F64" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="G64" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="G64" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="H64" s="16"/>
+      <c r="H64" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="I64" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K64" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="L64" s="16" t="s">
-        <v>424</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="L64" s="16"/>
       <c r="M64" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="N64" s="16" t="s">
-        <v>424</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="N64" s="16"/>
       <c r="O64" s="18" t="n">
         <f aca="false">K64/M64</f>
         <v>1</v>
       </c>
       <c r="P64" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q64" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="R64" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S64" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="Q64" s="16" t="s">
+      <c r="T64" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="R64" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S64" s="1" t="s">
+      <c r="U64" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="T64" s="16" t="s">
+      <c r="V64" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="W64" s="17" t="n">
+        <v>33</v>
+      </c>
+      <c r="X64" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y64" s="17" t="n">
+        <v>701</v>
+      </c>
+      <c r="Z64" s="16" t="s">
         <v>428</v>
-      </c>
-      <c r="U64" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="V64" s="17" t="n">
-        <v>9</v>
-      </c>
-      <c r="W64" s="17" t="n">
-        <v>37</v>
-      </c>
-      <c r="X64" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y64" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="16" t="s">
-        <v>430</v>
       </c>
       <c r="AA64" s="16" t="s">
         <v>87</v>
       </c>
+      <c r="AB64" s="16"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C65," ","_") &amp; SUBSTITUTE(D65," ","_") &amp; SUBSTITUTE(E65," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericMining_Minds_Context_Ontology</v>
+        <v>noria-bib-ref:OntologyGenericGeoSPARQL</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>49</v>
@@ -7611,45 +7633,48 @@
         <v>50</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E65" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="G65" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="F65" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>64</v>
-      </c>
+      <c r="H65" s="16"/>
       <c r="I65" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="J65" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="K65" s="17" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="L65" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M65" s="17" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="N65" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O65" s="18" t="n">
         <f aca="false">K65/M65</f>
         <v>1</v>
       </c>
-      <c r="P65" s="16"/>
+      <c r="P65" s="16" t="s">
+        <v>434</v>
+      </c>
       <c r="Q65" s="16" t="s">
         <v>435</v>
       </c>
       <c r="R65" s="16" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>436</v>
@@ -7661,13 +7686,13 @@
         <v>438</v>
       </c>
       <c r="V65" s="17" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="W65" s="17" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="X65" s="17" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Y65" s="17" t="n">
         <v>0</v>
@@ -7682,7 +7707,7 @@
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C66," ","_") &amp; SUBSTITUTE(D66," ","_") &amp; SUBSTITUTE(E66," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericOM</v>
+        <v>noria-bib-ref:OntologyGenericMining_Minds_Context_Ontology</v>
       </c>
       <c r="B66" s="16" t="s">
         <v>49</v>
@@ -7691,7 +7716,7 @@
         <v>50</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>440</v>
@@ -7702,19 +7727,20 @@
       <c r="G66" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="H66" s="16"/>
+      <c r="H66" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I66" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J66" s="16"/>
       <c r="K66" s="17" t="n">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="L66" s="16" t="s">
         <v>443</v>
       </c>
       <c r="M66" s="17" t="n">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="N66" s="16" t="s">
         <v>443</v>
@@ -7723,38 +7749,36 @@
         <f aca="false">K66/M66</f>
         <v>1</v>
       </c>
-      <c r="P66" s="20" t="s">
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16" t="s">
         <v>444</v>
-      </c>
-      <c r="Q66" s="16" t="s">
-        <v>445</v>
       </c>
       <c r="R66" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="S66" s="16" t="s">
+      <c r="S66" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="T66" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="T66" s="16" t="s">
+      <c r="U66" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="U66" s="16" t="s">
+      <c r="V66" s="17" t="n">
+        <v>52</v>
+      </c>
+      <c r="W66" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="X66" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y66" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="16" t="s">
         <v>448</v>
-      </c>
-      <c r="V66" s="17" t="n">
-        <v>815</v>
-      </c>
-      <c r="W66" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="X66" s="17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y66" s="17" t="n">
-        <v>2242</v>
-      </c>
-      <c r="Z66" s="16" t="s">
-        <v>449</v>
       </c>
       <c r="AA66" s="16" t="s">
         <v>87</v>
@@ -7763,7 +7787,7 @@
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C67," ","_") &amp; SUBSTITUTE(D67," ","_") &amp; SUBSTITUTE(E67," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericOWL-S</v>
+        <v>noria-bib-ref:OntologyGenericOM</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>49</v>
@@ -7772,84 +7796,79 @@
         <v>50</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E67" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="F67" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="G67" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="G67" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>64</v>
-      </c>
+      <c r="H67" s="16"/>
       <c r="I67" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>453</v>
-      </c>
+      <c r="J67" s="16"/>
       <c r="K67" s="17" t="n">
-        <v>2340</v>
+        <v>228</v>
       </c>
       <c r="L67" s="16" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M67" s="17" t="n">
-        <v>2340</v>
+        <v>228</v>
       </c>
       <c r="N67" s="16" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O67" s="18" t="n">
         <f aca="false">K67/M67</f>
         <v>1</v>
       </c>
       <c r="P67" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q67" s="3"/>
+        <v>453</v>
+      </c>
+      <c r="Q67" s="16" t="s">
+        <v>454</v>
+      </c>
       <c r="R67" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="S67" s="1" t="s">
+      <c r="S67" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="T67" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="T67" s="16" t="s">
+      <c r="U67" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="U67" s="16" t="s">
+      <c r="V67" s="17" t="n">
+        <v>815</v>
+      </c>
+      <c r="W67" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="X67" s="17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y67" s="17" t="n">
+        <v>2242</v>
+      </c>
+      <c r="Z67" s="16" t="s">
         <v>458</v>
-      </c>
-      <c r="V67" s="17" t="n">
-        <v>86</v>
-      </c>
-      <c r="W67" s="17" t="n">
-        <v>88</v>
-      </c>
-      <c r="X67" s="17" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y67" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z67" s="16" t="s">
-        <v>459</v>
       </c>
       <c r="AA67" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="AB67" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C68," ","_") &amp; SUBSTITUTE(D68," ","_") &amp; SUBSTITUTE(E68," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericOWL-Time</v>
+        <v>noria-bib-ref:OntologyGenericOWL-S</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>49</v>
@@ -7858,82 +7877,84 @@
         <v>50</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E68" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="G68" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="G68" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="H68" s="16"/>
+      <c r="H68" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I68" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J68" s="16"/>
+      <c r="J68" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="K68" s="17" t="n">
-        <v>6</v>
+        <v>2340</v>
       </c>
       <c r="L68" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M68" s="17" t="n">
-        <v>6</v>
+        <v>2340</v>
       </c>
       <c r="N68" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O68" s="18" t="n">
         <f aca="false">K68/M68</f>
         <v>1</v>
       </c>
       <c r="P68" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S68" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="Q68" s="20" t="s">
+      <c r="T68" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="R68" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S68" s="16" t="s">
+      <c r="U68" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="T68" s="16" t="s">
+      <c r="V68" s="17" t="n">
+        <v>86</v>
+      </c>
+      <c r="W68" s="17" t="n">
+        <v>88</v>
+      </c>
+      <c r="X68" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y68" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z68" s="16" t="s">
         <v>468</v>
-      </c>
-      <c r="U68" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="V68" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="W68" s="17" t="n">
-        <v>33</v>
-      </c>
-      <c r="X68" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y68" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z68" s="16" t="s">
-        <v>185</v>
       </c>
       <c r="AA68" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>287</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C69," ","_") &amp; SUBSTITUTE(D69," ","_") &amp; SUBSTITUTE(E69," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericoXPDL :_A_process_ontology_for_business_intelligence</v>
+        <v>noria-bib-ref:OntologyGenericOWL-Time</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>49</v>
@@ -7942,57 +7963,82 @@
         <v>50</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="F69" s="16" t="s">
-        <v>360</v>
+      <c r="F69" s="5" t="s">
+        <v>471</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>471</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I69" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K69" s="1"/>
+        <v>472</v>
+      </c>
+      <c r="H69" s="16"/>
+      <c r="I69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J69" s="16"/>
+      <c r="K69" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>473</v>
+      </c>
       <c r="M69" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N69" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="O69" s="18" t="n">
+        <f aca="false">K69/M69</f>
+        <v>1</v>
+      </c>
+      <c r="P69" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q69" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="R69" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S69" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="T69" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="U69" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="V69" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="W69" s="17" t="n">
+        <v>33</v>
+      </c>
+      <c r="X69" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y69" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="N69" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T69" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="U69" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="V69" s="17"/>
-      <c r="W69" s="17"/>
-      <c r="X69" s="17"/>
-      <c r="Y69" s="17"/>
       <c r="Z69" s="16" t="s">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="AA69" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB69" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C70," ","_") &amp; SUBSTITUTE(D70," ","_") &amp; SUBSTITUTE(E70," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericProcedure_Execution_Platform</v>
+        <v>noria-bib-ref:OntologyGenericoXPDL -_A_process_ontology_for_business_intelligence</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>49</v>
@@ -8000,84 +8046,58 @@
       <c r="C70" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>476</v>
+      <c r="D70" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>369</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="H70" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H70" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K70" s="17" t="n">
-        <v>40</v>
-      </c>
-      <c r="L70" s="16" t="s">
-        <v>478</v>
-      </c>
+      <c r="I70" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K70" s="1"/>
       <c r="M70" s="17" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N70" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="O70" s="18" t="n">
-        <f aca="false">K70/M70</f>
-        <v>1</v>
-      </c>
-      <c r="P70" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q70" s="24" t="s">
-        <v>480</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
       <c r="R70" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="T70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T70" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="U70" s="1" t="s">
+      <c r="U70" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="V70" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="W70" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="X70" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z70" s="1" t="s">
-        <v>484</v>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+      <c r="X70" s="17"/>
+      <c r="Y70" s="17"/>
+      <c r="Z70" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="AA70" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB70" s="1" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C71," ","_") &amp; SUBSTITUTE(D71," ","_") &amp; SUBSTITUTE(E71," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericPROV-O</v>
+        <v>noria-bib-ref:OntologyGenericProcedure_Execution_Platform</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>49</v>
@@ -8085,81 +8105,84 @@
       <c r="C71" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="E71" s="16" t="s">
+      <c r="D71" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="G71" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="G71" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="H71" s="16"/>
+      <c r="H71" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="I71" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J71" s="16"/>
       <c r="K71" s="17" t="n">
-        <v>726</v>
+        <v>40</v>
       </c>
       <c r="L71" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M71" s="17" t="n">
-        <v>726</v>
+        <v>40</v>
       </c>
       <c r="N71" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O71" s="18" t="n">
         <f aca="false">K71/M71</f>
         <v>1</v>
       </c>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="20" t="s">
+      <c r="P71" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q71" s="24" t="s">
         <v>489</v>
       </c>
       <c r="R71" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="S71" s="16" t="s">
+      <c r="S71" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="T71" s="16" t="s">
+      <c r="T71" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="U71" s="16" t="s">
+      <c r="U71" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="V71" s="17" t="n">
-        <v>31</v>
-      </c>
-      <c r="W71" s="17" t="n">
-        <v>44</v>
-      </c>
-      <c r="X71" s="17" t="n">
+      <c r="V71" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="Y71" s="17" t="n">
+      <c r="W71" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="X71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y71" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Z71" s="16" t="s">
+      <c r="Z71" s="1" t="s">
         <v>493</v>
       </c>
       <c r="AA71" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>287</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C72," ","_") &amp; SUBSTITUTE(D72," ","_") &amp; SUBSTITUTE(E72," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericQUDT</v>
+        <v>noria-bib-ref:OntologyGenericPROV-O</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>49</v>
@@ -8168,14 +8191,16 @@
         <v>50</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="F72" s="16"/>
+      <c r="F72" s="16" t="s">
+        <v>495</v>
+      </c>
       <c r="G72" s="16" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="1" t="s">
@@ -8183,25 +8208,23 @@
       </c>
       <c r="J72" s="16"/>
       <c r="K72" s="17" t="n">
-        <v>70</v>
+        <v>726</v>
       </c>
       <c r="L72" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M72" s="17" t="n">
-        <v>70</v>
+        <v>726</v>
       </c>
       <c r="N72" s="16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O72" s="18" t="n">
         <f aca="false">K72/M72</f>
         <v>1</v>
       </c>
-      <c r="P72" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q72" s="25" t="s">
+      <c r="P72" s="16"/>
+      <c r="Q72" s="20" t="s">
         <v>498</v>
       </c>
       <c r="R72" s="16" t="s">
@@ -8217,16 +8240,16 @@
         <v>501</v>
       </c>
       <c r="V72" s="17" t="n">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="W72" s="17" t="n">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="X72" s="17" t="n">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="Y72" s="17" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="Z72" s="16" t="s">
         <v>502</v>
@@ -8241,7 +8264,7 @@
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C73," ","_") &amp; SUBSTITUTE(D73," ","_") &amp; SUBSTITUTE(E73," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericSemantic_Sensor_Network_Ontology</v>
+        <v>noria-bib-ref:OntologyGenericQUDT</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>49</v>
@@ -8250,83 +8273,80 @@
         <v>50</v>
       </c>
       <c r="D73" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="16"/>
+      <c r="G73" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="G73" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="H73" s="16" t="s">
-        <v>64</v>
-      </c>
+      <c r="H73" s="16"/>
       <c r="I73" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="J73" s="16"/>
       <c r="K73" s="17" t="n">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="L73" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M73" s="17" t="n">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="N73" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O73" s="18" t="n">
         <f aca="false">K73/M73</f>
         <v>1</v>
       </c>
-      <c r="P73" s="26" t="s">
+      <c r="P73" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q73" s="25" t="s">
         <v>507</v>
-      </c>
-      <c r="Q73" s="26" t="s">
-        <v>508</v>
       </c>
       <c r="R73" s="16" t="s">
         <v>151</v>
       </c>
       <c r="S73" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="T73" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="T73" s="16" t="s">
+      <c r="U73" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="U73" s="16" t="s">
+      <c r="V73" s="17" t="n">
+        <v>138</v>
+      </c>
+      <c r="W73" s="17" t="n">
+        <v>132</v>
+      </c>
+      <c r="X73" s="17" t="n">
+        <v>102</v>
+      </c>
+      <c r="Y73" s="17" t="n">
+        <v>78</v>
+      </c>
+      <c r="Z73" s="16" t="s">
         <v>511</v>
-      </c>
-      <c r="V73" s="17" t="n">
-        <v>39</v>
-      </c>
-      <c r="W73" s="17" t="n">
-        <v>34</v>
-      </c>
-      <c r="X73" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z73" s="16" t="s">
-        <v>512</v>
       </c>
       <c r="AA73" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>513</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C74," ","_") &amp; SUBSTITUTE(D74," ","_") &amp; SUBSTITUTE(E74," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericTemporal_Ontology:_Tenselessness_and_Quantification</v>
+        <v>noria-bib-ref:OntologyGenericSemantic_Sensor_Network_Ontology</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>49</v>
@@ -8335,53 +8355,83 @@
         <v>50</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E74" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="G74" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="H74" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K74" s="17" t="n">
+        <v>137</v>
+      </c>
+      <c r="L74" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="M74" s="17" t="n">
+        <v>137</v>
+      </c>
+      <c r="N74" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="O74" s="18" t="n">
+        <f aca="false">K74/M74</f>
+        <v>1</v>
+      </c>
+      <c r="P74" s="26" t="s">
         <v>516</v>
       </c>
-      <c r="H74" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I74" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K74" s="1"/>
-      <c r="M74" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N74" s="16" t="s">
+      <c r="Q74" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
       <c r="R74" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="17"/>
-      <c r="W74" s="17"/>
-      <c r="X74" s="17"/>
-      <c r="Y74" s="17"/>
+        <v>151</v>
+      </c>
+      <c r="S74" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="T74" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="U74" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="V74" s="17" t="n">
+        <v>39</v>
+      </c>
+      <c r="W74" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="X74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="Z74" s="16" t="s">
-        <v>60</v>
+        <v>521</v>
       </c>
       <c r="AA74" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB74" s="1" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C75," ","_") &amp; SUBSTITUTE(D75," ","_") &amp; SUBSTITUTE(E75," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericVocabulary_Status_Vocabulary</v>
+        <v>noria-bib-ref:OntologyGenericTemporal_Ontology:_Tenselessness_and_Quantification</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>49</v>
@@ -8389,53 +8439,44 @@
       <c r="C75" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H75" s="1" t="s">
+      <c r="D75" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="H75" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J75" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="K75" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M75" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O75" s="18" t="n">
-        <f aca="false">K75/M75</f>
-        <v>1</v>
-      </c>
-      <c r="P75" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q75" s="25" t="s">
-        <v>523</v>
-      </c>
+      <c r="I75" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K75" s="1"/>
+      <c r="M75" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
       <c r="R75" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="Z75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T75" s="16"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="17"/>
+      <c r="X75" s="17"/>
+      <c r="Y75" s="17"/>
+      <c r="Z75" s="16" t="s">
         <v>60</v>
       </c>
       <c r="AA75" s="16" t="s">
@@ -8445,7 +8486,7 @@
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C76," ","_") &amp; SUBSTITUTE(D76," ","_") &amp; SUBSTITUTE(E76," ","_")</f>
-        <v>noria-bib-ref:OntologyHealth_ScienceHeLiS</v>
+        <v>noria-bib-ref:OntologyGenericVocabulary_Status_Vocabulary</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>49</v>
@@ -8453,87 +8494,63 @@
       <c r="C76" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D76" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="E76" s="16" t="s">
+      <c r="D76" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="F76" s="16" t="s">
+      <c r="F76" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="G76" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="H76" s="16" t="s">
-        <v>64</v>
+      <c r="H76" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="K76" s="17" t="n">
-        <v>53</v>
-      </c>
-      <c r="L76" s="16" t="s">
+      <c r="J76" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="M76" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="N76" s="16" t="s">
-        <v>531</v>
+      <c r="K76" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M76" s="2" t="n">
+        <v>-1</v>
       </c>
       <c r="O76" s="18" t="n">
         <f aca="false">K76/M76</f>
-        <v>3.11764705882353</v>
-      </c>
-      <c r="P76" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P76" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q76" s="25" t="s">
         <v>532</v>
-      </c>
-      <c r="Q76" s="20" t="s">
-        <v>533</v>
       </c>
       <c r="R76" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S76" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="U76" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="T76" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="U76" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="V76" s="17" t="n">
-        <v>281</v>
-      </c>
-      <c r="W76" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="X76" s="17" t="n">
-        <v>31</v>
-      </c>
-      <c r="Y76" s="17" t="n">
-        <v>30005</v>
-      </c>
-      <c r="Z76" s="16" t="s">
-        <v>249</v>
+      <c r="Z76" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="AA76" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB76" s="16" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C77," ","_") &amp; SUBSTITUTE(D77," ","_") &amp; SUBSTITUTE(E77," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITA_Semantic_Framework_for_Enabling_Radio_Spectrum_Policy_Management_and_Evaluation</v>
+        <v>noria-bib-ref:OntologyHealth_ScienceHeLiS</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>49</v>
@@ -8542,57 +8559,86 @@
         <v>50</v>
       </c>
       <c r="D77" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="F77" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="G77" s="16" t="s">
         <v>538</v>
-      </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16" t="s">
-        <v>539</v>
       </c>
       <c r="H77" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I77" s="16" t="s">
+      <c r="I77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K77" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="L77" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="M77" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="N77" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="O77" s="18" t="n">
+        <f aca="false">K77/M77</f>
+        <v>3.11764705882353</v>
+      </c>
+      <c r="P77" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="K77" s="1"/>
-      <c r="M77" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N77" s="16" t="s">
+      <c r="Q77" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16" t="s">
+      <c r="R77" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S77" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T77" s="16"/>
-      <c r="U77" s="16"/>
-      <c r="V77" s="17"/>
-      <c r="W77" s="17"/>
-      <c r="X77" s="17"/>
-      <c r="Y77" s="17"/>
+      <c r="T77" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="U77" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="V77" s="17" t="n">
+        <v>281</v>
+      </c>
+      <c r="W77" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="X77" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y77" s="17" t="n">
+        <v>30005</v>
+      </c>
       <c r="Z77" s="16" t="s">
-        <v>68</v>
+        <v>249</v>
       </c>
       <c r="AA77" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB77" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB77" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C78," ","_") &amp; SUBSTITUTE(D78," ","_") &amp; SUBSTITUTE(E78," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITA_Semantic-Web_Approach_for_Modeling_Computing_Infrastructures_(INDL)</v>
+        <v>noria-bib-ref:OntologyNet-ITA_Semantic_Framework_for_Enabling_Radio_Spectrum_Policy_Management_and_Evaluation</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>49</v>
@@ -8601,86 +8647,57 @@
         <v>50</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>545</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="F78" s="16"/>
       <c r="G78" s="16" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>547</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J78" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="K78" s="17" t="n">
-        <v>55</v>
-      </c>
-      <c r="L78" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I78" s="16" t="s">
         <v>549</v>
       </c>
+      <c r="J78" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="K78" s="1"/>
       <c r="M78" s="17" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="N78" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="O78" s="18" t="n">
-        <f aca="false">K78/M78</f>
-        <v>1.89655172413793</v>
-      </c>
-      <c r="P78" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="Q78" s="16" t="s">
+      <c r="O78" s="16"/>
+      <c r="P78" s="16" t="s">
         <v>552</v>
       </c>
+      <c r="Q78" s="16"/>
       <c r="R78" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S78" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="T78" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="U78" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="V78" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="W78" s="17" t="n">
-        <v>29</v>
-      </c>
-      <c r="X78" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y78" s="17" t="n">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="T78" s="16"/>
+      <c r="U78" s="16"/>
+      <c r="V78" s="17"/>
+      <c r="W78" s="17"/>
+      <c r="X78" s="17"/>
+      <c r="Y78" s="17"/>
       <c r="Z78" s="16" t="s">
-        <v>556</v>
+        <v>68</v>
       </c>
       <c r="AA78" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB78" s="16" t="s">
-        <v>557</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB78" s="16"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C79," ","_") &amp; SUBSTITUTE(D79," ","_") &amp; SUBSTITUTE(E79," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITA_semantically_distributed_approach_to_map_IP_traffic_measurements_to_a_standardized_ontology</v>
+        <v>noria-bib-ref:OntologyNet-ITA_Semantic-Web_Approach_for_Modeling_Computing_Infrastructures_(INDL)</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>49</v>
@@ -8689,56 +8706,86 @@
         <v>50</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E79" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J79" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="K79" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="L79" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="F79" s="16" t="s">
+      <c r="M79" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="N79" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="O79" s="18" t="n">
+        <f aca="false">K79/M79</f>
+        <v>1.89655172413793</v>
+      </c>
+      <c r="P79" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="H79" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I79" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K79" s="1"/>
-      <c r="M79" s="17" t="n">
-        <v>11</v>
-      </c>
-      <c r="N79" s="16" t="s">
+      <c r="Q79" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
       <c r="R79" s="16" t="s">
-        <v>58</v>
+        <v>192</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>562</v>
       </c>
       <c r="T79" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="U79" s="16"/>
-      <c r="V79" s="17"/>
-      <c r="W79" s="17"/>
-      <c r="X79" s="17"/>
-      <c r="Y79" s="17"/>
+        <v>563</v>
+      </c>
+      <c r="U79" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="V79" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="W79" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="X79" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y79" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="Z79" s="16" t="s">
-        <v>60</v>
+        <v>565</v>
       </c>
       <c r="AA79" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB79" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB79" s="16" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C80," ","_") &amp; SUBSTITUTE(D80," ","_") &amp; SUBSTITUTE(E80," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_Ontology_for_Collaborative_Tasks_in_Multi-agent_Systems</v>
+        <v>noria-bib-ref:OntologyNet-ITA_semantically_distributed_approach_to_map_IP_traffic_measurements_to_a_standardized_ontology</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>49</v>
@@ -8747,29 +8794,29 @@
         <v>50</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>65</v>
+        <v>171</v>
       </c>
       <c r="K80" s="1"/>
       <c r="M80" s="17" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N80" s="16" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="O80" s="16"/>
       <c r="P80" s="16"/>
@@ -8778,23 +8825,15 @@
         <v>58</v>
       </c>
       <c r="T80" s="16" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="U80" s="16"/>
-      <c r="V80" s="17" t="n">
-        <v>34</v>
-      </c>
-      <c r="W80" s="17" t="n">
-        <v>31</v>
-      </c>
-      <c r="X80" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y80" s="17" t="n">
-        <v>73</v>
-      </c>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
+      <c r="X80" s="17"/>
+      <c r="Y80" s="17"/>
       <c r="Z80" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AA80" s="16" t="s">
         <v>61</v>
@@ -8804,7 +8843,7 @@
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C81," ","_") &amp; SUBSTITUTE(D81," ","_") &amp; SUBSTITUTE(E81," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_ontology_for_exploring_knowledge_in_computer_networks</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_Ontology_for_Collaborative_Tasks_in_Multi-agent_Systems</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>49</v>
@@ -8813,17 +8852,19 @@
         <v>50</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="F81" s="16"/>
+        <v>572</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>573</v>
+      </c>
       <c r="G81" s="16" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I81" s="16" t="s">
         <v>65</v>
@@ -8833,7 +8874,7 @@
         <v>6</v>
       </c>
       <c r="N81" s="16" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="O81" s="16"/>
       <c r="P81" s="16"/>
@@ -8842,24 +8883,33 @@
         <v>58</v>
       </c>
       <c r="T81" s="16" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="U81" s="16"/>
-      <c r="V81" s="17"/>
-      <c r="W81" s="17"/>
-      <c r="X81" s="17"/>
-      <c r="Y81" s="17"/>
+      <c r="V81" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="W81" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="X81" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y81" s="17" t="n">
+        <v>73</v>
+      </c>
       <c r="Z81" s="16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AA81" s="16" t="s">
         <v>61</v>
       </c>
+      <c r="AB81" s="16"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C82," ","_") &amp; SUBSTITUTE(D82," ","_") &amp; SUBSTITUTE(E82," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_ontology_for_managing_network_services_quality</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_ontology_for_exploring_knowledge_in_computer_networks</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>49</v>
@@ -8868,27 +8918,27 @@
         <v>50</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K82" s="1"/>
       <c r="M82" s="17" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N82" s="16" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
@@ -8896,7 +8946,9 @@
       <c r="R82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T82" s="16"/>
+      <c r="T82" s="16" t="s">
+        <v>580</v>
+      </c>
       <c r="U82" s="16"/>
       <c r="V82" s="17"/>
       <c r="W82" s="17"/>
@@ -8908,12 +8960,11 @@
       <c r="AA82" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AB82" s="16"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C83," ","_") &amp; SUBSTITUTE(D83," ","_") &amp; SUBSTITUTE(E83," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_Ontology_for_Network_Services</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_ontology_for_managing_network_services_quality</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>49</v>
@@ -8922,29 +8973,27 @@
         <v>50</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>576</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="F83" s="16"/>
       <c r="G83" s="16" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K83" s="1"/>
       <c r="M83" s="17" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N83" s="16" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="O83" s="16"/>
       <c r="P83" s="16"/>
@@ -8969,7 +9018,7 @@
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C84," ","_") &amp; SUBSTITUTE(D84," ","_") &amp; SUBSTITUTE(E84," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_ontology-based_approach_to_improve_SNMP_support_for_autonomic_management</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_Ontology_for_Network_Services</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>49</v>
@@ -8978,29 +9027,29 @@
         <v>50</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="F84" s="16" t="s">
-        <v>580</v>
+        <v>584</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>585</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K84" s="1"/>
       <c r="M84" s="17" t="n">
         <v>2</v>
       </c>
       <c r="N84" s="16" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="O84" s="16"/>
       <c r="P84" s="16"/>
@@ -9008,9 +9057,7 @@
       <c r="R84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T84" s="16" t="s">
-        <v>583</v>
-      </c>
+      <c r="T84" s="16"/>
       <c r="U84" s="16"/>
       <c r="V84" s="17"/>
       <c r="W84" s="17"/>
@@ -9022,11 +9069,12 @@
       <c r="AA84" s="16" t="s">
         <v>61</v>
       </c>
+      <c r="AB84" s="16"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C85," ","_") &amp; SUBSTITUTE(D85," ","_") &amp; SUBSTITUTE(E85," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_ontology-based_approach_to_improve_SNMP_support_for_autonomic_management</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>49</v>
@@ -9035,78 +9083,55 @@
         <v>50</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J85" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="K85" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="L85" s="16" t="s">
-        <v>588</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I85" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K85" s="1"/>
       <c r="M85" s="17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N85" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="O85" s="18" t="n">
-        <f aca="false">K85/M85</f>
-        <v>2.16666666666667</v>
-      </c>
-      <c r="P85" s="22" t="s">
-        <v>590</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
       <c r="Q85" s="16"/>
       <c r="R85" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S85" s="16" t="s">
-        <v>591</v>
-      </c>
-      <c r="T85" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="T85" s="16" t="s">
+        <v>592</v>
+      </c>
       <c r="U85" s="16"/>
-      <c r="V85" s="17" t="n">
-        <v>77</v>
-      </c>
-      <c r="W85" s="17" t="n">
-        <v>105</v>
-      </c>
-      <c r="X85" s="17" t="n">
-        <v>148</v>
-      </c>
-      <c r="Y85" s="17" t="n">
-        <v>15</v>
-      </c>
+      <c r="V85" s="17"/>
+      <c r="W85" s="17"/>
+      <c r="X85" s="17"/>
+      <c r="Y85" s="17"/>
       <c r="Z85" s="16" t="s">
-        <v>592</v>
+        <v>60</v>
       </c>
       <c r="AA85" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB85" s="16"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C86," ","_") &amp; SUBSTITUTE(D86," ","_") &amp; SUBSTITUTE(E86," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_network</v>
+        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>49</v>
@@ -9115,7 +9140,7 @@
         <v>50</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>593</v>
@@ -9124,7 +9149,7 @@
         <v>594</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="H86" s="16" t="s">
         <v>71</v>
@@ -9132,67 +9157,61 @@
       <c r="I86" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J86" s="16"/>
+      <c r="J86" s="16" t="s">
+        <v>596</v>
+      </c>
       <c r="K86" s="17" t="n">
         <v>13</v>
       </c>
       <c r="L86" s="16" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="M86" s="17" t="n">
         <v>6</v>
       </c>
       <c r="N86" s="16" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="O86" s="18" t="n">
         <f aca="false">K86/M86</f>
         <v>2.16666666666667</v>
       </c>
       <c r="P86" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q86" s="16" t="s">
-        <v>596</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="Q86" s="16"/>
       <c r="R86" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S86" s="16" t="s">
-        <v>591</v>
-      </c>
-      <c r="T86" s="16" t="s">
-        <v>597</v>
-      </c>
-      <c r="U86" s="16" t="s">
-        <v>598</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
       <c r="V86" s="17" t="n">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="W86" s="17" t="n">
+        <v>105</v>
+      </c>
+      <c r="X86" s="17" t="n">
+        <v>148</v>
+      </c>
+      <c r="Y86" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="X86" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y86" s="17" t="n">
-        <v>0</v>
-      </c>
       <c r="Z86" s="16" t="s">
-        <v>196</v>
+        <v>601</v>
       </c>
       <c r="AA86" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB86" s="16" t="s">
-        <v>279</v>
-      </c>
+      <c r="AB86" s="16"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C87," ","_") &amp; SUBSTITUTE(D87," ","_") &amp; SUBSTITUTE(E87," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_product</v>
+        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure_–_network</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>49</v>
@@ -9201,16 +9220,16 @@
         <v>50</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="H87" s="16" t="s">
         <v>71</v>
@@ -9223,62 +9242,62 @@
         <v>13</v>
       </c>
       <c r="L87" s="16" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="M87" s="17" t="n">
         <v>6</v>
       </c>
       <c r="N87" s="16" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="O87" s="18" t="n">
         <f aca="false">K87/M87</f>
         <v>2.16666666666667</v>
       </c>
       <c r="P87" s="22" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="Q87" s="16" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="R87" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S87" s="16" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="T87" s="16" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="U87" s="16" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="V87" s="17" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="W87" s="17" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="X87" s="17" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Y87" s="17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z87" s="16" t="s">
-        <v>605</v>
+        <v>196</v>
       </c>
       <c r="AA87" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB87" s="16" t="s">
-        <v>606</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C88," ","_") &amp; SUBSTITUTE(D88," ","_") &amp; SUBSTITUTE(E88," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_workflow</v>
+        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure_–_product</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>49</v>
@@ -9287,16 +9306,16 @@
         <v>50</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="H88" s="16" t="s">
         <v>71</v>
@@ -9309,62 +9328,62 @@
         <v>13</v>
       </c>
       <c r="L88" s="16" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="M88" s="17" t="n">
         <v>6</v>
       </c>
       <c r="N88" s="16" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="O88" s="18" t="n">
         <f aca="false">K88/M88</f>
         <v>2.16666666666667</v>
       </c>
       <c r="P88" s="22" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Q88" s="16" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="R88" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S88" s="16" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="T88" s="16" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="U88" s="16" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="V88" s="17" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="W88" s="17" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="X88" s="17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Y88" s="17" t="n">
         <v>2</v>
       </c>
       <c r="Z88" s="16" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="AA88" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB88" s="16" t="s">
-        <v>88</v>
+        <v>615</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C89," ","_") &amp; SUBSTITUTE(D89," ","_") &amp; SUBSTITUTE(E89," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITModels_of_Telecommunications_Network_Monitoring_Based_on_Knowledge_Graphs</v>
+        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure_–_workflow</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>49</v>
@@ -9373,56 +9392,84 @@
         <v>50</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I89" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K89" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J89" s="16"/>
+      <c r="K89" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="L89" s="16" t="s">
+        <v>597</v>
+      </c>
       <c r="M89" s="17" t="n">
         <v>6</v>
       </c>
       <c r="N89" s="16" t="s">
-        <v>616</v>
-      </c>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="16"/>
+        <v>598</v>
+      </c>
+      <c r="O89" s="18" t="n">
+        <f aca="false">K89/M89</f>
+        <v>2.16666666666667</v>
+      </c>
+      <c r="P89" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q89" s="16" t="s">
+        <v>619</v>
+      </c>
       <c r="R89" s="16" t="s">
-        <v>58</v>
+        <v>192</v>
+      </c>
+      <c r="S89" s="16" t="s">
+        <v>600</v>
       </c>
       <c r="T89" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="U89" s="16"/>
-      <c r="V89" s="17"/>
-      <c r="W89" s="17"/>
-      <c r="X89" s="17"/>
-      <c r="Y89" s="17"/>
+        <v>620</v>
+      </c>
+      <c r="U89" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="V89" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="W89" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="X89" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y89" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="Z89" s="16" t="s">
-        <v>60</v>
+        <v>614</v>
       </c>
       <c r="AA89" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB89" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB89" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C90," ","_") &amp; SUBSTITUTE(D90," ","_") &amp; SUBSTITUTE(E90," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITStandardizing_Ontologies_for_the_IP_Traffic_Measurement</v>
+        <v>noria-bib-ref:OntologyNet-ITModels_of_Telecommunications_Network_Monitoring_Based_on_Knowledge_Graphs</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>49</v>
@@ -9431,33 +9478,39 @@
         <v>50</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>618</v>
-      </c>
-      <c r="F90" s="16"/>
+        <v>622</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>623</v>
+      </c>
       <c r="G90" s="16" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>547</v>
+        <v>55</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K90" s="1"/>
       <c r="M90" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N90" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="N90" s="16" t="s">
+        <v>625</v>
+      </c>
       <c r="O90" s="16"/>
       <c r="P90" s="16"/>
       <c r="Q90" s="16"/>
       <c r="R90" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T90" s="16"/>
+      <c r="T90" s="16" t="s">
+        <v>626</v>
+      </c>
       <c r="U90" s="16"/>
       <c r="V90" s="17"/>
       <c r="W90" s="17"/>
@@ -9474,7 +9527,7 @@
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C91," ","_") &amp; SUBSTITUTE(D91," ","_") &amp; SUBSTITUTE(E91," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITTelecommunications_Service_Domain_Ontology_(TSDO)</v>
+        <v>noria-bib-ref:OntologyNet-ITStandardizing_Ontologies_for_the_IP_Traffic_Measurement</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>49</v>
@@ -9483,46 +9536,40 @@
         <v>50</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="F91" s="16" t="s">
-        <v>621</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="F91" s="16"/>
       <c r="G91" s="16" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>64</v>
+        <v>556</v>
       </c>
       <c r="I91" s="16" t="s">
         <v>65</v>
       </c>
       <c r="K91" s="1"/>
       <c r="M91" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="N91" s="16" t="s">
-        <v>623</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="N91" s="16"/>
       <c r="O91" s="16"/>
       <c r="P91" s="16"/>
       <c r="Q91" s="16"/>
       <c r="R91" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T91" s="16" t="s">
-        <v>624</v>
-      </c>
+      <c r="T91" s="16"/>
       <c r="U91" s="16"/>
       <c r="V91" s="17"/>
       <c r="W91" s="17"/>
       <c r="X91" s="17"/>
       <c r="Y91" s="17"/>
       <c r="Z91" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AA91" s="16" t="s">
         <v>61</v>
@@ -9532,7 +9579,7 @@
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C92," ","_") &amp; SUBSTITUTE(D92," ","_") &amp; SUBSTITUTE(E92," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITThe_SEAS_Communication_ontology</v>
+        <v>noria-bib-ref:OntologyNet-ITTelecommunications_Service_Domain_Ontology_(TSDO)</v>
       </c>
       <c r="B92" s="16" t="s">
         <v>49</v>
@@ -9541,86 +9588,56 @@
         <v>50</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>626</v>
+        <v>629</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>630</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>477</v>
+        <v>631</v>
       </c>
       <c r="H92" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J92" s="16" t="s">
-        <v>627</v>
-      </c>
-      <c r="K92" s="17" t="n">
-        <v>40</v>
-      </c>
-      <c r="L92" s="16" t="s">
-        <v>478</v>
-      </c>
+      <c r="I92" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K92" s="1"/>
       <c r="M92" s="17" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N92" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="O92" s="18" t="n">
-        <f aca="false">K92/M92</f>
-        <v>1</v>
-      </c>
-      <c r="P92" s="20" t="s">
-        <v>628</v>
-      </c>
-      <c r="Q92" s="27" t="s">
-        <v>629</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
       <c r="R92" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S92" s="16" t="s">
-        <v>630</v>
+        <v>58</v>
       </c>
       <c r="T92" s="16" t="s">
-        <v>631</v>
-      </c>
-      <c r="U92" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="V92" s="17" t="n">
-        <v>69</v>
-      </c>
-      <c r="W92" s="17" t="n">
-        <v>46</v>
-      </c>
-      <c r="X92" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y92" s="17" t="n">
-        <v>6</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="U92" s="16"/>
+      <c r="V92" s="17"/>
+      <c r="W92" s="17"/>
+      <c r="X92" s="17"/>
+      <c r="Y92" s="17"/>
       <c r="Z92" s="16" t="s">
-        <v>493</v>
+        <v>68</v>
       </c>
       <c r="AA92" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB92" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB92" s="16"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C93," ","_") &amp; SUBSTITUTE(D93," ","_") &amp; SUBSTITUTE(E93," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITToCo</v>
+        <v>noria-bib-ref:OntologyNet-ITThe_SEAS_Communication_ontology</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>49</v>
@@ -9629,14 +9646,16 @@
         <v>50</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>633</v>
-      </c>
-      <c r="F93" s="3"/>
+        <v>634</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>635</v>
+      </c>
       <c r="G93" s="16" t="s">
-        <v>634</v>
+        <v>486</v>
       </c>
       <c r="H93" s="16" t="s">
         <v>64</v>
@@ -9644,69 +9663,69 @@
       <c r="I93" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J93" s="3" t="s">
-        <v>635</v>
+      <c r="J93" s="16" t="s">
+        <v>636</v>
       </c>
       <c r="K93" s="17" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="L93" s="16" t="s">
-        <v>636</v>
+        <v>487</v>
       </c>
       <c r="M93" s="17" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="N93" s="16" t="s">
-        <v>637</v>
+        <v>487</v>
       </c>
       <c r="O93" s="18" t="n">
         <f aca="false">K93/M93</f>
-        <v>4.33333333333333</v>
+        <v>1</v>
       </c>
       <c r="P93" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q93" s="27" t="s">
         <v>638</v>
       </c>
-      <c r="Q93" s="20" t="s">
+      <c r="R93" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S93" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="R93" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S93" s="16" t="s">
+      <c r="T93" s="16" t="s">
         <v>640</v>
       </c>
-      <c r="T93" s="16" t="s">
+      <c r="U93" s="16" t="s">
         <v>641</v>
       </c>
-      <c r="U93" s="16" t="s">
-        <v>642</v>
-      </c>
       <c r="V93" s="17" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="W93" s="17" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="X93" s="17" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="Y93" s="17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z93" s="16" t="s">
-        <v>643</v>
+        <v>502</v>
       </c>
       <c r="AA93" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB93" s="1" t="s">
-        <v>644</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C94," ","_") &amp; SUBSTITUTE(D94," ","_") &amp; SUBSTITUTE(E94," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITToward_Auto-configuration_in_Software_networks</v>
+        <v>noria-bib-ref:OntologyNet-ITToCo</v>
       </c>
       <c r="B94" s="16" t="s">
         <v>49</v>
@@ -9715,54 +9734,86 @@
         <v>50</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E94" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J94" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="F94" s="16" t="s">
+      <c r="K94" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="L94" s="16" t="s">
         <v>646</v>
       </c>
-      <c r="G94" s="16" t="s">
+      <c r="M94" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" s="16" t="s">
         <v>647</v>
       </c>
-      <c r="H94" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I94" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K94" s="1"/>
-      <c r="M94" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" s="16" t="s">
+      <c r="O94" s="18" t="n">
+        <f aca="false">K94/M94</f>
+        <v>4.33333333333333</v>
+      </c>
+      <c r="P94" s="20" t="s">
         <v>648</v>
       </c>
-      <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
-      <c r="Q94" s="16"/>
+      <c r="Q94" s="20" t="s">
+        <v>649</v>
+      </c>
       <c r="R94" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T94" s="16"/>
-      <c r="U94" s="16"/>
-      <c r="V94" s="17"/>
-      <c r="W94" s="17"/>
-      <c r="X94" s="17"/>
-      <c r="Y94" s="17"/>
+        <v>192</v>
+      </c>
+      <c r="S94" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="T94" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="U94" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="V94" s="17" t="n">
+        <v>85</v>
+      </c>
+      <c r="W94" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="X94" s="17" t="n">
+        <v>54</v>
+      </c>
+      <c r="Y94" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="Z94" s="16" t="s">
-        <v>68</v>
+        <v>653</v>
       </c>
       <c r="AA94" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB94" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB94" s="1" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C95," ","_") &amp; SUBSTITUTE(D95," ","_") &amp; SUBSTITUTE(E95," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITUsing_the_Network_Description_Language_in_Optical_Networks</v>
+        <v>noria-bib-ref:OntologyNet-ITToward_Auto-configuration_in_Software_networks</v>
       </c>
       <c r="B95" s="16" t="s">
         <v>49</v>
@@ -9771,14 +9822,16 @@
         <v>50</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>649</v>
-      </c>
-      <c r="F95" s="16"/>
+        <v>655</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>656</v>
+      </c>
       <c r="G95" s="16" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="H95" s="16" t="s">
         <v>71</v>
@@ -9788,10 +9841,10 @@
       </c>
       <c r="K95" s="1"/>
       <c r="M95" s="17" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N95" s="16" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="O95" s="16"/>
       <c r="P95" s="16"/>
@@ -9799,9 +9852,7 @@
       <c r="R95" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T95" s="16" t="s">
-        <v>652</v>
-      </c>
+      <c r="T95" s="16"/>
       <c r="U95" s="16"/>
       <c r="V95" s="17"/>
       <c r="W95" s="17"/>
@@ -9818,7 +9869,7 @@
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C96," ","_") &amp; SUBSTITUTE(D96," ","_") &amp; SUBSTITUTE(E96," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITVers_une_ontologie_des_interactions_HTTP</v>
+        <v>noria-bib-ref:OntologyNet-ITUsing_the_Network_Description_Language_in_Optical_Networks</v>
       </c>
       <c r="B96" s="16" t="s">
         <v>49</v>
@@ -9827,102 +9878,70 @@
         <v>50</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="F96" s="16"/>
       <c r="G96" s="16" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="K96" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="L96" s="16" t="s">
-        <v>656</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I96" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K96" s="1"/>
       <c r="M96" s="17" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="N96" s="16" t="s">
-        <v>657</v>
-      </c>
-      <c r="O96" s="18" t="n">
-        <f aca="false">K96/M96</f>
-        <v>2</v>
-      </c>
-      <c r="P96" s="16" t="s">
-        <v>658</v>
-      </c>
-      <c r="Q96" s="22" t="s">
-        <v>659</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="16"/>
       <c r="R96" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S96" s="16" t="s">
-        <v>660</v>
+        <v>58</v>
       </c>
       <c r="T96" s="16" t="s">
-        <v>661</v>
-      </c>
-      <c r="U96" s="16" t="s">
         <v>662</v>
       </c>
-      <c r="V96" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="W96" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="X96" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y96" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="U96" s="16"/>
+      <c r="V96" s="17"/>
+      <c r="W96" s="17"/>
+      <c r="X96" s="17"/>
+      <c r="Y96" s="17"/>
       <c r="Z96" s="16" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="AA96" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB96" s="16" t="s">
-        <v>287</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB96" s="16"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C97," ","_") &amp; SUBSTITUTE(D97," ","_") &amp; SUBSTITUTE(E97," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelingActivity_Ontology</v>
-      </c>
-      <c r="B97" s="3" t="s">
+        <v>noria-bib-ref:OntologyNet-ITVers_une_ontologie_des_interactions_HTTP</v>
+      </c>
+      <c r="B97" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C97" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D97" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="E97" s="16" t="s">
         <v>663</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="F97" s="16"/>
+      <c r="G97" s="16" t="s">
         <v>664</v>
-      </c>
-      <c r="F97" s="16" t="s">
-        <v>665</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>666</v>
       </c>
       <c r="H97" s="16" t="s">
         <v>64</v>
@@ -9930,85 +9949,87 @@
       <c r="I97" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J97" s="16" t="s">
+      <c r="J97" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="K97" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="M97" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" s="16" t="s">
         <v>667</v>
-      </c>
-      <c r="K97" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="L97" s="16" t="s">
-        <v>668</v>
-      </c>
-      <c r="M97" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="N97" s="16" t="s">
-        <v>668</v>
       </c>
       <c r="O97" s="18" t="n">
         <f aca="false">K97/M97</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P97" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q97" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="Q97" s="16" t="s">
+      <c r="R97" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S97" s="16" t="s">
         <v>670</v>
       </c>
-      <c r="R97" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S97" s="16" t="s">
+      <c r="T97" s="16" t="s">
         <v>671</v>
       </c>
-      <c r="T97" s="16" t="s">
+      <c r="U97" s="16" t="s">
         <v>672</v>
       </c>
-      <c r="U97" s="16" t="s">
-        <v>673</v>
-      </c>
       <c r="V97" s="17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="W97" s="17" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="X97" s="17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y97" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z97" s="16" t="s">
-        <v>674</v>
+        <v>196</v>
       </c>
       <c r="AA97" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB97" s="16" t="s">
-        <v>675</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C98," ","_") &amp; SUBSTITUTE(D98," ","_") &amp; SUBSTITUTE(E98," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelingBPMN_ontology</v>
-      </c>
-      <c r="B98" s="16" t="s">
+        <v>noria-bib-ref:OntologyProcess_modelingActivity_Ontology</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="E98" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="G98" s="16" t="s">
         <v>676</v>
-      </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="16" t="s">
-        <v>677</v>
       </c>
       <c r="H98" s="16" t="s">
         <v>64</v>
@@ -10016,83 +10037,69 @@
       <c r="I98" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="J98" s="16" t="s">
+        <v>677</v>
+      </c>
+      <c r="K98" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L98" s="16" t="s">
         <v>678</v>
       </c>
-      <c r="K98" s="17" t="n">
-        <v>130</v>
-      </c>
-      <c r="L98" s="16" t="s">
-        <v>679</v>
-      </c>
       <c r="M98" s="17" t="n">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="N98" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="O98" s="18" t="n">
         <f aca="false">K98/M98</f>
         <v>1</v>
       </c>
-      <c r="P98" s="27" t="s">
+      <c r="P98" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q98" s="16" t="s">
         <v>680</v>
-      </c>
-      <c r="Q98" s="20" t="s">
-        <v>681</v>
       </c>
       <c r="R98" s="16" t="s">
         <v>151</v>
       </c>
       <c r="S98" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="T98" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="T98" s="16" t="s">
+      <c r="U98" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="U98" s="16" t="s">
-        <v>684</v>
-      </c>
       <c r="V98" s="17" t="n">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="W98" s="17" t="n">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="X98" s="17" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Y98" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z98" s="16" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AA98" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB98" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC98" s="16"/>
-      <c r="AD98" s="16"/>
-      <c r="AE98" s="16"/>
-      <c r="AF98" s="16"/>
-      <c r="AG98" s="16"/>
-      <c r="AH98" s="16"/>
-      <c r="AI98" s="16"/>
-      <c r="AJ98" s="16"/>
-      <c r="AK98" s="16"/>
-      <c r="AL98" s="16"/>
-      <c r="AM98" s="16"/>
-      <c r="AN98" s="16"/>
-      <c r="AO98" s="16"/>
-      <c r="AP98" s="16"/>
+        <v>685</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C99," ","_") &amp; SUBSTITUTE(D99," ","_") &amp; SUBSTITUTE(E99," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelingFOLIO</v>
+        <v>noria-bib-ref:OntologyProcess_modelingBPMN_ontology</v>
       </c>
       <c r="B99" s="16" t="s">
         <v>49</v>
@@ -10101,16 +10108,14 @@
         <v>50</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>686</v>
       </c>
-      <c r="F99" s="16" t="s">
+      <c r="F99" s="3"/>
+      <c r="G99" s="16" t="s">
         <v>687</v>
-      </c>
-      <c r="G99" s="16" t="s">
-        <v>688</v>
       </c>
       <c r="H99" s="16" t="s">
         <v>64</v>
@@ -10118,31 +10123,33 @@
       <c r="I99" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J99" s="16"/>
-      <c r="K99" s="19" t="n">
-        <v>14</v>
-      </c>
-      <c r="L99" s="3" t="s">
+      <c r="J99" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="K99" s="17" t="n">
+        <v>130</v>
+      </c>
+      <c r="L99" s="16" t="s">
         <v>689</v>
       </c>
-      <c r="M99" s="19" t="n">
-        <v>14</v>
-      </c>
-      <c r="N99" s="3" t="s">
+      <c r="M99" s="17" t="n">
+        <v>130</v>
+      </c>
+      <c r="N99" s="16" t="s">
         <v>689</v>
       </c>
       <c r="O99" s="18" t="n">
         <f aca="false">K99/M99</f>
         <v>1</v>
       </c>
-      <c r="P99" s="20" t="s">
+      <c r="P99" s="27" t="s">
         <v>690</v>
       </c>
       <c r="Q99" s="20" t="s">
         <v>691</v>
       </c>
       <c r="R99" s="16" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="S99" s="16" t="s">
         <v>692</v>
@@ -10154,13 +10161,13 @@
         <v>694</v>
       </c>
       <c r="V99" s="17" t="n">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="W99" s="17" t="n">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="X99" s="17" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="Y99" s="17" t="n">
         <v>0</v>
@@ -10172,7 +10179,7 @@
         <v>87</v>
       </c>
       <c r="AB99" s="16" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="AC99" s="16"/>
       <c r="AD99" s="16"/>
@@ -10192,85 +10199,87 @@
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C100," ","_") &amp; SUBSTITUTE(D100," ","_") &amp; SUBSTITUTE(E100," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelinggist</v>
-      </c>
-      <c r="B100" s="3" t="s">
+        <v>noria-bib-ref:OntologyProcess_modelingFOLIO</v>
+      </c>
+      <c r="B100" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>663</v>
-      </c>
-      <c r="E100" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>696</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G100" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>71</v>
+      <c r="H100" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J100" s="16" t="s">
+      <c r="J100" s="16"/>
+      <c r="K100" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="L100" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="K100" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N100" s="3"/>
+      <c r="M100" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>699</v>
+      </c>
       <c r="O100" s="18" t="n">
         <f aca="false">K100/M100</f>
         <v>1</v>
       </c>
-      <c r="P100" s="3" t="s">
+      <c r="P100" s="20" t="s">
         <v>700</v>
       </c>
-      <c r="Q100" s="3" t="s">
+      <c r="Q100" s="20" t="s">
         <v>701</v>
       </c>
       <c r="R100" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="S100" s="1" t="s">
+      <c r="S100" s="16" t="s">
         <v>702</v>
       </c>
-      <c r="T100" s="3" t="s">
+      <c r="T100" s="16" t="s">
         <v>703</v>
       </c>
-      <c r="U100" s="3" t="s">
+      <c r="U100" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="V100" s="19" t="n">
-        <v>138</v>
-      </c>
-      <c r="W100" s="19" t="n">
-        <v>71</v>
-      </c>
-      <c r="X100" s="19" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y100" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>167</v>
+      <c r="V100" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="W100" s="17" t="n">
+        <v>19</v>
+      </c>
+      <c r="X100" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y100" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="16" t="s">
+        <v>705</v>
       </c>
       <c r="AA100" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB100" s="16" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="AC100" s="16"/>
       <c r="AD100" s="16"/>
@@ -10290,67 +10299,86 @@
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C101," ","_") &amp; SUBSTITUTE(D101," ","_") &amp; SUBSTITUTE(E101," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelingIncident_Management_ontology</v>
-      </c>
-      <c r="B101" s="16" t="s">
+        <v>noria-bib-ref:OntologyProcess_modelinggist</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>663</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>705</v>
+        <v>673</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>706</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="G101" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="H101" s="16" t="s">
+      <c r="G101" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I101" s="16" t="s">
-        <v>65</v>
+      <c r="I101" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="J101" s="16" t="s">
-        <v>708</v>
-      </c>
-      <c r="K101" s="17"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N101" s="16" t="s">
         <v>709</v>
       </c>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
+      <c r="K101" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N101" s="3"/>
+      <c r="O101" s="18" t="n">
+        <f aca="false">K101/M101</f>
+        <v>1</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>711</v>
+      </c>
       <c r="R101" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="S101" s="16"/>
-      <c r="T101" s="16" t="s">
-        <v>710</v>
-      </c>
-      <c r="U101" s="16" t="s">
-        <v>711</v>
-      </c>
-      <c r="V101" s="17"/>
-      <c r="W101" s="17"/>
-      <c r="X101" s="17"/>
-      <c r="Y101" s="17"/>
-      <c r="Z101" s="16" t="s">
-        <v>68</v>
+        <v>192</v>
+      </c>
+      <c r="S101" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="V101" s="19" t="n">
+        <v>138</v>
+      </c>
+      <c r="W101" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="X101" s="19" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y101" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="AA101" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB101" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB101" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="AC101" s="16"/>
       <c r="AD101" s="16"/>
       <c r="AE101" s="16"/>
@@ -10369,7 +10397,7 @@
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C102," ","_") &amp; SUBSTITUTE(D102," ","_") &amp; SUBSTITUTE(E102," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIA_Formal_Ontology_for_Industrial_Maintenance_(IMAMO)</v>
+        <v>noria-bib-ref:OntologyProcess_modelingIncident_Management_ontology</v>
       </c>
       <c r="B102" s="16" t="s">
         <v>49</v>
@@ -10378,30 +10406,33 @@
         <v>50</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>712</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>713</v>
-      </c>
-      <c r="F102" s="16" t="s">
-        <v>714</v>
+        <v>673</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>716</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I102" s="16" t="s">
         <v>65</v>
+      </c>
+      <c r="J102" s="16" t="s">
+        <v>718</v>
       </c>
       <c r="K102" s="17"/>
       <c r="L102" s="16"/>
       <c r="M102" s="17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N102" s="16" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="O102" s="16"/>
       <c r="P102" s="16"/>
@@ -10409,27 +10440,22 @@
       <c r="R102" s="16" t="s">
         <v>58</v>
       </c>
+      <c r="S102" s="16"/>
       <c r="T102" s="16" t="s">
-        <v>717</v>
-      </c>
-      <c r="U102" s="16"/>
-      <c r="V102" s="17" t="n">
-        <v>163</v>
-      </c>
-      <c r="W102" s="17" t="n">
-        <v>187</v>
-      </c>
-      <c r="X102" s="17" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y102" s="17" t="n">
-        <v>0</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="U102" s="16" t="s">
+        <v>721</v>
+      </c>
+      <c r="V102" s="17"/>
+      <c r="W102" s="17"/>
+      <c r="X102" s="17"/>
+      <c r="Y102" s="17"/>
       <c r="Z102" s="16" t="s">
-        <v>718</v>
+        <v>68</v>
       </c>
       <c r="AA102" s="16" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="AB102" s="16"/>
       <c r="AC102" s="16"/>
@@ -10450,7 +10476,7 @@
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C103," ","_") &amp; SUBSTITUTE(D103," ","_") &amp; SUBSTITUTE(E103," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIBOnSAI</v>
+        <v>noria-bib-ref:OntologySE-SIA_Formal_Ontology_for_Industrial_Maintenance_(IMAMO)</v>
       </c>
       <c r="B103" s="16" t="s">
         <v>49</v>
@@ -10459,65 +10485,52 @@
         <v>50</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="H103" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K103" s="17" t="n">
-        <v>154</v>
-      </c>
-      <c r="L103" s="16" t="s">
-        <v>722</v>
-      </c>
+      <c r="I103" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K103" s="17"/>
+      <c r="L103" s="16"/>
       <c r="M103" s="17" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="N103" s="16" t="s">
-        <v>723</v>
-      </c>
-      <c r="O103" s="18" t="n">
-        <f aca="false">K103/M103</f>
-        <v>2.52459016393443</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>724</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
       <c r="R103" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S103" s="1" t="s">
-        <v>725</v>
+        <v>58</v>
       </c>
       <c r="T103" s="16" t="s">
-        <v>726</v>
-      </c>
-      <c r="U103" s="16" t="s">
         <v>727</v>
       </c>
+      <c r="U103" s="16"/>
       <c r="V103" s="17" t="n">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="W103" s="17" t="n">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="X103" s="17" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y103" s="17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z103" s="16" t="s">
         <v>728</v>
@@ -10525,9 +10538,7 @@
       <c r="AA103" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB103" s="16" t="s">
-        <v>557</v>
-      </c>
+      <c r="AB103" s="16"/>
       <c r="AC103" s="16"/>
       <c r="AD103" s="16"/>
       <c r="AE103" s="16"/>
@@ -10546,7 +10557,7 @@
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C104," ","_") &amp; SUBSTITUTE(D104," ","_") &amp; SUBSTITUTE(E104," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIDogOnt</v>
+        <v>noria-bib-ref:OntologySE-SIBOnSAI</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>49</v>
@@ -10555,7 +10566,7 @@
         <v>50</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>729</v>
@@ -10573,59 +10584,56 @@
         <v>77</v>
       </c>
       <c r="K104" s="17" t="n">
-        <v>356</v>
+        <v>154</v>
       </c>
       <c r="L104" s="16" t="s">
         <v>732</v>
       </c>
       <c r="M104" s="17" t="n">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="N104" s="16" t="s">
         <v>733</v>
       </c>
       <c r="O104" s="18" t="n">
         <f aca="false">K104/M104</f>
-        <v>3.49019607843137</v>
-      </c>
-      <c r="P104" s="16" t="s">
+        <v>2.52459016393443</v>
+      </c>
+      <c r="Q104" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="Q104" s="20" t="s">
-        <v>735</v>
       </c>
       <c r="R104" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S104" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="T104" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="T104" s="16" t="s">
+      <c r="U104" s="16" t="s">
         <v>737</v>
       </c>
-      <c r="U104" s="16" t="s">
+      <c r="V104" s="17" t="n">
+        <v>99</v>
+      </c>
+      <c r="W104" s="17" t="n">
+        <v>76</v>
+      </c>
+      <c r="X104" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y104" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z104" s="16" t="s">
         <v>738</v>
-      </c>
-      <c r="V104" s="17" t="n">
-        <v>167</v>
-      </c>
-      <c r="W104" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="X104" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y104" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z104" s="16" t="s">
-        <v>459</v>
       </c>
       <c r="AA104" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB104" s="16" t="s">
-        <v>644</v>
+        <v>566</v>
       </c>
       <c r="AC104" s="16"/>
       <c r="AD104" s="16"/>
@@ -10645,7 +10653,7 @@
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C105," ","_") &amp; SUBSTITUTE(D105," ","_") &amp; SUBSTITUTE(E105," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIIoT-Lite</v>
+        <v>noria-bib-ref:OntologySE-SIDogOnt</v>
       </c>
       <c r="B105" s="16" t="s">
         <v>49</v>
@@ -10654,7 +10662,7 @@
         <v>50</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>739</v>
@@ -10665,67 +10673,66 @@
       <c r="G105" s="16" t="s">
         <v>741</v>
       </c>
-      <c r="H105" s="16"/>
+      <c r="H105" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I105" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="K105" s="17" t="n">
+        <v>356</v>
+      </c>
+      <c r="L105" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="K105" s="17" t="n">
-        <v>142</v>
-      </c>
-      <c r="L105" s="16" t="s">
+      <c r="M105" s="17" t="n">
+        <v>102</v>
+      </c>
+      <c r="N105" s="16" t="s">
         <v>743</v>
-      </c>
-      <c r="M105" s="17" t="n">
-        <v>77</v>
-      </c>
-      <c r="N105" s="16" t="s">
-        <v>744</v>
       </c>
       <c r="O105" s="18" t="n">
         <f aca="false">K105/M105</f>
-        <v>1.84415584415584</v>
+        <v>3.49019607843137</v>
       </c>
       <c r="P105" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q105" s="20" t="s">
         <v>745</v>
-      </c>
-      <c r="Q105" s="16" t="s">
-        <v>746</v>
       </c>
       <c r="R105" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S105" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="T105" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="T105" s="16" t="s">
+      <c r="U105" s="16" t="s">
         <v>748</v>
       </c>
-      <c r="U105" s="16" t="s">
-        <v>749</v>
-      </c>
       <c r="V105" s="17" t="n">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="W105" s="17" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="X105" s="17" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="Y105" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z105" s="16" t="s">
-        <v>750</v>
+        <v>468</v>
       </c>
       <c r="AA105" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB105" s="1" t="s">
-        <v>751</v>
+      <c r="AB105" s="16" t="s">
+        <v>654</v>
       </c>
       <c r="AC105" s="16"/>
       <c r="AD105" s="16"/>
@@ -10745,7 +10752,7 @@
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C106," ","_") &amp; SUBSTITUTE(D106," ","_") &amp; SUBSTITUTE(E106," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SImIO!_Ontology_Network</v>
+        <v>noria-bib-ref:OntologySE-SIIoT-Lite</v>
       </c>
       <c r="B106" s="16" t="s">
         <v>49</v>
@@ -10754,78 +10761,78 @@
         <v>50</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="H106" s="16"/>
       <c r="I106" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="K106" s="17" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="L106" s="16" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="M106" s="17" t="n">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="N106" s="16" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="O106" s="18" t="n">
         <f aca="false">K106/M106</f>
-        <v>1.82051282051282</v>
+        <v>1.84415584415584</v>
       </c>
       <c r="P106" s="16" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="Q106" s="16" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="R106" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S106" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="T106" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="U106" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="V106" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="W106" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="X106" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y106" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="16" t="s">
         <v>760</v>
-      </c>
-      <c r="T106" s="16" t="s">
-        <v>761</v>
-      </c>
-      <c r="U106" s="16" t="s">
-        <v>762</v>
-      </c>
-      <c r="V106" s="17" t="n">
-        <v>624</v>
-      </c>
-      <c r="W106" s="17" t="n">
-        <v>364</v>
-      </c>
-      <c r="X106" s="17" t="n">
-        <v>310</v>
-      </c>
-      <c r="Y106" s="17" t="n">
-        <v>520</v>
-      </c>
-      <c r="Z106" s="16" t="s">
-        <v>167</v>
       </c>
       <c r="AA106" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB106" s="16" t="s">
-        <v>168</v>
+      <c r="AB106" s="1" t="s">
+        <v>761</v>
       </c>
       <c r="AC106" s="16"/>
       <c r="AD106" s="16"/>
@@ -10845,7 +10852,7 @@
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C107," ","_") &amp; SUBSTITUTE(D107," ","_") &amp; SUBSTITUTE(E107," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIRAMI_Ontology</v>
+        <v>noria-bib-ref:OntologySE-SImIO!_Ontology_Network</v>
       </c>
       <c r="B107" s="16" t="s">
         <v>49</v>
@@ -10854,47 +10861,48 @@
         <v>50</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="E107" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="F107" s="16" t="s">
         <v>763</v>
       </c>
-      <c r="F107" s="16" t="s">
+      <c r="G107" s="16" t="s">
         <v>764</v>
       </c>
-      <c r="G107" s="16" t="s">
-        <v>765</v>
-      </c>
-      <c r="H107" s="16" t="s">
-        <v>64</v>
-      </c>
+      <c r="H107" s="16"/>
       <c r="I107" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="J107" s="1" t="s">
+        <v>765</v>
+      </c>
       <c r="K107" s="17" t="n">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="L107" s="16" t="s">
         <v>766</v>
       </c>
       <c r="M107" s="17" t="n">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="N107" s="16" t="s">
         <v>767</v>
       </c>
       <c r="O107" s="18" t="n">
         <f aca="false">K107/M107</f>
-        <v>1.93181818181818</v>
+        <v>1.82051282051282</v>
       </c>
       <c r="P107" s="16" t="s">
         <v>768</v>
       </c>
-      <c r="Q107" s="20" t="s">
+      <c r="Q107" s="16" t="s">
         <v>769</v>
       </c>
       <c r="R107" s="16" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="S107" s="1" t="s">
         <v>770</v>
@@ -10906,25 +10914,25 @@
         <v>772</v>
       </c>
       <c r="V107" s="17" t="n">
-        <v>35</v>
+        <v>624</v>
       </c>
       <c r="W107" s="17" t="n">
-        <v>47</v>
+        <v>364</v>
       </c>
       <c r="X107" s="17" t="n">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="Y107" s="17" t="n">
-        <v>3</v>
+        <v>520</v>
       </c>
       <c r="Z107" s="16" t="s">
-        <v>773</v>
+        <v>167</v>
       </c>
       <c r="AA107" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB107" s="1" t="s">
-        <v>279</v>
+      <c r="AB107" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="AC107" s="16"/>
       <c r="AD107" s="16"/>
@@ -10944,7 +10952,7 @@
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C108," ","_") &amp; SUBSTITUTE(D108," ","_") &amp; SUBSTITUTE(E108," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SISAREF</v>
+        <v>noria-bib-ref:OntologySE-SIRAMI_Ontology</v>
       </c>
       <c r="B108" s="16" t="s">
         <v>49</v>
@@ -10953,74 +10961,77 @@
         <v>50</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="E108" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="F108" s="16" t="s">
         <v>774</v>
       </c>
-      <c r="F108" s="16" t="s">
+      <c r="G108" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="G108" s="16" t="s">
-        <v>776</v>
-      </c>
       <c r="H108" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J108" s="16"/>
       <c r="K108" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L108" s="16"/>
+        <v>170</v>
+      </c>
+      <c r="L108" s="16" t="s">
+        <v>776</v>
+      </c>
       <c r="M108" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N108" s="16"/>
+        <v>88</v>
+      </c>
+      <c r="N108" s="16" t="s">
+        <v>777</v>
+      </c>
       <c r="O108" s="18" t="n">
         <f aca="false">K108/M108</f>
-        <v>1</v>
-      </c>
-      <c r="P108" s="20" t="s">
-        <v>777</v>
+        <v>1.93181818181818</v>
+      </c>
+      <c r="P108" s="16" t="s">
+        <v>778</v>
       </c>
       <c r="Q108" s="20" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="R108" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="S108" s="16" t="s">
-        <v>779</v>
+      <c r="S108" s="1" t="s">
+        <v>780</v>
       </c>
       <c r="T108" s="16" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="U108" s="16" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="V108" s="17" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="W108" s="17" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="X108" s="17" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Y108" s="17" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Z108" s="16" t="s">
-        <v>249</v>
+        <v>783</v>
       </c>
       <c r="AA108" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB108" s="1" t="s">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="AC108" s="16"/>
       <c r="AD108" s="16"/>
@@ -11040,7 +11051,7 @@
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C109," ","_") &amp; SUBSTITUTE(D109," ","_") &amp; SUBSTITUTE(E109," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SISAREF4SYST</v>
+        <v>noria-bib-ref:OntologySE-SISAREF</v>
       </c>
       <c r="B109" s="16" t="s">
         <v>49</v>
@@ -11049,16 +11060,16 @@
         <v>50</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="H109" s="16" t="s">
         <v>71</v>
@@ -11080,43 +11091,43 @@
         <v>1</v>
       </c>
       <c r="P109" s="20" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="Q109" s="20" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="R109" s="16" t="s">
         <v>151</v>
       </c>
       <c r="S109" s="16" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="T109" s="16" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="U109" s="16" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="V109" s="17" t="n">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="W109" s="17" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="X109" s="17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y109" s="17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z109" s="16" t="s">
-        <v>789</v>
+        <v>249</v>
       </c>
       <c r="AA109" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB109" s="1" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="AC109" s="16"/>
       <c r="AD109" s="16"/>
@@ -11136,7 +11147,7 @@
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C110," ","_") &amp; SUBSTITUTE(D110," ","_") &amp; SUBSTITUTE(E110," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SISOSA</v>
+        <v>noria-bib-ref:OntologySE-SISAREF4SYST</v>
       </c>
       <c r="B110" s="16" t="s">
         <v>49</v>
@@ -11145,41 +11156,39 @@
         <v>50</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>790</v>
-      </c>
-      <c r="F110" s="3"/>
+        <v>792</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>793</v>
+      </c>
       <c r="G110" s="16" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="H110" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J110" s="3" t="s">
-        <v>792</v>
-      </c>
+      <c r="J110" s="16"/>
       <c r="K110" s="17" t="n">
-        <v>435</v>
-      </c>
-      <c r="L110" s="16" t="s">
-        <v>793</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="L110" s="16"/>
       <c r="M110" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="N110" s="16" t="s">
-        <v>794</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="N110" s="16"/>
       <c r="O110" s="18" t="n">
         <f aca="false">K110/M110</f>
-        <v>43.5</v>
-      </c>
-      <c r="P110" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="P110" s="20" t="s">
+        <v>794</v>
+      </c>
       <c r="Q110" s="20" t="s">
         <v>795</v>
       </c>
@@ -11196,16 +11205,16 @@
         <v>798</v>
       </c>
       <c r="V110" s="17" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="W110" s="17" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="X110" s="17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y110" s="17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z110" s="16" t="s">
         <v>799</v>
@@ -11214,7 +11223,7 @@
         <v>87</v>
       </c>
       <c r="AB110" s="1" t="s">
-        <v>513</v>
+        <v>279</v>
       </c>
       <c r="AC110" s="16"/>
       <c r="AD110" s="16"/>
@@ -11234,7 +11243,7 @@
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C111," ","_") &amp; SUBSTITUTE(D111," ","_") &amp; SUBSTITUTE(E111," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SISOUPA</v>
+        <v>noria-bib-ref:OntologySE-SISOSA</v>
       </c>
       <c r="B111" s="16" t="s">
         <v>49</v>
@@ -11243,55 +11252,77 @@
         <v>50</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>800</v>
       </c>
-      <c r="F111" s="16" t="s">
+      <c r="F111" s="3"/>
+      <c r="G111" s="16" t="s">
         <v>801</v>
-      </c>
-      <c r="G111" s="16" t="s">
-        <v>802</v>
       </c>
       <c r="H111" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I111" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="J111" s="1" t="s">
+      <c r="I111" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="K111" s="17" t="n">
+        <v>435</v>
+      </c>
+      <c r="L111" s="16" t="s">
         <v>803</v>
       </c>
-      <c r="K111" s="17"/>
-      <c r="L111" s="16"/>
       <c r="M111" s="17" t="n">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="N111" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="O111" s="16"/>
+      <c r="O111" s="18" t="n">
+        <f aca="false">K111/M111</f>
+        <v>43.5</v>
+      </c>
       <c r="P111" s="16"/>
-      <c r="Q111" s="16"/>
+      <c r="Q111" s="20" t="s">
+        <v>805</v>
+      </c>
       <c r="R111" s="16" t="s">
-        <v>58</v>
+        <v>151</v>
+      </c>
+      <c r="S111" s="16" t="s">
+        <v>806</v>
       </c>
       <c r="T111" s="16" t="s">
-        <v>805</v>
-      </c>
-      <c r="U111" s="16"/>
-      <c r="V111" s="17"/>
-      <c r="W111" s="17"/>
-      <c r="X111" s="17"/>
-      <c r="Y111" s="17"/>
+        <v>807</v>
+      </c>
+      <c r="U111" s="16" t="s">
+        <v>808</v>
+      </c>
+      <c r="V111" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="W111" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="X111" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y111" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="Z111" s="16" t="s">
-        <v>68</v>
+        <v>809</v>
       </c>
       <c r="AA111" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB111" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB111" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="AC111" s="16"/>
       <c r="AD111" s="16"/>
       <c r="AE111" s="16"/>
@@ -11310,7 +11341,7 @@
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C112," ","_") &amp; SUBSTITUTE(D112," ","_") &amp; SUBSTITUTE(E112," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIThe_Building_Topology_Ontology_(BOT)</v>
+        <v>noria-bib-ref:OntologySE-SISOUPA</v>
       </c>
       <c r="B112" s="16" t="s">
         <v>49</v>
@@ -11319,79 +11350,55 @@
         <v>50</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>712</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="H112" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>810</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>811</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="H112" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I112" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J112" s="16"/>
-      <c r="K112" s="2" t="n">
-        <v>160</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="M112" s="2" t="n">
-        <v>160</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="O112" s="18" t="n">
-        <f aca="false">K112/M112</f>
-        <v>1</v>
-      </c>
-      <c r="P112" s="25" t="s">
-        <v>810</v>
-      </c>
-      <c r="Q112" s="25" t="s">
-        <v>811</v>
-      </c>
+      <c r="I112" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="K112" s="17"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="17" t="n">
+        <v>214</v>
+      </c>
+      <c r="N112" s="16" t="s">
+        <v>814</v>
+      </c>
+      <c r="O112" s="16"/>
+      <c r="P112" s="16"/>
+      <c r="Q112" s="16"/>
       <c r="R112" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S112" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="T112" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="U112" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="V112" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="W112" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="X112" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y112" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z112" s="1" t="s">
-        <v>789</v>
+        <v>58</v>
+      </c>
+      <c r="T112" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="U112" s="16"/>
+      <c r="V112" s="17"/>
+      <c r="W112" s="17"/>
+      <c r="X112" s="17"/>
+      <c r="Y112" s="17"/>
+      <c r="Z112" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="AA112" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB112" s="16" t="s">
-        <v>606</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB112" s="16"/>
       <c r="AC112" s="16"/>
       <c r="AD112" s="16"/>
       <c r="AE112" s="16"/>
@@ -11408,34 +11415,90 @@
       <c r="AP112" s="16"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
+      <c r="A113" s="6" t="str">
+        <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C113," ","_") &amp; SUBSTITUTE(D113," ","_") &amp; SUBSTITUTE(E113," ","_")</f>
+        <v>noria-bib-ref:OntologySE-SIThe_Building_Topology_Ontology_(BOT)</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="J113" s="16"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="16"/>
-      <c r="O113" s="16"/>
-      <c r="P113" s="16"/>
-      <c r="Q113" s="16"/>
-      <c r="R113" s="16"/>
-      <c r="S113" s="16"/>
-      <c r="T113" s="16"/>
-      <c r="U113" s="16"/>
-      <c r="V113" s="17"/>
-      <c r="W113" s="17"/>
-      <c r="X113" s="17"/>
-      <c r="Y113" s="17"/>
-      <c r="Z113" s="16"/>
-      <c r="AA113" s="16"/>
-      <c r="AB113" s="16"/>
+      <c r="K113" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="M113" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="O113" s="18" t="n">
+        <f aca="false">K113/M113</f>
+        <v>1</v>
+      </c>
+      <c r="P113" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q113" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="R113" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="T113" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="V113" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="W113" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="X113" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y113" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z113" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="AA113" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB113" s="16" t="s">
+        <v>615</v>
+      </c>
       <c r="AC113" s="16"/>
       <c r="AD113" s="16"/>
       <c r="AE113" s="16"/>
@@ -47355,8 +47418,52 @@
       <c r="AO929" s="16"/>
       <c r="AP929" s="16"/>
     </row>
+    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A930" s="16"/>
+      <c r="B930" s="16"/>
+      <c r="C930" s="16"/>
+      <c r="D930" s="16"/>
+      <c r="E930" s="16"/>
+      <c r="F930" s="16"/>
+      <c r="G930" s="16"/>
+      <c r="H930" s="16"/>
+      <c r="I930" s="16"/>
+      <c r="J930" s="16"/>
+      <c r="K930" s="17"/>
+      <c r="L930" s="16"/>
+      <c r="M930" s="17"/>
+      <c r="N930" s="16"/>
+      <c r="O930" s="16"/>
+      <c r="P930" s="16"/>
+      <c r="Q930" s="16"/>
+      <c r="R930" s="16"/>
+      <c r="S930" s="16"/>
+      <c r="T930" s="16"/>
+      <c r="U930" s="16"/>
+      <c r="V930" s="17"/>
+      <c r="W930" s="17"/>
+      <c r="X930" s="17"/>
+      <c r="Y930" s="17"/>
+      <c r="Z930" s="16"/>
+      <c r="AA930" s="16"/>
+      <c r="AB930" s="16"/>
+      <c r="AC930" s="16"/>
+      <c r="AD930" s="16"/>
+      <c r="AE930" s="16"/>
+      <c r="AF930" s="16"/>
+      <c r="AG930" s="16"/>
+      <c r="AH930" s="16"/>
+      <c r="AI930" s="16"/>
+      <c r="AJ930" s="16"/>
+      <c r="AK930" s="16"/>
+      <c r="AL930" s="16"/>
+      <c r="AM930" s="16"/>
+      <c r="AN930" s="16"/>
+      <c r="AO930" s="16"/>
+      <c r="AP930" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A14:AB112">
+  <autoFilter ref="A14:AB113">
     <filterColumn colId="18">
       <filters>
         <filter val="dm-rdf/ACCT"/>
@@ -47410,12 +47517,12 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="I15:I112">
+  <conditionalFormatting sqref="I15:I113">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K112">
+  <conditionalFormatting sqref="K15:K113">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>-1</formula>
     </cfRule>
@@ -47428,26 +47535,12 @@
     <hyperlink ref="C6" r:id="rId2" display="https://w3id.org/noria/ontology-bib/"/>
     <hyperlink ref="A9" r:id="rId3" display="See the xls2rdf converter at : https://skos-play.sparna.fr/play/convert"/>
     <hyperlink ref="A10" r:id="rId4" display="See the xls2rdf code at : https://github.com/sparna-git/xls2rdf"/>
-    <hyperlink ref="Q41" r:id="rId5" display="https://raw.githubusercontent.com/OWASP/OdTM/master/OdTMBaseThreatModel.owl "/>
-    <hyperlink ref="Q47" r:id="rId6" display="https://sepses.ifs.tuwien.ac.at/ns/logex/ontology.ttl"/>
-    <hyperlink ref="Q50" r:id="rId7" display="https://raw.githubusercontent.com/ucoProject/UCO/master/uco-core/core.ttl "/>
-    <hyperlink ref="P55" r:id="rId8" display="http://www.ontobee.org/ontology/GEO"/>
-    <hyperlink ref="Q57" r:id="rId9" display="http://ns.inria.fr/emoca/emoca.ttl "/>
-    <hyperlink ref="P66" r:id="rId10" display="https://github.com/HajoRijgersberg/OM"/>
-    <hyperlink ref="P67" r:id="rId11" display="http://www.daml.org/services/owl-s/1.1/"/>
-    <hyperlink ref="P68" r:id="rId12" display="https://www.w3.org/TR/owl-time/ "/>
-    <hyperlink ref="Q70" r:id="rId13" display="https://raw.githubusercontent.com/thesmartenergy/pep/master/pep-website/src/main/ontop/pep-1.1.ttl"/>
-    <hyperlink ref="P72" r:id="rId14" display="http://www.qudt.org/"/>
-    <hyperlink ref="P75" r:id="rId15" display="https://www.w3.org/2003/06/"/>
-    <hyperlink ref="Q75" r:id="rId16" display="https://www.w3.org/2003/06/sw-vocab-status/ns#"/>
-    <hyperlink ref="Q76" r:id="rId17" display="https://horus-ai.fbk.eu/helis/ontology/helis_v1.10.owl "/>
-    <hyperlink ref="P78" r:id="rId18" display="https://staff.fnwi.uva.nl/p.grosso/INDL.html"/>
-    <hyperlink ref="Q92" r:id="rId19" display="https://w3id.org/seas/CommunicationOntology-1.0.ttl"/>
-    <hyperlink ref="P93" r:id="rId20" display="https://qianruzhou333.github.io/toco_ontology/toco_doc.html "/>
-    <hyperlink ref="Q93" r:id="rId21" display="https://qianruzhou333.github.io/toco_ontology/resource/toco.rdf "/>
-    <hyperlink ref="Q96" r:id="rId22" display="http://www.w3.org/2011/http#"/>
-    <hyperlink ref="Q104" r:id="rId23" display="https://raw.githubusercontent.com/iot-ontologies/dogont/master/dogont.owl "/>
-    <hyperlink ref="P109" r:id="rId24" display="https://saref.etsi.org/extensions.html "/>
+    <hyperlink ref="Q93" r:id="rId5" display="https://w3id.org/seas/CommunicationOntology-1.0.ttl"/>
+    <hyperlink ref="P94" r:id="rId6" display="https://qianruzhou333.github.io/toco_ontology/toco_doc.html "/>
+    <hyperlink ref="Q94" r:id="rId7" display="https://qianruzhou333.github.io/toco_ontology/resource/toco.rdf "/>
+    <hyperlink ref="Q97" r:id="rId8" display="http://www.w3.org/2011/http#"/>
+    <hyperlink ref="Q105" r:id="rId9" display="https://raw.githubusercontent.com/iot-ontologies/dogont/master/dogont.owl "/>
+    <hyperlink ref="P110" r:id="rId10" display="https://saref.etsi.org/extensions.html "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
@@ -47456,6 +47549,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId25"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/docs/sota/noria-sota-ontology.xlsx
+++ b/docs/sota/noria-sota-ontology.xlsx
@@ -11,8 +11,8 @@
     <sheet name="ModelSOTA" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ModelSOTA!$A$14:$AB$110</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">ModelSOTA!$D$14:$AA$91</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ModelSOTA!$A$14:$AB$113</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">ModelSOTA!$D$14:$AA$94</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="825">
   <si>
     <t xml:space="preserve">ConceptScheme URI</t>
   </si>
@@ -972,6 +972,66 @@
     <t xml:space="preserve">SRIN(D)</t>
   </si>
   <si>
+    <t xml:space="preserve">A Knowledge Graph to Represent Software Vulnerabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miladtaghaviKnowledgeGraphRepresent2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In relation to cybersecurity, but focusing on software, Taghavi asserts that the rapid increase in vulnerabilities across various types of assets has rendered the synthesis of this knowledge inherently more challenging. In this context, knowledge graphs and their accompanying technology stack have been advocated as a viable solution for modeling, integrating, and facilitating interoperability among diverse data sources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vulnerability, Product, Attacker, Attack, Countermeasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depLib, product, cweName, severity, state, disclosedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontology-based approach to real-time risk management and cyber-situational awareness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carmensanchez-zasOntologybasedApproachRealtime2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similar to the idea of leveraging CTI data in ontologies like UCO and ICAS, the authors propose an anomaly detection system that utilizes a combination of a SWRL-based inference rule set and SPARQL queries to classify and provide guidance on various situations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scholar.google.com/scholar?cites=17737343496363770212&amp;as_sdt=2005&amp;sciodt=0,5&amp;hl=fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset, CorrelatedAnomaly, DetectedAnomaly, Risk, Threat, Safeguards, Vulnerability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">causedBy, generates, mitigates, protects, exploits, threatens, damages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICS-SEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ICS-SEC KG: An Integrated Cybersecurity Resource for Industrial Control Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kabulkurniawanICSSECKGIntegrated2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sepses/ics-sec-kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raw.githubusercontent.com/sepses/ics-sec-kg/refs/heads/master/src/main/resources/owl/integrated.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dm-rdf/ICS-SEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset, Campaign, Consequence, Malware, Mitigation, Product, Reference, Software, Tactic, Vendor, Vulnerability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accomplishesTactic, hasConsequence, hasExecutionFlow, hasMitigation, hasProduct, hasReference, has Software, hasTechnique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALHI(D)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Generic</t>
   </si>
   <si>
@@ -1422,7 +1482,7 @@
     <t xml:space="preserve">hasDuration,timePosition,hasEnd</t>
   </si>
   <si>
-    <t xml:space="preserve">oXPDL : A process ontology for business intelligence</t>
+    <t xml:space="preserve">oXPDL - A process ontology for business intelligence</t>
   </si>
   <si>
     <t xml:space="preserve">arminhallerProcessOntologyBusiness2008</t>
@@ -1791,7 +1851,7 @@
     <t xml:space="preserve">ALCHOIQ(D)</t>
   </si>
   <si>
-    <t xml:space="preserve">Devops Infrastructure: network</t>
+    <t xml:space="preserve">Devops Infrastructure – network</t>
   </si>
   <si>
     <t xml:space="preserve">Ontology for the representation of the network-related parts of a DevOps infrastructure</t>
@@ -1809,7 +1869,7 @@
     <t xml:space="preserve">hasMember,isInScheme,serviceInstanceDeployment</t>
   </si>
   <si>
-    <t xml:space="preserve">Devops Infrastructure: product</t>
+    <t xml:space="preserve">Devops Infrastructure – product</t>
   </si>
   <si>
     <t xml:space="preserve">Business Product ontology, which defines the business offering of a company, including the offered services and microservices</t>
@@ -1833,7 +1893,7 @@
     <t xml:space="preserve">noria-bib:FacetStructural</t>
   </si>
   <si>
-    <t xml:space="preserve">Devops Infrastructure: workflow</t>
+    <t xml:space="preserve">Devops Infrastructure – workflow</t>
   </si>
   <si>
     <t xml:space="preserve">Workflow ontology, used to describe workflows and actions that can be used for common DevOps operations</t>
@@ -1931,6 +1991,9 @@
   </si>
   <si>
     <t xml:space="preserve">ToCo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOUCAN Ontology (ToCo) : An ontology for hybrid telecommunication networks. See also https://github.com/Point-Topic/cto-ontology</t>
   </si>
   <si>
     <t xml:space="preserve">qianruzhouToCoOntologyRepresenting2019</t>
@@ -2956,15 +3019,15 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ927"/>
+  <dimension ref="A1:AMJ930"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.94"/>
@@ -3582,14 +3645,14 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="8" t="n">
-        <f aca="false">SUM(K15:K65)</f>
-        <v>4870</v>
+        <f aca="false">SUM(K15:K68)</f>
+        <v>4897</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M13" s="8" t="n">
-        <f aca="false">SUM(M15:M65)</f>
+        <f aca="false">SUM(M15:M68)</f>
         <v>5664</v>
       </c>
       <c r="N13" s="6" t="s">
@@ -3597,7 +3660,7 @@
       </c>
       <c r="O13" s="10" t="n">
         <f aca="false">K13/M13</f>
-        <v>0.859816384180791</v>
+        <v>0.864583333333333</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -6517,7 +6580,7 @@
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C51," ","_") &amp; SUBSTITUTE(D51," ","_") &amp; SUBSTITUTE(E51," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericA_Core_Pattern_for_Events</v>
+        <v>noria-bib-ref:OntologyCyberSecA_Knowledge_Graph_to_Represent_Software_Vulnerabilities</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>49</v>
@@ -6526,81 +6589,56 @@
         <v>50</v>
       </c>
       <c r="D51" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="F51" s="16"/>
+      <c r="G51" s="16" t="s">
         <v>310</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>312</v>
       </c>
       <c r="H51" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K51" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="L51" s="16" t="s">
+      <c r="I51" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="K51" s="17"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="U51" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="M51" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="N51" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="O51" s="18" t="n">
-        <f aca="false">K51/M51</f>
-        <v>1</v>
-      </c>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="R51" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="T51" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="U51" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="V51" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="W51" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="X51" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="3" t="s">
-        <v>318</v>
+      <c r="V51" s="0"/>
+      <c r="W51" s="0"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="AA51" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB51" s="16" t="s">
-        <v>287</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C52," ","_") &amp; SUBSTITUTE(D52," ","_") &amp; SUBSTITUTE(E52," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericActivO</v>
+        <v>noria-bib-ref:OntologyCyberSecOntology-based_approach_to_real-time_risk_management_and_cyber-situational_awareness</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>49</v>
@@ -6609,48 +6647,51 @@
         <v>50</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>309</v>
+        <v>51</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>320</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="F52" s="16"/>
       <c r="G52" s="16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I52" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="K52" s="1"/>
-      <c r="M52" s="17" t="n">
-        <v>194</v>
-      </c>
-      <c r="N52" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
+      <c r="J52" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="K52" s="17" t="n">
+        <v>27</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="M52" s="17"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
       <c r="R52" s="16" t="s">
         <v>58</v>
       </c>
+      <c r="S52" s="16"/>
       <c r="T52" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="U52" s="16" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="V52" s="17"/>
       <c r="W52" s="17"/>
       <c r="X52" s="17"/>
       <c r="Y52" s="17"/>
       <c r="Z52" s="16" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="AA52" s="16" t="s">
         <v>61</v>
@@ -6659,7 +6700,7 @@
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C53," ","_") &amp; SUBSTITUTE(D53," ","_") &amp; SUBSTITUTE(E53," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericBasic_geo_Ontology</v>
+        <v>noria-bib-ref:OntologyCyberSecICS-SEC</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>49</v>
@@ -6668,78 +6709,73 @@
         <v>50</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>309</v>
+        <v>51</v>
       </c>
       <c r="E53" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J53" s="16"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q53" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="R53" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S53" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="T53" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="U53" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J53" s="16"/>
-      <c r="K53" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L53" s="16"/>
-      <c r="M53" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N53" s="16"/>
-      <c r="O53" s="18" t="n">
-        <f aca="false">K53/M53</f>
-        <v>1</v>
-      </c>
-      <c r="P53" s="20" t="s">
+      <c r="V53" s="17" t="n">
+        <v>56</v>
+      </c>
+      <c r="W53" s="17" t="n">
+        <v>66</v>
+      </c>
+      <c r="X53" s="17" t="n">
+        <v>139</v>
+      </c>
+      <c r="Y53" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="16" t="s">
         <v>328</v>
-      </c>
-      <c r="Q53" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="R53" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S53" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="T53" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="U53" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="V53" s="17" t="n">
-        <v>61</v>
-      </c>
-      <c r="W53" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="X53" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z53" s="16" t="s">
-        <v>167</v>
       </c>
       <c r="AA53" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB53" s="16" t="s">
-        <v>287</v>
+      <c r="AB53" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C54," ","_") &amp; SUBSTITUTE(D54," ","_") &amp; SUBSTITUTE(E54," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericCommand_and_Control_ontology_(C2)</v>
+        <v>noria-bib-ref:OntologyGenericA_Core_Pattern_for_Events</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>49</v>
@@ -6748,56 +6784,81 @@
         <v>50</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E54" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="L54" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16" t="s">
+      <c r="M54" s="17" t="n">
+        <v>18</v>
+      </c>
+      <c r="N54" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="O54" s="18" t="n">
+        <f aca="false">K54/M54</f>
+        <v>1</v>
+      </c>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="H54" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J54" s="1" t="s">
+      <c r="R54" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S54" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="K54" s="1"/>
-      <c r="M54" s="17" t="n">
+      <c r="T54" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="V54" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="W54" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="N54" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T54" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="U54" s="16"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="16" t="s">
-        <v>60</v>
+      <c r="X54" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="AA54" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB54" s="16" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C55," ","_") &amp; SUBSTITUTE(D55," ","_") &amp; SUBSTITUTE(E55," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericEmOCA</v>
+        <v>noria-bib-ref:OntologyGenericActivO</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>49</v>
@@ -6806,83 +6867,57 @@
         <v>50</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K55" s="17" t="n">
-        <v>35</v>
-      </c>
-      <c r="L55" s="16" t="s">
-        <v>341</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K55" s="1"/>
       <c r="M55" s="17" t="n">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="N55" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="O55" s="18" t="n">
-        <f aca="false">K55/M55</f>
-        <v>1.45833333333333</v>
-      </c>
-      <c r="P55" s="16" t="s">
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T55" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="Q55" s="20" t="s">
+      <c r="U55" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="R55" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="T55" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="U55" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="V55" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="W55" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="X55" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y55" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
       <c r="Z55" s="16" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="AA55" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB55" s="16" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C56," ","_") &amp; SUBSTITUTE(D56," ","_") &amp; SUBSTITUTE(E56," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericeTOM</v>
+        <v>noria-bib-ref:OntologyGenericBasic_geo_Ontology</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>49</v>
@@ -6891,58 +6926,78 @@
         <v>50</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E56" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J56" s="16"/>
+      <c r="K56" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L56" s="16"/>
+      <c r="M56" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N56" s="16"/>
+      <c r="O56" s="18" t="n">
+        <f aca="false">K56/M56</f>
+        <v>1</v>
+      </c>
+      <c r="P56" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="Q56" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="R56" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S56" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="H56" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J56" s="1" t="s">
+      <c r="T56" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="K56" s="1"/>
-      <c r="M56" s="17" t="n">
+      <c r="U56" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="V56" s="17" t="n">
+        <v>61</v>
+      </c>
+      <c r="W56" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="X56" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="N56" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
+      <c r="Y56" s="17" t="n">
+        <v>4</v>
+      </c>
       <c r="Z56" s="16" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="AA56" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB56" s="16" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C57," ","_") &amp; SUBSTITUTE(D57," ","_") &amp; SUBSTITUTE(E57," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericEvent_Ontology</v>
+        <v>noria-bib-ref:OntologyGenericCommand_and_Control_ontology_(C2)</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>49</v>
@@ -6951,86 +7006,56 @@
         <v>50</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E57" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="F57" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="G57" s="16" t="s">
+      <c r="H57" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="K57" s="1"/>
+      <c r="M57" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="N57" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J57" s="1" t="s">
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T57" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="K57" s="17" t="n">
-        <v>244</v>
-      </c>
-      <c r="L57" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="M57" s="17" t="n">
-        <v>244</v>
-      </c>
-      <c r="N57" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="O57" s="18" t="n">
-        <f aca="false">K57/M57</f>
-        <v>1</v>
-      </c>
-      <c r="P57" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q57" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="R57" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="T57" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="U57" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="V57" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="W57" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="X57" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y57" s="17" t="n">
-        <v>2</v>
-      </c>
+      <c r="U57" s="16"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
       <c r="Z57" s="16" t="s">
-        <v>365</v>
+        <v>60</v>
       </c>
       <c r="AA57" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB57" s="16" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C58," ","_") &amp; SUBSTITUTE(D58," ","_") &amp; SUBSTITUTE(E58," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericEventKG</v>
+        <v>noria-bib-ref:OntologyGenericEmOCA</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>49</v>
@@ -7039,68 +7064,68 @@
         <v>50</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>369</v>
+        <v>64</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K58" s="17" t="n">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="L58" s="16" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="M58" s="17" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="N58" s="16" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="O58" s="18" t="n">
         <f aca="false">K58/M58</f>
-        <v>2.9</v>
+        <v>1.45833333333333</v>
       </c>
       <c r="P58" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q58" s="16" t="s">
-        <v>373</v>
+        <v>363</v>
+      </c>
+      <c r="Q58" s="20" t="s">
+        <v>364</v>
       </c>
       <c r="R58" s="16" t="s">
         <v>151</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="T58" s="16" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="U58" s="16" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V58" s="17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="W58" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="X58" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="X58" s="17" t="n">
-        <v>2</v>
-      </c>
       <c r="Y58" s="17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z58" s="16" t="s">
         <v>155</v>
@@ -7109,98 +7134,73 @@
         <v>87</v>
       </c>
       <c r="AB58" s="16" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C59," ","_") &amp; SUBSTITUTE(D59," ","_") &amp; SUBSTITUTE(E59," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericFARO</v>
-      </c>
-      <c r="B59" s="3" t="s">
+        <v>noria-bib-ref:OntologyGenericeTOM</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G59" s="16" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H59" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J59" s="16"/>
-      <c r="K59" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="L59" s="16" t="s">
-        <v>380</v>
-      </c>
+      <c r="I59" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="K59" s="1"/>
       <c r="M59" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="O59" s="18" t="n">
-        <v>0</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="O59" s="16"/>
       <c r="P59" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q59" s="16" t="s">
-        <v>383</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="Q59" s="16"/>
       <c r="R59" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S59" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="T59" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="U59" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="V59" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="W59" s="17" t="n">
-        <v>32</v>
-      </c>
-      <c r="X59" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="17" t="n">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="17"/>
       <c r="Z59" s="16" t="s">
-        <v>387</v>
+        <v>60</v>
       </c>
       <c r="AA59" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB59" s="16" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C60," ","_") &amp; SUBSTITUTE(D60," ","_") &amp; SUBSTITUTE(E60," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericFOAF</v>
+        <v>noria-bib-ref:OntologyGenericEvent_Ontology</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>49</v>
@@ -7209,82 +7209,86 @@
         <v>50</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="H60" s="16"/>
+        <v>375</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>376</v>
+      </c>
       <c r="I60" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="K60" s="17" t="n">
-        <v>1320</v>
+        <v>244</v>
       </c>
       <c r="L60" s="16" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="M60" s="17" t="n">
-        <v>1320</v>
+        <v>244</v>
       </c>
       <c r="N60" s="16" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="O60" s="18" t="n">
         <f aca="false">K60/M60</f>
         <v>1</v>
       </c>
       <c r="P60" s="16" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="Q60" s="16" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="R60" s="16" t="s">
-        <v>192</v>
+        <v>381</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="T60" s="16" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="U60" s="16" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="V60" s="17" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="W60" s="17" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="X60" s="17" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Y60" s="17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z60" s="16" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AA60" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB60" s="16"/>
+      <c r="AB60" s="16" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C61," ","_") &amp; SUBSTITUTE(D61," ","_") &amp; SUBSTITUTE(E61," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericGeonames</v>
+        <v>noria-bib-ref:OntologyGenericEventKG</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>49</v>
@@ -7293,163 +7297,168 @@
         <v>50</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>71</v>
+        <v>389</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="K61" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L61" s="16"/>
+        <v>145</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>390</v>
+      </c>
       <c r="M61" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N61" s="16"/>
+        <v>50</v>
+      </c>
+      <c r="N61" s="16" t="s">
+        <v>391</v>
+      </c>
       <c r="O61" s="18" t="n">
         <f aca="false">K61/M61</f>
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="P61" s="16" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="Q61" s="16" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="R61" s="16" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="T61" s="16" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="U61" s="16" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="V61" s="17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="W61" s="17" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="X61" s="17" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Y61" s="17" t="n">
-        <v>701</v>
+        <v>2</v>
       </c>
       <c r="Z61" s="16" t="s">
-        <v>408</v>
+        <v>155</v>
       </c>
       <c r="AA61" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB61" s="16"/>
+      <c r="AB61" s="16" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C62," ","_") &amp; SUBSTITUTE(D62," ","_") &amp; SUBSTITUTE(E62," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericGeoSPARQL</v>
-      </c>
-      <c r="B62" s="16" t="s">
+        <v>noria-bib-ref:OntologyGenericFARO</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="H62" s="16"/>
+        <v>399</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I62" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>412</v>
-      </c>
+      <c r="J62" s="16"/>
       <c r="K62" s="17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L62" s="16" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="M62" s="17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N62" s="16" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="O62" s="18" t="n">
-        <f aca="false">K62/M62</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" s="16" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="R62" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="S62" s="1" t="s">
-        <v>416</v>
+      <c r="S62" s="16" t="s">
+        <v>404</v>
       </c>
       <c r="T62" s="16" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="U62" s="16" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="V62" s="17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="W62" s="17" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="X62" s="17" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z62" s="16" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AA62" s="16" t="s">
         <v>87</v>
+      </c>
+      <c r="AB62" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C63," ","_") &amp; SUBSTITUTE(D63," ","_") &amp; SUBSTITUTE(E63," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericMining_Minds_Context_Ontology</v>
+        <v>noria-bib-ref:OntologyGenericFOAF</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>49</v>
@@ -7458,78 +7467,82 @@
         <v>50</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>64</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="H63" s="16"/>
       <c r="I63" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="J63" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="K63" s="17" t="n">
-        <v>34</v>
+        <v>1320</v>
       </c>
       <c r="L63" s="16" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="M63" s="17" t="n">
-        <v>34</v>
+        <v>1320</v>
       </c>
       <c r="N63" s="16" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="O63" s="18" t="n">
         <f aca="false">K63/M63</f>
         <v>1</v>
       </c>
-      <c r="P63" s="16"/>
+      <c r="P63" s="16" t="s">
+        <v>413</v>
+      </c>
       <c r="Q63" s="16" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="R63" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="T63" s="16" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="U63" s="16" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="V63" s="17" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="W63" s="17" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="X63" s="17" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Y63" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z63" s="16" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="AA63" s="16" t="s">
         <v>87</v>
       </c>
+      <c r="AB63" s="16"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C64," ","_") &amp; SUBSTITUTE(D64," ","_") &amp; SUBSTITUTE(E64," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericOM</v>
+        <v>noria-bib-ref:OntologyGenericGeonames</v>
       </c>
       <c r="B64" s="16" t="s">
         <v>49</v>
@@ -7538,79 +7551,80 @@
         <v>50</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="H64" s="16"/>
+        <v>421</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="I64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J64" s="16"/>
+      <c r="J64" s="1" t="s">
+        <v>422</v>
+      </c>
       <c r="K64" s="17" t="n">
-        <v>228</v>
-      </c>
-      <c r="L64" s="16" t="s">
-        <v>432</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="L64" s="16"/>
       <c r="M64" s="17" t="n">
-        <v>228</v>
-      </c>
-      <c r="N64" s="16" t="s">
-        <v>432</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="N64" s="16"/>
       <c r="O64" s="18" t="n">
         <f aca="false">K64/M64</f>
         <v>1</v>
       </c>
-      <c r="P64" s="20" t="s">
-        <v>433</v>
+      <c r="P64" s="16" t="s">
+        <v>423</v>
       </c>
       <c r="Q64" s="16" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="R64" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="S64" s="16" t="s">
-        <v>435</v>
+      <c r="S64" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="T64" s="16" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="U64" s="16" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="V64" s="17" t="n">
-        <v>815</v>
+        <v>15</v>
       </c>
       <c r="W64" s="17" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="X64" s="17" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y64" s="17" t="n">
-        <v>2242</v>
+        <v>701</v>
       </c>
       <c r="Z64" s="16" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="AA64" s="16" t="s">
         <v>87</v>
       </c>
+      <c r="AB64" s="16"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C65," ","_") &amp; SUBSTITUTE(D65," ","_") &amp; SUBSTITUTE(E65," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericOWL-S</v>
+        <v>noria-bib-ref:OntologyGenericGeoSPARQL</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>49</v>
@@ -7619,84 +7633,81 @@
         <v>50</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>64</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="H65" s="16"/>
       <c r="I65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="K65" s="17" t="n">
-        <v>2340</v>
+        <v>7</v>
       </c>
       <c r="L65" s="16" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="M65" s="17" t="n">
-        <v>2340</v>
+        <v>7</v>
       </c>
       <c r="N65" s="16" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="O65" s="18" t="n">
         <f aca="false">K65/M65</f>
         <v>1</v>
       </c>
-      <c r="P65" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q65" s="3"/>
+      <c r="P65" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q65" s="16" t="s">
+        <v>435</v>
+      </c>
       <c r="R65" s="16" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="T65" s="16" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="U65" s="16" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="V65" s="17" t="n">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="W65" s="17" t="n">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="X65" s="17" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="Y65" s="17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="16" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="AA65" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="AB65" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C66," ","_") &amp; SUBSTITUTE(D66," ","_") &amp; SUBSTITUTE(E66," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericOWL-Time</v>
+        <v>noria-bib-ref:OntologyGenericMining_Minds_Context_Ontology</v>
       </c>
       <c r="B66" s="16" t="s">
         <v>49</v>
@@ -7705,82 +7716,78 @@
         <v>50</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>451</v>
+        <v>440</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>441</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="H66" s="16"/>
+        <v>442</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I66" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J66" s="16"/>
       <c r="K66" s="17" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="L66" s="16" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M66" s="17" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N66" s="16" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="O66" s="18" t="n">
         <f aca="false">K66/M66</f>
         <v>1</v>
       </c>
-      <c r="P66" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q66" s="20" t="s">
-        <v>455</v>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16" t="s">
+        <v>444</v>
       </c>
       <c r="R66" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S66" s="16" t="s">
-        <v>456</v>
+        <v>192</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="T66" s="16" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="U66" s="16" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="V66" s="17" t="n">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="W66" s="17" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="X66" s="17" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="Y66" s="17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="16" t="s">
-        <v>185</v>
+        <v>448</v>
       </c>
       <c r="AA66" s="16" t="s">
         <v>87</v>
-      </c>
-      <c r="AB66" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C67," ","_") &amp; SUBSTITUTE(D67," ","_") &amp; SUBSTITUTE(E67," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericoXPDL :_A_process_ontology_for_business_intelligence</v>
+        <v>noria-bib-ref:OntologyGenericOM</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>49</v>
@@ -7789,57 +7796,79 @@
         <v>50</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>349</v>
+        <v>450</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K67" s="1"/>
+        <v>451</v>
+      </c>
+      <c r="H67" s="16"/>
+      <c r="I67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J67" s="16"/>
+      <c r="K67" s="17" t="n">
+        <v>228</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>452</v>
+      </c>
       <c r="M67" s="17" t="n">
-        <v>15</v>
+        <v>228</v>
       </c>
       <c r="N67" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
+        <v>452</v>
+      </c>
+      <c r="O67" s="18" t="n">
+        <f aca="false">K67/M67</f>
+        <v>1</v>
+      </c>
+      <c r="P67" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q67" s="16" t="s">
+        <v>454</v>
+      </c>
       <c r="R67" s="16" t="s">
-        <v>58</v>
+        <v>192</v>
+      </c>
+      <c r="S67" s="16" t="s">
+        <v>455</v>
       </c>
       <c r="T67" s="16" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="U67" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="V67" s="17"/>
-      <c r="W67" s="17"/>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="17"/>
+        <v>457</v>
+      </c>
+      <c r="V67" s="17" t="n">
+        <v>815</v>
+      </c>
+      <c r="W67" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="X67" s="17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y67" s="17" t="n">
+        <v>2242</v>
+      </c>
       <c r="Z67" s="16" t="s">
-        <v>60</v>
+        <v>458</v>
       </c>
       <c r="AA67" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C68," ","_") &amp; SUBSTITUTE(D68," ","_") &amp; SUBSTITUTE(E68," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericProcedure_Execution_Platform</v>
+        <v>noria-bib-ref:OntologyGenericOWL-S</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>49</v>
@@ -7847,84 +7876,85 @@
       <c r="C68" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>465</v>
+      <c r="D68" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>460</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="H68" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H68" s="16" t="s">
         <v>64</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="J68" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="K68" s="17" t="n">
-        <v>40</v>
+        <v>2340</v>
       </c>
       <c r="L68" s="16" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M68" s="17" t="n">
-        <v>40</v>
+        <v>2340</v>
       </c>
       <c r="N68" s="16" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="O68" s="18" t="n">
         <f aca="false">K68/M68</f>
         <v>1</v>
       </c>
-      <c r="P68" s="23" t="s">
+      <c r="P68" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="U68" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="V68" s="17" t="n">
+        <v>86</v>
+      </c>
+      <c r="W68" s="17" t="n">
+        <v>88</v>
+      </c>
+      <c r="X68" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y68" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z68" s="16" t="s">
         <v>468</v>
-      </c>
-      <c r="Q68" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="R68" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="T68" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="U68" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="V68" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="W68" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="X68" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z68" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="AA68" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB68" s="1" t="s">
-        <v>156</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C69," ","_") &amp; SUBSTITUTE(D69," ","_") &amp; SUBSTITUTE(E69," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericPROV-O</v>
+        <v>noria-bib-ref:OntologyGenericOWL-Time</v>
       </c>
       <c r="B69" s="16" t="s">
         <v>49</v>
@@ -7933,16 +7963,16 @@
         <v>50</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>475</v>
+        <v>470</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>471</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H69" s="16"/>
       <c r="I69" s="1" t="s">
@@ -7950,51 +7980,53 @@
       </c>
       <c r="J69" s="16"/>
       <c r="K69" s="17" t="n">
-        <v>726</v>
+        <v>6</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M69" s="17" t="n">
-        <v>726</v>
+        <v>6</v>
       </c>
       <c r="N69" s="16" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="O69" s="18" t="n">
         <f aca="false">K69/M69</f>
         <v>1</v>
       </c>
-      <c r="P69" s="16"/>
+      <c r="P69" s="20" t="s">
+        <v>474</v>
+      </c>
       <c r="Q69" s="20" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="R69" s="16" t="s">
         <v>151</v>
       </c>
       <c r="S69" s="16" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="T69" s="16" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="U69" s="16" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="V69" s="17" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="W69" s="17" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="X69" s="17" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="Y69" s="17" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Z69" s="16" t="s">
-        <v>482</v>
+        <v>185</v>
       </c>
       <c r="AA69" s="16" t="s">
         <v>87</v>
@@ -8006,7 +8038,7 @@
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C70," ","_") &amp; SUBSTITUTE(D70," ","_") &amp; SUBSTITUTE(E70," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericQUDT</v>
+        <v>noria-bib-ref:OntologyGenericoXPDL -_A_process_ontology_for_business_intelligence</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>49</v>
@@ -8015,80 +8047,57 @@
         <v>50</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E70" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I70" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="M70" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="N70" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T70" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="U70" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="H70" s="16"/>
-      <c r="I70" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J70" s="16"/>
-      <c r="K70" s="17" t="n">
-        <v>70</v>
-      </c>
-      <c r="L70" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="M70" s="17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N70" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="O70" s="18" t="n">
-        <f aca="false">K70/M70</f>
-        <v>1</v>
-      </c>
-      <c r="P70" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q70" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="R70" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S70" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="T70" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="U70" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="V70" s="17" t="n">
-        <v>138</v>
-      </c>
-      <c r="W70" s="17" t="n">
-        <v>132</v>
-      </c>
-      <c r="X70" s="17" t="n">
-        <v>102</v>
-      </c>
-      <c r="Y70" s="17" t="n">
-        <v>78</v>
-      </c>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+      <c r="X70" s="17"/>
+      <c r="Y70" s="17"/>
       <c r="Z70" s="16" t="s">
-        <v>491</v>
+        <v>60</v>
       </c>
       <c r="AA70" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB70" s="1" t="s">
-        <v>287</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C71," ","_") &amp; SUBSTITUTE(D71," ","_") &amp; SUBSTITUTE(E71," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericSemantic_Sensor_Network_Ontology</v>
+        <v>noria-bib-ref:OntologyGenericProcedure_Execution_Platform</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>49</v>
@@ -8096,84 +8105,84 @@
       <c r="C71" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>493</v>
+      <c r="D71" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>485</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="H71" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K71" s="17" t="n">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="L71" s="16" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="M71" s="17" t="n">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="N71" s="16" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="O71" s="18" t="n">
         <f aca="false">K71/M71</f>
         <v>1</v>
       </c>
-      <c r="P71" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q71" s="26" t="s">
-        <v>497</v>
+      <c r="P71" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q71" s="24" t="s">
+        <v>489</v>
       </c>
       <c r="R71" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="S71" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="T71" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="U71" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="V71" s="17" t="n">
-        <v>39</v>
-      </c>
-      <c r="W71" s="17" t="n">
-        <v>34</v>
-      </c>
-      <c r="X71" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y71" s="17" t="n">
+      <c r="S71" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="T71" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="U71" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="V71" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W71" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="X71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y71" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Z71" s="16" t="s">
-        <v>501</v>
+      <c r="Z71" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="AA71" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>502</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C72," ","_") &amp; SUBSTITUTE(D72," ","_") &amp; SUBSTITUTE(E72," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericTemporal_Ontology:_Tenselessness_and_Quantification</v>
+        <v>noria-bib-ref:OntologyGenericPROV-O</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>49</v>
@@ -8182,53 +8191,80 @@
         <v>50</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I72" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K72" s="1"/>
+        <v>496</v>
+      </c>
+      <c r="H72" s="16"/>
+      <c r="I72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J72" s="16"/>
+      <c r="K72" s="17" t="n">
+        <v>726</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>497</v>
+      </c>
       <c r="M72" s="17" t="n">
-        <v>3</v>
+        <v>726</v>
       </c>
       <c r="N72" s="16" t="s">
-        <v>506</v>
-      </c>
-      <c r="O72" s="16"/>
+        <v>497</v>
+      </c>
+      <c r="O72" s="18" t="n">
+        <f aca="false">K72/M72</f>
+        <v>1</v>
+      </c>
       <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
+      <c r="Q72" s="20" t="s">
+        <v>498</v>
+      </c>
       <c r="R72" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="17"/>
-      <c r="W72" s="17"/>
-      <c r="X72" s="17"/>
-      <c r="Y72" s="17"/>
+        <v>151</v>
+      </c>
+      <c r="S72" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="T72" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="U72" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="V72" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="W72" s="17" t="n">
+        <v>44</v>
+      </c>
+      <c r="X72" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y72" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="Z72" s="16" t="s">
-        <v>60</v>
+        <v>502</v>
       </c>
       <c r="AA72" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB72" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C73," ","_") &amp; SUBSTITUTE(D73," ","_") &amp; SUBSTITUTE(E73," ","_")</f>
-        <v>noria-bib-ref:OntologyGenericVocabulary_Status_Vocabulary</v>
+        <v>noria-bib-ref:OntologyGenericQUDT</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>49</v>
@@ -8236,63 +8272,81 @@
       <c r="C73" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="D73" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="H73" s="16"/>
       <c r="I73" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J73" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="K73" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M73" s="2" t="n">
-        <v>-1</v>
+      <c r="J73" s="16"/>
+      <c r="K73" s="17" t="n">
+        <v>70</v>
+      </c>
+      <c r="L73" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="M73" s="17" t="n">
+        <v>70</v>
+      </c>
+      <c r="N73" s="16" t="s">
+        <v>505</v>
       </c>
       <c r="O73" s="18" t="n">
         <f aca="false">K73/M73</f>
         <v>1</v>
       </c>
-      <c r="P73" s="25" t="s">
+      <c r="P73" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q73" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="R73" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S73" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="T73" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="U73" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="V73" s="17" t="n">
+        <v>138</v>
+      </c>
+      <c r="W73" s="17" t="n">
+        <v>132</v>
+      </c>
+      <c r="X73" s="17" t="n">
+        <v>102</v>
+      </c>
+      <c r="Y73" s="17" t="n">
+        <v>78</v>
+      </c>
+      <c r="Z73" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="Q73" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="R73" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="Z73" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="AA73" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB73" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C74," ","_") &amp; SUBSTITUTE(D74," ","_") &amp; SUBSTITUTE(E74," ","_")</f>
-        <v>noria-bib-ref:OntologyHealth_ScienceHeLiS</v>
+        <v>noria-bib-ref:OntologyGenericSemantic_Sensor_Network_Ontology</v>
       </c>
       <c r="B74" s="16" t="s">
         <v>49</v>
@@ -8301,16 +8355,16 @@
         <v>50</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>515</v>
+        <v>329</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H74" s="16" t="s">
         <v>64</v>
@@ -8318,69 +8372,66 @@
       <c r="I74" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="K74" s="17" t="n">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="L74" s="16" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M74" s="17" t="n">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="N74" s="16" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="O74" s="18" t="n">
         <f aca="false">K74/M74</f>
-        <v>3.11764705882353</v>
-      </c>
-      <c r="P74" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P74" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q74" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="R74" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S74" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="T74" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="U74" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="V74" s="17" t="n">
+        <v>39</v>
+      </c>
+      <c r="W74" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="X74" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z74" s="16" t="s">
         <v>521</v>
-      </c>
-      <c r="Q74" s="20" t="s">
-        <v>522</v>
-      </c>
-      <c r="R74" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="T74" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="U74" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="V74" s="17" t="n">
-        <v>281</v>
-      </c>
-      <c r="W74" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="X74" s="17" t="n">
-        <v>31</v>
-      </c>
-      <c r="Y74" s="17" t="n">
-        <v>30005</v>
-      </c>
-      <c r="Z74" s="16" t="s">
-        <v>249</v>
       </c>
       <c r="AA74" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB74" s="16" t="s">
-        <v>88</v>
+      <c r="AB74" s="1" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C75," ","_") &amp; SUBSTITUTE(D75," ","_") &amp; SUBSTITUTE(E75," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITA_Semantic_Framework_for_Enabling_Radio_Spectrum_Policy_Management_and_Evaluation</v>
+        <v>noria-bib-ref:OntologyGenericTemporal_Ontology:_Tenselessness_and_Quantification</v>
       </c>
       <c r="B75" s="16" t="s">
         <v>49</v>
@@ -8389,35 +8440,32 @@
         <v>50</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>526</v>
+        <v>329</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="F75" s="16"/>
+        <v>523</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>524</v>
+      </c>
       <c r="G75" s="16" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>530</v>
+        <v>56</v>
       </c>
       <c r="K75" s="1"/>
       <c r="M75" s="17" t="n">
         <v>3</v>
       </c>
       <c r="N75" s="16" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="O75" s="16"/>
-      <c r="P75" s="16" t="s">
-        <v>532</v>
-      </c>
+      <c r="P75" s="16"/>
       <c r="Q75" s="16"/>
       <c r="R75" s="16" t="s">
         <v>58</v>
@@ -8429,17 +8477,16 @@
       <c r="X75" s="17"/>
       <c r="Y75" s="17"/>
       <c r="Z75" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AA75" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AB75" s="16"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C76," ","_") &amp; SUBSTITUTE(D76," ","_") &amp; SUBSTITUTE(E76," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITA_Semantic-Web_Approach_for_Modeling_Computing_Infrastructures_(INDL)</v>
+        <v>noria-bib-ref:OntologyGenericVocabulary_Status_Vocabulary</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>49</v>
@@ -8447,87 +8494,63 @@
       <c r="C76" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D76" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="H76" s="16" t="s">
-        <v>536</v>
+      <c r="D76" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J76" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="K76" s="17" t="n">
-        <v>55</v>
-      </c>
-      <c r="L76" s="16" t="s">
-        <v>538</v>
-      </c>
-      <c r="M76" s="17" t="n">
-        <v>29</v>
-      </c>
-      <c r="N76" s="16" t="s">
-        <v>539</v>
+        <v>530</v>
+      </c>
+      <c r="K76" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M76" s="2" t="n">
+        <v>-1</v>
       </c>
       <c r="O76" s="18" t="n">
         <f aca="false">K76/M76</f>
-        <v>1.89655172413793</v>
-      </c>
-      <c r="P76" s="20" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q76" s="16" t="s">
-        <v>541</v>
+        <v>1</v>
+      </c>
+      <c r="P76" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q76" s="25" t="s">
+        <v>532</v>
       </c>
       <c r="R76" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="T76" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="U76" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="V76" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="W76" s="17" t="n">
-        <v>29</v>
-      </c>
-      <c r="X76" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y76" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="16" t="s">
-        <v>545</v>
+        <v>533</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Z76" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="AA76" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB76" s="16" t="s">
-        <v>546</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C77," ","_") &amp; SUBSTITUTE(D77," ","_") &amp; SUBSTITUTE(E77," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITA_semantically_distributed_approach_to_map_IP_traffic_measurements_to_a_standardized_ontology</v>
+        <v>noria-bib-ref:OntologyHealth_ScienceHeLiS</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>49</v>
@@ -8536,56 +8559,86 @@
         <v>50</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I77" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="K77" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K77" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="L77" s="16" t="s">
+        <v>539</v>
+      </c>
       <c r="M77" s="17" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N77" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
+        <v>540</v>
+      </c>
+      <c r="O77" s="18" t="n">
+        <f aca="false">K77/M77</f>
+        <v>3.11764705882353</v>
+      </c>
+      <c r="P77" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q77" s="20" t="s">
+        <v>542</v>
+      </c>
       <c r="R77" s="16" t="s">
-        <v>58</v>
+        <v>192</v>
+      </c>
+      <c r="S77" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="T77" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="U77" s="16"/>
-      <c r="V77" s="17"/>
-      <c r="W77" s="17"/>
-      <c r="X77" s="17"/>
-      <c r="Y77" s="17"/>
+        <v>544</v>
+      </c>
+      <c r="U77" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="V77" s="17" t="n">
+        <v>281</v>
+      </c>
+      <c r="W77" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="X77" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y77" s="17" t="n">
+        <v>30005</v>
+      </c>
       <c r="Z77" s="16" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="AA77" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB77" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB77" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C78," ","_") &amp; SUBSTITUTE(D78," ","_") &amp; SUBSTITUTE(E78," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_Ontology_for_Collaborative_Tasks_in_Multi-agent_Systems</v>
+        <v>noria-bib-ref:OntologyNet-ITA_Semantic_Framework_for_Enabling_Radio_Spectrum_Policy_Management_and_Evaluation</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>49</v>
@@ -8594,52 +8647,45 @@
         <v>50</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>553</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="F78" s="16"/>
       <c r="G78" s="16" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H78" s="16" t="s">
         <v>64</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>65</v>
+        <v>549</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>550</v>
       </c>
       <c r="K78" s="1"/>
       <c r="M78" s="17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N78" s="16" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
+      <c r="P78" s="16" t="s">
+        <v>552</v>
+      </c>
       <c r="Q78" s="16"/>
       <c r="R78" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T78" s="16" t="s">
-        <v>556</v>
-      </c>
+      <c r="T78" s="16"/>
       <c r="U78" s="16"/>
-      <c r="V78" s="17" t="n">
-        <v>34</v>
-      </c>
-      <c r="W78" s="17" t="n">
-        <v>31</v>
-      </c>
-      <c r="X78" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y78" s="17" t="n">
-        <v>73</v>
-      </c>
+      <c r="V78" s="17"/>
+      <c r="W78" s="17"/>
+      <c r="X78" s="17"/>
+      <c r="Y78" s="17"/>
       <c r="Z78" s="16" t="s">
         <v>68</v>
       </c>
@@ -8651,7 +8697,7 @@
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C79," ","_") &amp; SUBSTITUTE(D79," ","_") &amp; SUBSTITUTE(E79," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_ontology_for_exploring_knowledge_in_computer_networks</v>
+        <v>noria-bib-ref:OntologyNet-ITA_Semantic-Web_Approach_for_Modeling_Computing_Infrastructures_(INDL)</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>49</v>
@@ -8660,53 +8706,86 @@
         <v>50</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E79" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J79" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16" t="s">
+      <c r="K79" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="L79" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="H79" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I79" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K79" s="1"/>
       <c r="M79" s="17" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="N79" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
+      <c r="O79" s="18" t="n">
+        <f aca="false">K79/M79</f>
+        <v>1.89655172413793</v>
+      </c>
+      <c r="P79" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q79" s="16" t="s">
+        <v>561</v>
+      </c>
       <c r="R79" s="16" t="s">
-        <v>58</v>
+        <v>192</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>562</v>
       </c>
       <c r="T79" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="U79" s="16"/>
-      <c r="V79" s="17"/>
-      <c r="W79" s="17"/>
-      <c r="X79" s="17"/>
-      <c r="Y79" s="17"/>
+        <v>563</v>
+      </c>
+      <c r="U79" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="V79" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="W79" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="X79" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y79" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="Z79" s="16" t="s">
-        <v>60</v>
+        <v>565</v>
       </c>
       <c r="AA79" s="16" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="AB79" s="16" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C80," ","_") &amp; SUBSTITUTE(D80," ","_") &amp; SUBSTITUTE(E80," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_ontology_for_managing_network_services_quality</v>
+        <v>noria-bib-ref:OntologyNet-ITA_semantically_distributed_approach_to_map_IP_traffic_measurements_to_a_standardized_ontology</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>49</v>
@@ -8715,27 +8794,29 @@
         <v>50</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="F80" s="16"/>
+        <v>567</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>568</v>
+      </c>
       <c r="G80" s="16" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="K80" s="1"/>
       <c r="M80" s="17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N80" s="16" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="O80" s="16"/>
       <c r="P80" s="16"/>
@@ -8743,7 +8824,9 @@
       <c r="R80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T80" s="16"/>
+      <c r="T80" s="16" t="s">
+        <v>571</v>
+      </c>
       <c r="U80" s="16"/>
       <c r="V80" s="17"/>
       <c r="W80" s="17"/>
@@ -8760,7 +8843,7 @@
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C81," ","_") &amp; SUBSTITUTE(D81," ","_") &amp; SUBSTITUTE(E81," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_Ontology_for_Network_Services</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_Ontology_for_Collaborative_Tasks_in_Multi-agent_Systems</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>49</v>
@@ -8769,16 +8852,16 @@
         <v>50</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>564</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>565</v>
+        <v>572</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>573</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="H81" s="16" t="s">
         <v>64</v>
@@ -8788,10 +8871,10 @@
       </c>
       <c r="K81" s="1"/>
       <c r="M81" s="17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N81" s="16" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="O81" s="16"/>
       <c r="P81" s="16"/>
@@ -8799,14 +8882,24 @@
       <c r="R81" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T81" s="16"/>
+      <c r="T81" s="16" t="s">
+        <v>576</v>
+      </c>
       <c r="U81" s="16"/>
-      <c r="V81" s="17"/>
-      <c r="W81" s="17"/>
-      <c r="X81" s="17"/>
-      <c r="Y81" s="17"/>
+      <c r="V81" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="W81" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="X81" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y81" s="17" t="n">
+        <v>73</v>
+      </c>
       <c r="Z81" s="16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="AA81" s="16" t="s">
         <v>61</v>
@@ -8816,7 +8909,7 @@
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C82," ","_") &amp; SUBSTITUTE(D82," ","_") &amp; SUBSTITUTE(E82," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITAn_ontology-based_approach_to_improve_SNMP_support_for_autonomic_management</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_ontology_for_exploring_knowledge_in_computer_networks</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>49</v>
@@ -8825,29 +8918,27 @@
         <v>50</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>569</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="F82" s="16"/>
       <c r="G82" s="16" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K82" s="1"/>
       <c r="M82" s="17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N82" s="16" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="O82" s="16"/>
       <c r="P82" s="16"/>
@@ -8856,7 +8947,7 @@
         <v>58</v>
       </c>
       <c r="T82" s="16" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="U82" s="16"/>
       <c r="V82" s="17"/>
@@ -8873,7 +8964,7 @@
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C83," ","_") &amp; SUBSTITUTE(D83," ","_") &amp; SUBSTITUTE(E83," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_ontology_for_managing_network_services_quality</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>49</v>
@@ -8882,78 +8973,52 @@
         <v>50</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>574</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="F83" s="16"/>
       <c r="G83" s="16" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J83" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="K83" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="L83" s="16" t="s">
-        <v>577</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K83" s="1"/>
       <c r="M83" s="17" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N83" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="O83" s="18" t="n">
-        <f aca="false">K83/M83</f>
-        <v>2.16666666666667</v>
-      </c>
-      <c r="P83" s="22" t="s">
-        <v>579</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
       <c r="Q83" s="16"/>
       <c r="R83" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S83" s="16" t="s">
-        <v>580</v>
+        <v>58</v>
       </c>
       <c r="T83" s="16"/>
       <c r="U83" s="16"/>
-      <c r="V83" s="17" t="n">
-        <v>77</v>
-      </c>
-      <c r="W83" s="17" t="n">
-        <v>105</v>
-      </c>
-      <c r="X83" s="17" t="n">
-        <v>148</v>
-      </c>
-      <c r="Y83" s="17" t="n">
-        <v>15</v>
-      </c>
+      <c r="V83" s="17"/>
+      <c r="W83" s="17"/>
+      <c r="X83" s="17"/>
+      <c r="Y83" s="17"/>
       <c r="Z83" s="16" t="s">
-        <v>581</v>
+        <v>60</v>
       </c>
       <c r="AA83" s="16" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="AB83" s="16"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C84," ","_") &amp; SUBSTITUTE(D84," ","_") &amp; SUBSTITUTE(E84," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_network</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_Ontology_for_Network_Services</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>49</v>
@@ -8962,84 +9027,54 @@
         <v>50</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>582</v>
-      </c>
-      <c r="F84" s="16" t="s">
-        <v>583</v>
+        <v>584</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>585</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J84" s="16"/>
-      <c r="K84" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="L84" s="16" t="s">
-        <v>577</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K84" s="1"/>
       <c r="M84" s="17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N84" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="O84" s="18" t="n">
-        <f aca="false">K84/M84</f>
-        <v>2.16666666666667</v>
-      </c>
-      <c r="P84" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q84" s="16" t="s">
-        <v>585</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
       <c r="R84" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S84" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="T84" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="U84" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="V84" s="17" t="n">
-        <v>17</v>
-      </c>
-      <c r="W84" s="17" t="n">
-        <v>15</v>
-      </c>
-      <c r="X84" s="17" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y84" s="17" t="n">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="17"/>
+      <c r="X84" s="17"/>
+      <c r="Y84" s="17"/>
       <c r="Z84" s="16" t="s">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="AA84" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB84" s="16" t="s">
-        <v>279</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB84" s="16"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C85," ","_") &amp; SUBSTITUTE(D85," ","_") &amp; SUBSTITUTE(E85," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_product</v>
+        <v>noria-bib-ref:OntologyNet-ITAn_ontology-based_approach_to_improve_SNMP_support_for_autonomic_management</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>49</v>
@@ -9048,7 +9083,7 @@
         <v>50</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>588</v>
@@ -9057,75 +9092,46 @@
         <v>589</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J85" s="16"/>
-      <c r="K85" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="L85" s="16" t="s">
-        <v>577</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I85" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K85" s="1"/>
       <c r="M85" s="17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N85" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="O85" s="18" t="n">
-        <f aca="false">K85/M85</f>
-        <v>2.16666666666667</v>
-      </c>
-      <c r="P85" s="22" t="s">
-        <v>590</v>
-      </c>
-      <c r="Q85" s="16" t="s">
         <v>591</v>
       </c>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
       <c r="R85" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S85" s="16" t="s">
-        <v>580</v>
+        <v>58</v>
       </c>
       <c r="T85" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="U85" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="V85" s="17" t="n">
-        <v>22</v>
-      </c>
-      <c r="W85" s="17" t="n">
-        <v>20</v>
-      </c>
-      <c r="X85" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y85" s="17" t="n">
-        <v>2</v>
-      </c>
+      <c r="U85" s="16"/>
+      <c r="V85" s="17"/>
+      <c r="W85" s="17"/>
+      <c r="X85" s="17"/>
+      <c r="Y85" s="17"/>
       <c r="Z85" s="16" t="s">
-        <v>594</v>
+        <v>60</v>
       </c>
       <c r="AA85" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB85" s="16" t="s">
-        <v>595</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C86," ","_") &amp; SUBSTITUTE(D86," ","_") &amp; SUBSTITUTE(E86," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure:_workflow</v>
+        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>49</v>
@@ -9134,16 +9140,16 @@
         <v>50</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="H86" s="16" t="s">
         <v>71</v>
@@ -9151,67 +9157,61 @@
       <c r="I86" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J86" s="16"/>
+      <c r="J86" s="16" t="s">
+        <v>596</v>
+      </c>
       <c r="K86" s="17" t="n">
         <v>13</v>
       </c>
       <c r="L86" s="16" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="M86" s="17" t="n">
         <v>6</v>
       </c>
       <c r="N86" s="16" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="O86" s="18" t="n">
         <f aca="false">K86/M86</f>
         <v>2.16666666666667</v>
       </c>
       <c r="P86" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q86" s="16" t="s">
         <v>599</v>
       </c>
+      <c r="Q86" s="16"/>
       <c r="R86" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S86" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="T86" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="U86" s="16" t="s">
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="17" t="n">
+        <v>77</v>
+      </c>
+      <c r="W86" s="17" t="n">
+        <v>105</v>
+      </c>
+      <c r="X86" s="17" t="n">
+        <v>148</v>
+      </c>
+      <c r="Y86" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z86" s="16" t="s">
         <v>601</v>
-      </c>
-      <c r="V86" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="W86" s="17" t="n">
-        <v>16</v>
-      </c>
-      <c r="X86" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y86" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z86" s="16" t="s">
-        <v>594</v>
       </c>
       <c r="AA86" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB86" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="AB86" s="16"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C87," ","_") &amp; SUBSTITUTE(D87," ","_") &amp; SUBSTITUTE(E87," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITModels_of_Telecommunications_Network_Monitoring_Based_on_Knowledge_Graphs</v>
+        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure_–_network</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>49</v>
@@ -9220,7 +9220,7 @@
         <v>50</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>602</v>
@@ -9229,47 +9229,75 @@
         <v>603</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I87" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K87" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J87" s="16"/>
+      <c r="K87" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="L87" s="16" t="s">
+        <v>597</v>
+      </c>
       <c r="M87" s="17" t="n">
         <v>6</v>
       </c>
       <c r="N87" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="O87" s="18" t="n">
+        <f aca="false">K87/M87</f>
+        <v>2.16666666666667</v>
+      </c>
+      <c r="P87" s="22" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q87" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="O87" s="16"/>
-      <c r="P87" s="16"/>
-      <c r="Q87" s="16"/>
       <c r="R87" s="16" t="s">
-        <v>58</v>
+        <v>192</v>
+      </c>
+      <c r="S87" s="16" t="s">
+        <v>600</v>
       </c>
       <c r="T87" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="U87" s="16"/>
-      <c r="V87" s="17"/>
-      <c r="W87" s="17"/>
-      <c r="X87" s="17"/>
-      <c r="Y87" s="17"/>
+      <c r="U87" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="V87" s="17" t="n">
+        <v>17</v>
+      </c>
+      <c r="W87" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="X87" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y87" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="Z87" s="16" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="AA87" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB87" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB87" s="16" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C88," ","_") &amp; SUBSTITUTE(D88," ","_") &amp; SUBSTITUTE(E88," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITStandardizing_Ontologies_for_the_IP_Traffic_Measurement</v>
+        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure_–_product</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>49</v>
@@ -9278,50 +9306,84 @@
         <v>50</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>607</v>
-      </c>
-      <c r="F88" s="16"/>
+        <v>608</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>609</v>
+      </c>
       <c r="G88" s="16" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="I88" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K88" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J88" s="16"/>
+      <c r="K88" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="L88" s="16" t="s">
+        <v>597</v>
+      </c>
       <c r="M88" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="N88" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="O88" s="18" t="n">
+        <f aca="false">K88/M88</f>
+        <v>2.16666666666667</v>
+      </c>
+      <c r="P88" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q88" s="16" t="s">
+        <v>611</v>
+      </c>
       <c r="R88" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T88" s="16"/>
-      <c r="U88" s="16"/>
-      <c r="V88" s="17"/>
-      <c r="W88" s="17"/>
-      <c r="X88" s="17"/>
-      <c r="Y88" s="17"/>
+        <v>192</v>
+      </c>
+      <c r="S88" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="T88" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="U88" s="16" t="s">
+        <v>613</v>
+      </c>
+      <c r="V88" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="W88" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="X88" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y88" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="Z88" s="16" t="s">
-        <v>60</v>
+        <v>614</v>
       </c>
       <c r="AA88" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB88" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB88" s="16" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C89," ","_") &amp; SUBSTITUTE(D89," ","_") &amp; SUBSTITUTE(E89," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITTelecommunications_Service_Domain_Ontology_(TSDO)</v>
+        <v>noria-bib-ref:OntologyNet-ITDevops_Infrastructure_–_workflow</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>49</v>
@@ -9330,56 +9392,84 @@
         <v>50</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I89" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K89" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J89" s="16"/>
+      <c r="K89" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="L89" s="16" t="s">
+        <v>597</v>
+      </c>
       <c r="M89" s="17" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N89" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="16"/>
+        <v>598</v>
+      </c>
+      <c r="O89" s="18" t="n">
+        <f aca="false">K89/M89</f>
+        <v>2.16666666666667</v>
+      </c>
+      <c r="P89" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q89" s="16" t="s">
+        <v>619</v>
+      </c>
       <c r="R89" s="16" t="s">
-        <v>58</v>
+        <v>192</v>
+      </c>
+      <c r="S89" s="16" t="s">
+        <v>600</v>
       </c>
       <c r="T89" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="U89" s="16"/>
-      <c r="V89" s="17"/>
-      <c r="W89" s="17"/>
-      <c r="X89" s="17"/>
-      <c r="Y89" s="17"/>
+        <v>620</v>
+      </c>
+      <c r="U89" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="V89" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="W89" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="X89" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y89" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="Z89" s="16" t="s">
-        <v>68</v>
+        <v>614</v>
       </c>
       <c r="AA89" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB89" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB89" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C90," ","_") &amp; SUBSTITUTE(D90," ","_") &amp; SUBSTITUTE(E90," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITThe_SEAS_Communication_ontology</v>
+        <v>noria-bib-ref:OntologyNet-ITModels_of_Telecommunications_Network_Monitoring_Based_on_Knowledge_Graphs</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>49</v>
@@ -9388,86 +9478,56 @@
         <v>50</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>615</v>
+        <v>622</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>623</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>466</v>
+        <v>624</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J90" s="16" t="s">
-        <v>616</v>
-      </c>
-      <c r="K90" s="17" t="n">
-        <v>40</v>
-      </c>
-      <c r="L90" s="16" t="s">
-        <v>467</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I90" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K90" s="1"/>
       <c r="M90" s="17" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="N90" s="16" t="s">
-        <v>467</v>
-      </c>
-      <c r="O90" s="18" t="n">
-        <f aca="false">K90/M90</f>
-        <v>1</v>
-      </c>
-      <c r="P90" s="20" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q90" s="27" t="s">
-        <v>618</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="16"/>
       <c r="R90" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S90" s="16" t="s">
-        <v>619</v>
+        <v>58</v>
       </c>
       <c r="T90" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="U90" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="V90" s="17" t="n">
-        <v>69</v>
-      </c>
-      <c r="W90" s="17" t="n">
-        <v>46</v>
-      </c>
-      <c r="X90" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y90" s="17" t="n">
-        <v>6</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="U90" s="16"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="17"/>
+      <c r="X90" s="17"/>
+      <c r="Y90" s="17"/>
       <c r="Z90" s="16" t="s">
-        <v>482</v>
+        <v>60</v>
       </c>
       <c r="AA90" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB90" s="1" t="s">
-        <v>279</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB90" s="16"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C91," ","_") &amp; SUBSTITUTE(D91," ","_") &amp; SUBSTITUTE(E91," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITToCo</v>
+        <v>noria-bib-ref:OntologyNet-ITStandardizing_Ontologies_for_the_IP_Traffic_Measurement</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>49</v>
@@ -9476,84 +9536,50 @@
         <v>50</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>622</v>
-      </c>
-      <c r="F91" s="3"/>
+        <v>627</v>
+      </c>
+      <c r="F91" s="16"/>
       <c r="G91" s="16" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="K91" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="L91" s="16" t="s">
-        <v>625</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="I91" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K91" s="1"/>
       <c r="M91" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N91" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="O91" s="18" t="n">
-        <f aca="false">K91/M91</f>
-        <v>4.33333333333333</v>
-      </c>
-      <c r="P91" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q91" s="20" t="s">
-        <v>628</v>
-      </c>
+        <v>-1</v>
+      </c>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="16"/>
       <c r="R91" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S91" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="T91" s="16" t="s">
-        <v>630</v>
-      </c>
-      <c r="U91" s="16" t="s">
-        <v>631</v>
-      </c>
-      <c r="V91" s="17" t="n">
-        <v>85</v>
-      </c>
-      <c r="W91" s="17" t="n">
-        <v>41</v>
-      </c>
-      <c r="X91" s="17" t="n">
-        <v>54</v>
-      </c>
-      <c r="Y91" s="17" t="n">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="T91" s="16"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="17"/>
+      <c r="W91" s="17"/>
+      <c r="X91" s="17"/>
+      <c r="Y91" s="17"/>
       <c r="Z91" s="16" t="s">
-        <v>632</v>
+        <v>60</v>
       </c>
       <c r="AA91" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB91" s="1" t="s">
-        <v>633</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB91" s="16"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C92," ","_") &amp; SUBSTITUTE(D92," ","_") &amp; SUBSTITUTE(E92," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITToward_Auto-configuration_in_Software_networks</v>
+        <v>noria-bib-ref:OntologyNet-ITTelecommunications_Service_Domain_Ontology_(TSDO)</v>
       </c>
       <c r="B92" s="16" t="s">
         <v>49</v>
@@ -9562,29 +9588,29 @@
         <v>50</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I92" s="16" t="s">
         <v>65</v>
       </c>
       <c r="K92" s="1"/>
       <c r="M92" s="17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N92" s="16" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="O92" s="16"/>
       <c r="P92" s="16"/>
@@ -9592,7 +9618,9 @@
       <c r="R92" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T92" s="16"/>
+      <c r="T92" s="16" t="s">
+        <v>633</v>
+      </c>
       <c r="U92" s="16"/>
       <c r="V92" s="17"/>
       <c r="W92" s="17"/>
@@ -9609,7 +9637,7 @@
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C93," ","_") &amp; SUBSTITUTE(D93," ","_") &amp; SUBSTITUTE(E93," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITUsing_the_Network_Description_Language_in_Optical_Networks</v>
+        <v>noria-bib-ref:OntologyNet-ITThe_SEAS_Communication_ontology</v>
       </c>
       <c r="B93" s="16" t="s">
         <v>49</v>
@@ -9618,54 +9646,86 @@
         <v>50</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E93" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J93" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="K93" s="17" t="n">
+        <v>40</v>
+      </c>
+      <c r="L93" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="M93" s="17" t="n">
+        <v>40</v>
+      </c>
+      <c r="N93" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="O93" s="18" t="n">
+        <f aca="false">K93/M93</f>
+        <v>1</v>
+      </c>
+      <c r="P93" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q93" s="27" t="s">
         <v>638</v>
       </c>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16" t="s">
+      <c r="R93" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S93" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="H93" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I93" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K93" s="1"/>
-      <c r="M93" s="17" t="n">
-        <v>33</v>
-      </c>
-      <c r="N93" s="16" t="s">
+      <c r="T93" s="16" t="s">
         <v>640</v>
       </c>
-      <c r="O93" s="16"/>
-      <c r="P93" s="16"/>
-      <c r="Q93" s="16"/>
-      <c r="R93" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T93" s="16" t="s">
+      <c r="U93" s="16" t="s">
         <v>641</v>
       </c>
-      <c r="U93" s="16"/>
-      <c r="V93" s="17"/>
-      <c r="W93" s="17"/>
-      <c r="X93" s="17"/>
-      <c r="Y93" s="17"/>
+      <c r="V93" s="17" t="n">
+        <v>69</v>
+      </c>
+      <c r="W93" s="17" t="n">
+        <v>46</v>
+      </c>
+      <c r="X93" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y93" s="17" t="n">
+        <v>6</v>
+      </c>
       <c r="Z93" s="16" t="s">
-        <v>68</v>
+        <v>502</v>
       </c>
       <c r="AA93" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB93" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB93" s="1" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C94," ","_") &amp; SUBSTITUTE(D94," ","_") &amp; SUBSTITUTE(E94," ","_")</f>
-        <v>noria-bib-ref:OntologyNet-ITVers_une_ontologie_des_interactions_HTTP</v>
+        <v>noria-bib-ref:OntologyNet-ITToCo</v>
       </c>
       <c r="B94" s="16" t="s">
         <v>49</v>
@@ -9674,14 +9734,16 @@
         <v>50</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>642</v>
       </c>
-      <c r="F94" s="16"/>
+      <c r="F94" s="3" t="s">
+        <v>643</v>
+      </c>
       <c r="G94" s="16" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H94" s="16" t="s">
         <v>64</v>
@@ -9689,157 +9751,125 @@
       <c r="I94" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J94" s="1" t="s">
-        <v>644</v>
+      <c r="J94" s="3" t="s">
+        <v>645</v>
       </c>
       <c r="K94" s="17" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="L94" s="16" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M94" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N94" s="16" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O94" s="18" t="n">
         <f aca="false">K94/M94</f>
-        <v>2</v>
-      </c>
-      <c r="P94" s="16" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q94" s="22" t="s">
+        <v>4.33333333333333</v>
+      </c>
+      <c r="P94" s="20" t="s">
         <v>648</v>
+      </c>
+      <c r="Q94" s="20" t="s">
+        <v>649</v>
       </c>
       <c r="R94" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S94" s="16" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="T94" s="16" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="U94" s="16" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="V94" s="17" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="W94" s="17" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="X94" s="17" t="n">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="Y94" s="17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z94" s="16" t="s">
-        <v>196</v>
+        <v>653</v>
       </c>
       <c r="AA94" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB94" s="16" t="s">
-        <v>287</v>
+      <c r="AB94" s="1" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C95," ","_") &amp; SUBSTITUTE(D95," ","_") &amp; SUBSTITUTE(E95," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelingActivity_Ontology</v>
-      </c>
-      <c r="B95" s="3" t="s">
+        <v>noria-bib-ref:OntologyNet-ITToward_Auto-configuration_in_Software_networks</v>
+      </c>
+      <c r="B95" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>652</v>
+        <v>546</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J95" s="16" t="s">
-        <v>656</v>
-      </c>
-      <c r="K95" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="L95" s="16" t="s">
-        <v>657</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K95" s="1"/>
       <c r="M95" s="17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N95" s="16" t="s">
-        <v>657</v>
-      </c>
-      <c r="O95" s="18" t="n">
-        <f aca="false">K95/M95</f>
-        <v>1</v>
-      </c>
-      <c r="P95" s="16" t="s">
         <v>658</v>
       </c>
-      <c r="Q95" s="16" t="s">
-        <v>659</v>
-      </c>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
       <c r="R95" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S95" s="16" t="s">
-        <v>660</v>
-      </c>
-      <c r="T95" s="16" t="s">
-        <v>661</v>
-      </c>
-      <c r="U95" s="16" t="s">
-        <v>662</v>
-      </c>
-      <c r="V95" s="17" t="n">
-        <v>21</v>
-      </c>
-      <c r="W95" s="17" t="n">
-        <v>70</v>
-      </c>
-      <c r="X95" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y95" s="17" t="n">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+      <c r="V95" s="17"/>
+      <c r="W95" s="17"/>
+      <c r="X95" s="17"/>
+      <c r="Y95" s="17"/>
       <c r="Z95" s="16" t="s">
-        <v>663</v>
+        <v>68</v>
       </c>
       <c r="AA95" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB95" s="16" t="s">
-        <v>664</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB95" s="16"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C96," ","_") &amp; SUBSTITUTE(D96," ","_") &amp; SUBSTITUTE(E96," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelingBPMN_ontology</v>
+        <v>noria-bib-ref:OntologyNet-ITUsing_the_Network_Description_Language_in_Optical_Networks</v>
       </c>
       <c r="B96" s="16" t="s">
         <v>49</v>
@@ -9848,98 +9878,54 @@
         <v>50</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>652</v>
+        <v>546</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>665</v>
-      </c>
-      <c r="F96" s="3"/>
+        <v>659</v>
+      </c>
+      <c r="F96" s="16"/>
       <c r="G96" s="16" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="K96" s="17" t="n">
-        <v>130</v>
-      </c>
-      <c r="L96" s="16" t="s">
-        <v>668</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I96" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K96" s="1"/>
       <c r="M96" s="17" t="n">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="N96" s="16" t="s">
-        <v>668</v>
-      </c>
-      <c r="O96" s="18" t="n">
-        <f aca="false">K96/M96</f>
-        <v>1</v>
-      </c>
-      <c r="P96" s="27" t="s">
-        <v>669</v>
-      </c>
-      <c r="Q96" s="20" t="s">
-        <v>670</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="16"/>
       <c r="R96" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S96" s="16" t="s">
-        <v>671</v>
+        <v>58</v>
       </c>
       <c r="T96" s="16" t="s">
-        <v>672</v>
-      </c>
-      <c r="U96" s="16" t="s">
-        <v>673</v>
-      </c>
-      <c r="V96" s="17" t="n">
-        <v>158</v>
-      </c>
-      <c r="W96" s="17" t="n">
-        <v>103</v>
-      </c>
-      <c r="X96" s="17" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y96" s="17" t="n">
-        <v>0</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="U96" s="16"/>
+      <c r="V96" s="17"/>
+      <c r="W96" s="17"/>
+      <c r="X96" s="17"/>
+      <c r="Y96" s="17"/>
       <c r="Z96" s="16" t="s">
-        <v>674</v>
+        <v>68</v>
       </c>
       <c r="AA96" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB96" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC96" s="16"/>
-      <c r="AD96" s="16"/>
-      <c r="AE96" s="16"/>
-      <c r="AF96" s="16"/>
-      <c r="AG96" s="16"/>
-      <c r="AH96" s="16"/>
-      <c r="AI96" s="16"/>
-      <c r="AJ96" s="16"/>
-      <c r="AK96" s="16"/>
-      <c r="AL96" s="16"/>
-      <c r="AM96" s="16"/>
-      <c r="AN96" s="16"/>
-      <c r="AO96" s="16"/>
-      <c r="AP96" s="16"/>
+        <v>61</v>
+      </c>
+      <c r="AB96" s="16"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C97," ","_") &amp; SUBSTITUTE(D97," ","_") &amp; SUBSTITUTE(E97," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelingFOLIO</v>
+        <v>noria-bib-ref:OntologyNet-ITVers_une_ontologie_des_interactions_HTTP</v>
       </c>
       <c r="B97" s="16" t="s">
         <v>49</v>
@@ -9948,16 +9934,14 @@
         <v>50</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>652</v>
+        <v>546</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>675</v>
-      </c>
-      <c r="F97" s="16" t="s">
-        <v>676</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="F97" s="16"/>
       <c r="G97" s="16" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="H97" s="16" t="s">
         <v>64</v>
@@ -9965,81 +9949,69 @@
       <c r="I97" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J97" s="16"/>
-      <c r="K97" s="19" t="n">
-        <v>14</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="M97" s="19" t="n">
-        <v>14</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>678</v>
+      <c r="J97" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="K97" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="M97" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" s="16" t="s">
+        <v>667</v>
       </c>
       <c r="O97" s="18" t="n">
         <f aca="false">K97/M97</f>
-        <v>1</v>
-      </c>
-      <c r="P97" s="20" t="s">
-        <v>679</v>
-      </c>
-      <c r="Q97" s="20" t="s">
-        <v>680</v>
+        <v>2</v>
+      </c>
+      <c r="P97" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q97" s="22" t="s">
+        <v>669</v>
       </c>
       <c r="R97" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S97" s="16" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="T97" s="16" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="U97" s="16" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="V97" s="17" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="W97" s="17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="X97" s="17" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Y97" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z97" s="16" t="s">
-        <v>684</v>
+        <v>196</v>
       </c>
       <c r="AA97" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB97" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC97" s="16"/>
-      <c r="AD97" s="16"/>
-      <c r="AE97" s="16"/>
-      <c r="AF97" s="16"/>
-      <c r="AG97" s="16"/>
-      <c r="AH97" s="16"/>
-      <c r="AI97" s="16"/>
-      <c r="AJ97" s="16"/>
-      <c r="AK97" s="16"/>
-      <c r="AL97" s="16"/>
-      <c r="AM97" s="16"/>
-      <c r="AN97" s="16"/>
-      <c r="AO97" s="16"/>
-      <c r="AP97" s="16"/>
+        <v>287</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C98," ","_") &amp; SUBSTITUTE(D98," ","_") &amp; SUBSTITUTE(E98," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelinggist</v>
+        <v>noria-bib-ref:OntologyProcess_modelingActivity_Ontology</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>49</v>
@@ -10048,96 +10020,86 @@
         <v>50</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>71</v>
+        <v>673</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J98" s="16" t="s">
-        <v>688</v>
-      </c>
-      <c r="K98" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N98" s="3"/>
+        <v>677</v>
+      </c>
+      <c r="K98" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L98" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="M98" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="N98" s="16" t="s">
+        <v>678</v>
+      </c>
       <c r="O98" s="18" t="n">
         <f aca="false">K98/M98</f>
         <v>1</v>
       </c>
-      <c r="P98" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="Q98" s="3" t="s">
-        <v>690</v>
+      <c r="P98" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q98" s="16" t="s">
+        <v>680</v>
       </c>
       <c r="R98" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S98" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="T98" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="U98" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="V98" s="19" t="n">
-        <v>138</v>
-      </c>
-      <c r="W98" s="19" t="n">
-        <v>71</v>
-      </c>
-      <c r="X98" s="19" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y98" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z98" s="3" t="s">
-        <v>167</v>
+        <v>151</v>
+      </c>
+      <c r="S98" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="T98" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="U98" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="V98" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="W98" s="17" t="n">
+        <v>70</v>
+      </c>
+      <c r="X98" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y98" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="16" t="s">
+        <v>684</v>
       </c>
       <c r="AA98" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB98" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC98" s="16"/>
-      <c r="AD98" s="16"/>
-      <c r="AE98" s="16"/>
-      <c r="AF98" s="16"/>
-      <c r="AG98" s="16"/>
-      <c r="AH98" s="16"/>
-      <c r="AI98" s="16"/>
-      <c r="AJ98" s="16"/>
-      <c r="AK98" s="16"/>
-      <c r="AL98" s="16"/>
-      <c r="AM98" s="16"/>
-      <c r="AN98" s="16"/>
-      <c r="AO98" s="16"/>
-      <c r="AP98" s="16"/>
+        <v>685</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C99," ","_") &amp; SUBSTITUTE(D99," ","_") &amp; SUBSTITUTE(E99," ","_")</f>
-        <v>noria-bib-ref:OntologyProcess_modelingIncident_Management_ontology</v>
+        <v>noria-bib-ref:OntologyProcess_modelingBPMN_ontology</v>
       </c>
       <c r="B99" s="16" t="s">
         <v>49</v>
@@ -10146,58 +10108,79 @@
         <v>50</v>
       </c>
       <c r="D99" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="E99" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="K99" s="17" t="n">
+        <v>130</v>
+      </c>
+      <c r="L99" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="M99" s="17" t="n">
+        <v>130</v>
+      </c>
+      <c r="N99" s="16" t="s">
+        <v>689</v>
+      </c>
+      <c r="O99" s="18" t="n">
+        <f aca="false">K99/M99</f>
+        <v>1</v>
+      </c>
+      <c r="P99" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q99" s="20" t="s">
+        <v>691</v>
+      </c>
+      <c r="R99" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S99" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="T99" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="U99" s="16" t="s">
         <v>694</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="V99" s="17" t="n">
+        <v>158</v>
+      </c>
+      <c r="W99" s="17" t="n">
+        <v>103</v>
+      </c>
+      <c r="X99" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y99" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="16" t="s">
         <v>695</v>
       </c>
-      <c r="G99" s="16" t="s">
-        <v>696</v>
-      </c>
-      <c r="H99" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="I99" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J99" s="16" t="s">
-        <v>697</v>
-      </c>
-      <c r="K99" s="17"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N99" s="16" t="s">
-        <v>698</v>
-      </c>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="S99" s="16"/>
-      <c r="T99" s="16" t="s">
-        <v>699</v>
-      </c>
-      <c r="U99" s="16" t="s">
-        <v>700</v>
-      </c>
-      <c r="V99" s="17"/>
-      <c r="W99" s="17"/>
-      <c r="X99" s="17"/>
-      <c r="Y99" s="17"/>
-      <c r="Z99" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="AA99" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB99" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB99" s="16" t="s">
+        <v>156</v>
+      </c>
       <c r="AC99" s="16"/>
       <c r="AD99" s="16"/>
       <c r="AE99" s="16"/>
@@ -10216,7 +10199,7 @@
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C100," ","_") &amp; SUBSTITUTE(D100," ","_") &amp; SUBSTITUTE(E100," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIA_Formal_Ontology_for_Industrial_Maintenance_(IMAMO)</v>
+        <v>noria-bib-ref:OntologyProcess_modelingFOLIO</v>
       </c>
       <c r="B100" s="16" t="s">
         <v>49</v>
@@ -10225,60 +10208,79 @@
         <v>50</v>
       </c>
       <c r="D100" s="16" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="H100" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I100" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="K100" s="17"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N100" s="16" t="s">
-        <v>705</v>
-      </c>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="16"/>
+      <c r="I100" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J100" s="16"/>
+      <c r="K100" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="M100" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="O100" s="18" t="n">
+        <f aca="false">K100/M100</f>
+        <v>1</v>
+      </c>
+      <c r="P100" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q100" s="20" t="s">
+        <v>701</v>
+      </c>
       <c r="R100" s="16" t="s">
-        <v>58</v>
+        <v>192</v>
+      </c>
+      <c r="S100" s="16" t="s">
+        <v>702</v>
       </c>
       <c r="T100" s="16" t="s">
-        <v>706</v>
-      </c>
-      <c r="U100" s="16"/>
+        <v>703</v>
+      </c>
+      <c r="U100" s="16" t="s">
+        <v>704</v>
+      </c>
       <c r="V100" s="17" t="n">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="W100" s="17" t="n">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="X100" s="17" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="Y100" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z100" s="16" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AA100" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB100" s="16"/>
+      <c r="AB100" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="AC100" s="16"/>
       <c r="AD100" s="16"/>
       <c r="AE100" s="16"/>
@@ -10297,83 +10299,85 @@
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C101," ","_") &amp; SUBSTITUTE(D101," ","_") &amp; SUBSTITUTE(E101," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIBOnSAI</v>
-      </c>
-      <c r="B101" s="16" t="s">
+        <v>noria-bib-ref:OntologyProcess_modelinggist</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D101" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="E101" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="F101" s="16" t="s">
-        <v>709</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>710</v>
-      </c>
-      <c r="H101" s="16" t="s">
-        <v>64</v>
+      <c r="H101" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K101" s="17" t="n">
-        <v>154</v>
-      </c>
-      <c r="L101" s="16" t="s">
-        <v>711</v>
-      </c>
-      <c r="M101" s="17" t="n">
-        <v>61</v>
-      </c>
-      <c r="N101" s="16" t="s">
-        <v>712</v>
-      </c>
+      <c r="J101" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="K101" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N101" s="3"/>
       <c r="O101" s="18" t="n">
         <f aca="false">K101/M101</f>
-        <v>2.52459016393443</v>
-      </c>
-      <c r="Q101" s="1" t="s">
-        <v>713</v>
+        <v>1</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>711</v>
       </c>
       <c r="R101" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S101" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="U101" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="T101" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="U101" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="V101" s="17" t="n">
-        <v>99</v>
-      </c>
-      <c r="W101" s="17" t="n">
-        <v>76</v>
-      </c>
-      <c r="X101" s="17" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y101" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z101" s="16" t="s">
-        <v>717</v>
+      <c r="V101" s="19" t="n">
+        <v>138</v>
+      </c>
+      <c r="W101" s="19" t="n">
+        <v>71</v>
+      </c>
+      <c r="X101" s="19" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y101" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="AA101" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB101" s="16" t="s">
-        <v>546</v>
+        <v>168</v>
       </c>
       <c r="AC101" s="16"/>
       <c r="AD101" s="16"/>
@@ -10393,7 +10397,7 @@
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C102," ","_") &amp; SUBSTITUTE(D102," ","_") &amp; SUBSTITUTE(E102," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIDogOnt</v>
+        <v>noria-bib-ref:OntologyProcess_modelingIncident_Management_ontology</v>
       </c>
       <c r="B102" s="16" t="s">
         <v>49</v>
@@ -10402,78 +10406,58 @@
         <v>50</v>
       </c>
       <c r="D102" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="E102" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="H102" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I102" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J102" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="F102" s="16" t="s">
+      <c r="K102" s="17"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="G102" s="16" t="s">
+      <c r="O102" s="16"/>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="S102" s="16"/>
+      <c r="T102" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="H102" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K102" s="17" t="n">
-        <v>356</v>
-      </c>
-      <c r="L102" s="16" t="s">
+      <c r="U102" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="M102" s="17" t="n">
-        <v>102</v>
-      </c>
-      <c r="N102" s="16" t="s">
-        <v>722</v>
-      </c>
-      <c r="O102" s="18" t="n">
-        <f aca="false">K102/M102</f>
-        <v>3.49019607843137</v>
-      </c>
-      <c r="P102" s="16" t="s">
-        <v>723</v>
-      </c>
-      <c r="Q102" s="20" t="s">
-        <v>724</v>
-      </c>
-      <c r="R102" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S102" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="T102" s="16" t="s">
-        <v>726</v>
-      </c>
-      <c r="U102" s="16" t="s">
-        <v>727</v>
-      </c>
-      <c r="V102" s="17" t="n">
-        <v>167</v>
-      </c>
-      <c r="W102" s="17" t="n">
-        <v>18</v>
-      </c>
-      <c r="X102" s="17" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y102" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="V102" s="17"/>
+      <c r="W102" s="17"/>
+      <c r="X102" s="17"/>
+      <c r="Y102" s="17"/>
       <c r="Z102" s="16" t="s">
-        <v>448</v>
+        <v>68</v>
       </c>
       <c r="AA102" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB102" s="16" t="s">
-        <v>633</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AB102" s="16"/>
       <c r="AC102" s="16"/>
       <c r="AD102" s="16"/>
       <c r="AE102" s="16"/>
@@ -10492,7 +10476,7 @@
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C103," ","_") &amp; SUBSTITUTE(D103," ","_") &amp; SUBSTITUTE(E103," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIIoT-Lite</v>
+        <v>noria-bib-ref:OntologySE-SIA_Formal_Ontology_for_Industrial_Maintenance_(IMAMO)</v>
       </c>
       <c r="B103" s="16" t="s">
         <v>49</v>
@@ -10501,79 +10485,60 @@
         <v>50</v>
       </c>
       <c r="D103" s="16" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>730</v>
-      </c>
-      <c r="H103" s="16"/>
-      <c r="I103" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="K103" s="17" t="n">
-        <v>142</v>
-      </c>
-      <c r="L103" s="16" t="s">
-        <v>732</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="H103" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I103" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K103" s="17"/>
+      <c r="L103" s="16"/>
       <c r="M103" s="17" t="n">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="N103" s="16" t="s">
-        <v>733</v>
-      </c>
-      <c r="O103" s="18" t="n">
-        <f aca="false">K103/M103</f>
-        <v>1.84415584415584</v>
-      </c>
-      <c r="P103" s="16" t="s">
-        <v>734</v>
-      </c>
-      <c r="Q103" s="16" t="s">
-        <v>735</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
       <c r="R103" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S103" s="1" t="s">
-        <v>736</v>
+        <v>58</v>
       </c>
       <c r="T103" s="16" t="s">
-        <v>737</v>
-      </c>
-      <c r="U103" s="16" t="s">
-        <v>738</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="U103" s="16"/>
       <c r="V103" s="17" t="n">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="W103" s="17" t="n">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="X103" s="17" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="Y103" s="17" t="n">
         <v>0</v>
       </c>
       <c r="Z103" s="16" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AA103" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB103" s="1" t="s">
-        <v>740</v>
-      </c>
+      <c r="AB103" s="16"/>
       <c r="AC103" s="16"/>
       <c r="AD103" s="16"/>
       <c r="AE103" s="16"/>
@@ -10592,7 +10557,7 @@
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C104," ","_") &amp; SUBSTITUTE(D104," ","_") &amp; SUBSTITUTE(E104," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SImIO!_Ontology_Network</v>
+        <v>noria-bib-ref:OntologySE-SIBOnSAI</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>49</v>
@@ -10601,78 +10566,74 @@
         <v>50</v>
       </c>
       <c r="D104" s="16" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>743</v>
-      </c>
-      <c r="H104" s="16"/>
+        <v>731</v>
+      </c>
+      <c r="H104" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="I104" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J104" s="1" t="s">
-        <v>744</v>
-      </c>
       <c r="K104" s="17" t="n">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="L104" s="16" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="M104" s="17" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="N104" s="16" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="O104" s="18" t="n">
         <f aca="false">K104/M104</f>
-        <v>1.82051282051282</v>
-      </c>
-      <c r="P104" s="16" t="s">
-        <v>747</v>
-      </c>
-      <c r="Q104" s="16" t="s">
-        <v>748</v>
+        <v>2.52459016393443</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>734</v>
       </c>
       <c r="R104" s="16" t="s">
         <v>192</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="T104" s="16" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="U104" s="16" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="V104" s="17" t="n">
-        <v>624</v>
+        <v>99</v>
       </c>
       <c r="W104" s="17" t="n">
-        <v>364</v>
+        <v>76</v>
       </c>
       <c r="X104" s="17" t="n">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="Y104" s="17" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="Z104" s="16" t="s">
-        <v>167</v>
+        <v>738</v>
       </c>
       <c r="AA104" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB104" s="16" t="s">
-        <v>168</v>
+        <v>566</v>
       </c>
       <c r="AC104" s="16"/>
       <c r="AD104" s="16"/>
@@ -10692,7 +10653,7 @@
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C105," ","_") &amp; SUBSTITUTE(D105," ","_") &amp; SUBSTITUTE(E105," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIRAMI_Ontology</v>
+        <v>noria-bib-ref:OntologySE-SIDogOnt</v>
       </c>
       <c r="B105" s="16" t="s">
         <v>49</v>
@@ -10701,16 +10662,16 @@
         <v>50</v>
       </c>
       <c r="D105" s="16" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="H105" s="16" t="s">
         <v>64</v>
@@ -10719,59 +10680,59 @@
         <v>77</v>
       </c>
       <c r="K105" s="17" t="n">
-        <v>170</v>
+        <v>356</v>
       </c>
       <c r="L105" s="16" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="M105" s="17" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="N105" s="16" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="O105" s="18" t="n">
         <f aca="false">K105/M105</f>
-        <v>1.93181818181818</v>
+        <v>3.49019607843137</v>
       </c>
       <c r="P105" s="16" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="Q105" s="20" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="R105" s="16" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="T105" s="16" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="U105" s="16" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="V105" s="17" t="n">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="W105" s="17" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="X105" s="17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Y105" s="17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z105" s="16" t="s">
-        <v>762</v>
+        <v>468</v>
       </c>
       <c r="AA105" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB105" s="1" t="s">
-        <v>279</v>
+      <c r="AB105" s="16" t="s">
+        <v>654</v>
       </c>
       <c r="AC105" s="16"/>
       <c r="AD105" s="16"/>
@@ -10791,7 +10752,7 @@
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C106," ","_") &amp; SUBSTITUTE(D106," ","_") &amp; SUBSTITUTE(E106," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SISAREF</v>
+        <v>noria-bib-ref:OntologySE-SIIoT-Lite</v>
       </c>
       <c r="B106" s="16" t="s">
         <v>49</v>
@@ -10800,74 +10761,78 @@
         <v>50</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>765</v>
-      </c>
-      <c r="H106" s="16" t="s">
-        <v>71</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="H106" s="16"/>
       <c r="I106" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J106" s="16"/>
+      <c r="J106" s="1" t="s">
+        <v>752</v>
+      </c>
       <c r="K106" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L106" s="16"/>
+        <v>142</v>
+      </c>
+      <c r="L106" s="16" t="s">
+        <v>753</v>
+      </c>
       <c r="M106" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N106" s="16"/>
+        <v>77</v>
+      </c>
+      <c r="N106" s="16" t="s">
+        <v>754</v>
+      </c>
       <c r="O106" s="18" t="n">
         <f aca="false">K106/M106</f>
-        <v>1</v>
-      </c>
-      <c r="P106" s="20" t="s">
-        <v>766</v>
-      </c>
-      <c r="Q106" s="20" t="s">
-        <v>767</v>
+        <v>1.84415584415584</v>
+      </c>
+      <c r="P106" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q106" s="16" t="s">
+        <v>756</v>
       </c>
       <c r="R106" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S106" s="16" t="s">
-        <v>768</v>
+        <v>192</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>757</v>
       </c>
       <c r="T106" s="16" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="U106" s="16" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="V106" s="17" t="n">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="W106" s="17" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="X106" s="17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Y106" s="17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z106" s="16" t="s">
-        <v>249</v>
+        <v>760</v>
       </c>
       <c r="AA106" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>168</v>
+        <v>761</v>
       </c>
       <c r="AC106" s="16"/>
       <c r="AD106" s="16"/>
@@ -10887,7 +10852,7 @@
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C107," ","_") &amp; SUBSTITUTE(D107," ","_") &amp; SUBSTITUTE(E107," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SISAREF4SYST</v>
+        <v>noria-bib-ref:OntologySE-SImIO!_Ontology_Network</v>
       </c>
       <c r="B107" s="16" t="s">
         <v>49</v>
@@ -10896,74 +10861,78 @@
         <v>50</v>
       </c>
       <c r="D107" s="16" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>765</v>
-      </c>
-      <c r="H107" s="16" t="s">
-        <v>71</v>
-      </c>
+        <v>764</v>
+      </c>
+      <c r="H107" s="16"/>
       <c r="I107" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J107" s="16"/>
+      <c r="J107" s="1" t="s">
+        <v>765</v>
+      </c>
       <c r="K107" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L107" s="16"/>
+        <v>71</v>
+      </c>
+      <c r="L107" s="16" t="s">
+        <v>766</v>
+      </c>
       <c r="M107" s="17" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N107" s="16"/>
+        <v>39</v>
+      </c>
+      <c r="N107" s="16" t="s">
+        <v>767</v>
+      </c>
       <c r="O107" s="18" t="n">
         <f aca="false">K107/M107</f>
-        <v>1</v>
-      </c>
-      <c r="P107" s="20" t="s">
-        <v>773</v>
-      </c>
-      <c r="Q107" s="20" t="s">
-        <v>774</v>
+        <v>1.82051282051282</v>
+      </c>
+      <c r="P107" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q107" s="16" t="s">
+        <v>769</v>
       </c>
       <c r="R107" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="S107" s="16" t="s">
-        <v>775</v>
+        <v>192</v>
+      </c>
+      <c r="S107" s="1" t="s">
+        <v>770</v>
       </c>
       <c r="T107" s="16" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="U107" s="16" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="V107" s="17" t="n">
-        <v>4</v>
+        <v>624</v>
       </c>
       <c r="W107" s="17" t="n">
-        <v>9</v>
+        <v>364</v>
       </c>
       <c r="X107" s="17" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="Y107" s="17" t="n">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="Z107" s="16" t="s">
-        <v>778</v>
+        <v>167</v>
       </c>
       <c r="AA107" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB107" s="1" t="s">
-        <v>279</v>
+      <c r="AB107" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="AC107" s="16"/>
       <c r="AD107" s="16"/>
@@ -10983,7 +10952,7 @@
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C108," ","_") &amp; SUBSTITUTE(D108," ","_") &amp; SUBSTITUTE(E108," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SISOSA</v>
+        <v>noria-bib-ref:OntologySE-SIRAMI_Ontology</v>
       </c>
       <c r="B108" s="16" t="s">
         <v>49</v>
@@ -10992,14 +10961,16 @@
         <v>50</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>779</v>
-      </c>
-      <c r="F108" s="3"/>
+        <v>773</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>774</v>
+      </c>
       <c r="G108" s="16" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="H108" s="16" t="s">
         <v>64</v>
@@ -11007,61 +10978,60 @@
       <c r="I108" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J108" s="3" t="s">
-        <v>781</v>
-      </c>
       <c r="K108" s="17" t="n">
-        <v>435</v>
+        <v>170</v>
       </c>
       <c r="L108" s="16" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="M108" s="17" t="n">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="N108" s="16" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="O108" s="18" t="n">
         <f aca="false">K108/M108</f>
-        <v>43.5</v>
-      </c>
-      <c r="P108" s="16"/>
+        <v>1.93181818181818</v>
+      </c>
+      <c r="P108" s="16" t="s">
+        <v>778</v>
+      </c>
       <c r="Q108" s="20" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="R108" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="S108" s="16" t="s">
-        <v>785</v>
+      <c r="S108" s="1" t="s">
+        <v>780</v>
       </c>
       <c r="T108" s="16" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="U108" s="16" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="V108" s="17" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="W108" s="17" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="X108" s="17" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="Y108" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z108" s="16" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="AA108" s="16" t="s">
         <v>87</v>
       </c>
       <c r="AB108" s="1" t="s">
-        <v>502</v>
+        <v>279</v>
       </c>
       <c r="AC108" s="16"/>
       <c r="AD108" s="16"/>
@@ -11081,7 +11051,7 @@
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C109," ","_") &amp; SUBSTITUTE(D109," ","_") &amp; SUBSTITUTE(E109," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SISOUPA</v>
+        <v>noria-bib-ref:OntologySE-SISAREF</v>
       </c>
       <c r="B109" s="16" t="s">
         <v>49</v>
@@ -11090,55 +11060,75 @@
         <v>50</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>701</v>
+        <v>722</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="H109" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I109" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="K109" s="17"/>
+        <v>71</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J109" s="16"/>
+      <c r="K109" s="17" t="n">
+        <v>-1</v>
+      </c>
       <c r="L109" s="16"/>
       <c r="M109" s="17" t="n">
-        <v>214</v>
-      </c>
-      <c r="N109" s="16" t="s">
-        <v>793</v>
-      </c>
-      <c r="O109" s="16"/>
-      <c r="P109" s="16"/>
-      <c r="Q109" s="16"/>
+        <v>-1</v>
+      </c>
+      <c r="N109" s="16"/>
+      <c r="O109" s="18" t="n">
+        <f aca="false">K109/M109</f>
+        <v>1</v>
+      </c>
+      <c r="P109" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q109" s="20" t="s">
+        <v>788</v>
+      </c>
       <c r="R109" s="16" t="s">
-        <v>58</v>
+        <v>151</v>
+      </c>
+      <c r="S109" s="16" t="s">
+        <v>789</v>
       </c>
       <c r="T109" s="16" t="s">
-        <v>794</v>
-      </c>
-      <c r="U109" s="16"/>
-      <c r="V109" s="17"/>
-      <c r="W109" s="17"/>
-      <c r="X109" s="17"/>
-      <c r="Y109" s="17"/>
+        <v>790</v>
+      </c>
+      <c r="U109" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="V109" s="17" t="n">
+        <v>81</v>
+      </c>
+      <c r="W109" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="X109" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y109" s="17" t="n">
+        <v>10</v>
+      </c>
       <c r="Z109" s="16" t="s">
-        <v>68</v>
+        <v>249</v>
       </c>
       <c r="AA109" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB109" s="16"/>
+        <v>87</v>
+      </c>
+      <c r="AB109" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="AC109" s="16"/>
       <c r="AD109" s="16"/>
       <c r="AE109" s="16"/>
@@ -11157,7 +11147,7 @@
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="str">
         <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C110," ","_") &amp; SUBSTITUTE(D110," ","_") &amp; SUBSTITUTE(E110," ","_")</f>
-        <v>noria-bib-ref:OntologySE-SIThe_Building_Topology_Ontology_(BOT)</v>
+        <v>noria-bib-ref:OntologySE-SISAREF4SYST</v>
       </c>
       <c r="B110" s="16" t="s">
         <v>49</v>
@@ -11166,78 +11156,74 @@
         <v>50</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>64</v>
+        <v>722</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J110" s="16"/>
-      <c r="K110" s="2" t="n">
-        <v>160</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="M110" s="2" t="n">
-        <v>160</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>798</v>
-      </c>
+      <c r="K110" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L110" s="16"/>
+      <c r="M110" s="17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N110" s="16"/>
       <c r="O110" s="18" t="n">
         <f aca="false">K110/M110</f>
         <v>1</v>
       </c>
-      <c r="P110" s="25" t="s">
-        <v>799</v>
-      </c>
-      <c r="Q110" s="25" t="s">
-        <v>800</v>
+      <c r="P110" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q110" s="20" t="s">
+        <v>795</v>
       </c>
       <c r="R110" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="S110" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="T110" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="U110" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="V110" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="W110" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="X110" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y110" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z110" s="1" t="s">
-        <v>778</v>
+      <c r="S110" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="T110" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="U110" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="V110" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="W110" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="X110" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="16" t="s">
+        <v>799</v>
       </c>
       <c r="AA110" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB110" s="16" t="s">
-        <v>595</v>
+      <c r="AB110" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="AC110" s="16"/>
       <c r="AD110" s="16"/>
@@ -11255,34 +11241,88 @@
       <c r="AP110" s="16"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="16"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="16"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="16"/>
-      <c r="O111" s="16"/>
+      <c r="A111" s="6" t="str">
+        <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C111," ","_") &amp; SUBSTITUTE(D111," ","_") &amp; SUBSTITUTE(E111," ","_")</f>
+        <v>noria-bib-ref:OntologySE-SISOSA</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>800</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="H111" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="K111" s="17" t="n">
+        <v>435</v>
+      </c>
+      <c r="L111" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="M111" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N111" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="O111" s="18" t="n">
+        <f aca="false">K111/M111</f>
+        <v>43.5</v>
+      </c>
       <c r="P111" s="16"/>
-      <c r="Q111" s="16"/>
-      <c r="R111" s="16"/>
-      <c r="S111" s="16"/>
-      <c r="T111" s="16"/>
-      <c r="U111" s="16"/>
-      <c r="V111" s="17"/>
-      <c r="W111" s="17"/>
-      <c r="X111" s="17"/>
-      <c r="Y111" s="17"/>
-      <c r="Z111" s="16"/>
-      <c r="AA111" s="16"/>
-      <c r="AB111" s="16"/>
+      <c r="Q111" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="R111" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S111" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="T111" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="U111" s="16" t="s">
+        <v>808</v>
+      </c>
+      <c r="V111" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="W111" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="X111" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y111" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z111" s="16" t="s">
+        <v>809</v>
+      </c>
+      <c r="AA111" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB111" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="AC111" s="16"/>
       <c r="AD111" s="16"/>
       <c r="AE111" s="16"/>
@@ -11299,33 +11339,65 @@
       <c r="AP111" s="16"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="16"/>
+      <c r="A112" s="6" t="str">
+        <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C112," ","_") &amp; SUBSTITUTE(D112," ","_") &amp; SUBSTITUTE(E112," ","_")</f>
+        <v>noria-bib-ref:OntologySE-SISOUPA</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>810</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>811</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I112" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>813</v>
+      </c>
       <c r="K112" s="17"/>
       <c r="L112" s="16"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="16"/>
+      <c r="M112" s="17" t="n">
+        <v>214</v>
+      </c>
+      <c r="N112" s="16" t="s">
+        <v>814</v>
+      </c>
       <c r="O112" s="16"/>
       <c r="P112" s="16"/>
       <c r="Q112" s="16"/>
-      <c r="R112" s="16"/>
-      <c r="S112" s="16"/>
-      <c r="T112" s="16"/>
+      <c r="R112" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="T112" s="16" t="s">
+        <v>815</v>
+      </c>
       <c r="U112" s="16"/>
       <c r="V112" s="17"/>
       <c r="W112" s="17"/>
       <c r="X112" s="17"/>
       <c r="Y112" s="17"/>
-      <c r="Z112" s="16"/>
-      <c r="AA112" s="16"/>
+      <c r="Z112" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA112" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="AB112" s="16"/>
       <c r="AC112" s="16"/>
       <c r="AD112" s="16"/>
@@ -11343,34 +11415,90 @@
       <c r="AP112" s="16"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
+      <c r="A113" s="6" t="str">
+        <f aca="false">"noria-bib-ref:" &amp; SUBSTITUTE(C113," ","_") &amp; SUBSTITUTE(D113," ","_") &amp; SUBSTITUTE(E113," ","_")</f>
+        <v>noria-bib-ref:OntologySE-SIThe_Building_Topology_Ontology_(BOT)</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="J113" s="16"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="16"/>
-      <c r="O113" s="16"/>
-      <c r="P113" s="16"/>
-      <c r="Q113" s="16"/>
-      <c r="R113" s="16"/>
-      <c r="S113" s="16"/>
-      <c r="T113" s="16"/>
-      <c r="U113" s="16"/>
-      <c r="V113" s="17"/>
-      <c r="W113" s="17"/>
-      <c r="X113" s="17"/>
-      <c r="Y113" s="17"/>
-      <c r="Z113" s="16"/>
-      <c r="AA113" s="16"/>
-      <c r="AB113" s="16"/>
+      <c r="K113" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="M113" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="O113" s="18" t="n">
+        <f aca="false">K113/M113</f>
+        <v>1</v>
+      </c>
+      <c r="P113" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q113" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="R113" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="T113" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="U113" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="V113" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="W113" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="X113" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y113" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z113" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="AA113" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB113" s="16" t="s">
+        <v>615</v>
+      </c>
       <c r="AC113" s="16"/>
       <c r="AD113" s="16"/>
       <c r="AE113" s="16"/>
@@ -47202,8 +47330,140 @@
       <c r="AO927" s="16"/>
       <c r="AP927" s="16"/>
     </row>
+    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A928" s="16"/>
+      <c r="B928" s="16"/>
+      <c r="C928" s="16"/>
+      <c r="D928" s="16"/>
+      <c r="E928" s="16"/>
+      <c r="F928" s="16"/>
+      <c r="G928" s="16"/>
+      <c r="H928" s="16"/>
+      <c r="I928" s="16"/>
+      <c r="J928" s="16"/>
+      <c r="K928" s="17"/>
+      <c r="L928" s="16"/>
+      <c r="M928" s="17"/>
+      <c r="N928" s="16"/>
+      <c r="O928" s="16"/>
+      <c r="P928" s="16"/>
+      <c r="Q928" s="16"/>
+      <c r="R928" s="16"/>
+      <c r="S928" s="16"/>
+      <c r="T928" s="16"/>
+      <c r="U928" s="16"/>
+      <c r="V928" s="17"/>
+      <c r="W928" s="17"/>
+      <c r="X928" s="17"/>
+      <c r="Y928" s="17"/>
+      <c r="Z928" s="16"/>
+      <c r="AA928" s="16"/>
+      <c r="AB928" s="16"/>
+      <c r="AC928" s="16"/>
+      <c r="AD928" s="16"/>
+      <c r="AE928" s="16"/>
+      <c r="AF928" s="16"/>
+      <c r="AG928" s="16"/>
+      <c r="AH928" s="16"/>
+      <c r="AI928" s="16"/>
+      <c r="AJ928" s="16"/>
+      <c r="AK928" s="16"/>
+      <c r="AL928" s="16"/>
+      <c r="AM928" s="16"/>
+      <c r="AN928" s="16"/>
+      <c r="AO928" s="16"/>
+      <c r="AP928" s="16"/>
+    </row>
+    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A929" s="16"/>
+      <c r="B929" s="16"/>
+      <c r="C929" s="16"/>
+      <c r="D929" s="16"/>
+      <c r="E929" s="16"/>
+      <c r="F929" s="16"/>
+      <c r="G929" s="16"/>
+      <c r="H929" s="16"/>
+      <c r="I929" s="16"/>
+      <c r="J929" s="16"/>
+      <c r="K929" s="17"/>
+      <c r="L929" s="16"/>
+      <c r="M929" s="17"/>
+      <c r="N929" s="16"/>
+      <c r="O929" s="16"/>
+      <c r="P929" s="16"/>
+      <c r="Q929" s="16"/>
+      <c r="R929" s="16"/>
+      <c r="S929" s="16"/>
+      <c r="T929" s="16"/>
+      <c r="U929" s="16"/>
+      <c r="V929" s="17"/>
+      <c r="W929" s="17"/>
+      <c r="X929" s="17"/>
+      <c r="Y929" s="17"/>
+      <c r="Z929" s="16"/>
+      <c r="AA929" s="16"/>
+      <c r="AB929" s="16"/>
+      <c r="AC929" s="16"/>
+      <c r="AD929" s="16"/>
+      <c r="AE929" s="16"/>
+      <c r="AF929" s="16"/>
+      <c r="AG929" s="16"/>
+      <c r="AH929" s="16"/>
+      <c r="AI929" s="16"/>
+      <c r="AJ929" s="16"/>
+      <c r="AK929" s="16"/>
+      <c r="AL929" s="16"/>
+      <c r="AM929" s="16"/>
+      <c r="AN929" s="16"/>
+      <c r="AO929" s="16"/>
+      <c r="AP929" s="16"/>
+    </row>
+    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A930" s="16"/>
+      <c r="B930" s="16"/>
+      <c r="C930" s="16"/>
+      <c r="D930" s="16"/>
+      <c r="E930" s="16"/>
+      <c r="F930" s="16"/>
+      <c r="G930" s="16"/>
+      <c r="H930" s="16"/>
+      <c r="I930" s="16"/>
+      <c r="J930" s="16"/>
+      <c r="K930" s="17"/>
+      <c r="L930" s="16"/>
+      <c r="M930" s="17"/>
+      <c r="N930" s="16"/>
+      <c r="O930" s="16"/>
+      <c r="P930" s="16"/>
+      <c r="Q930" s="16"/>
+      <c r="R930" s="16"/>
+      <c r="S930" s="16"/>
+      <c r="T930" s="16"/>
+      <c r="U930" s="16"/>
+      <c r="V930" s="17"/>
+      <c r="W930" s="17"/>
+      <c r="X930" s="17"/>
+      <c r="Y930" s="17"/>
+      <c r="Z930" s="16"/>
+      <c r="AA930" s="16"/>
+      <c r="AB930" s="16"/>
+      <c r="AC930" s="16"/>
+      <c r="AD930" s="16"/>
+      <c r="AE930" s="16"/>
+      <c r="AF930" s="16"/>
+      <c r="AG930" s="16"/>
+      <c r="AH930" s="16"/>
+      <c r="AI930" s="16"/>
+      <c r="AJ930" s="16"/>
+      <c r="AK930" s="16"/>
+      <c r="AL930" s="16"/>
+      <c r="AM930" s="16"/>
+      <c r="AN930" s="16"/>
+      <c r="AO930" s="16"/>
+      <c r="AP930" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A14:AB110">
+  <autoFilter ref="A14:AB113">
     <filterColumn colId="18">
       <filters>
         <filter val="dm-rdf/ACCT"/>
@@ -47257,12 +47517,12 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="I15:I110">
+  <conditionalFormatting sqref="I15:I113">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K110">
+  <conditionalFormatting sqref="K15:K113">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>-1</formula>
     </cfRule>
@@ -47275,26 +47535,12 @@
     <hyperlink ref="C6" r:id="rId2" display="https://w3id.org/noria/ontology-bib/"/>
     <hyperlink ref="A9" r:id="rId3" display="See the xls2rdf converter at : https://skos-play.sparna.fr/play/convert"/>
     <hyperlink ref="A10" r:id="rId4" display="See the xls2rdf code at : https://github.com/sparna-git/xls2rdf"/>
-    <hyperlink ref="Q41" r:id="rId5" display="https://raw.githubusercontent.com/OWASP/OdTM/master/OdTMBaseThreatModel.owl "/>
-    <hyperlink ref="Q47" r:id="rId6" display="https://sepses.ifs.tuwien.ac.at/ns/logex/ontology.ttl"/>
-    <hyperlink ref="Q50" r:id="rId7" display="https://raw.githubusercontent.com/ucoProject/UCO/master/uco-core/core.ttl "/>
-    <hyperlink ref="P53" r:id="rId8" display="http://www.ontobee.org/ontology/GEO"/>
-    <hyperlink ref="Q55" r:id="rId9" display="http://ns.inria.fr/emoca/emoca.ttl "/>
-    <hyperlink ref="P64" r:id="rId10" display="https://github.com/HajoRijgersberg/OM"/>
-    <hyperlink ref="P65" r:id="rId11" display="http://www.daml.org/services/owl-s/1.1/"/>
-    <hyperlink ref="P66" r:id="rId12" display="https://www.w3.org/TR/owl-time/ "/>
-    <hyperlink ref="Q68" r:id="rId13" display="https://raw.githubusercontent.com/thesmartenergy/pep/master/pep-website/src/main/ontop/pep-1.1.ttl"/>
-    <hyperlink ref="P70" r:id="rId14" display="http://www.qudt.org/"/>
-    <hyperlink ref="P73" r:id="rId15" display="https://www.w3.org/2003/06/"/>
-    <hyperlink ref="Q73" r:id="rId16" display="https://www.w3.org/2003/06/sw-vocab-status/ns#"/>
-    <hyperlink ref="Q74" r:id="rId17" display="https://horus-ai.fbk.eu/helis/ontology/helis_v1.10.owl "/>
-    <hyperlink ref="P76" r:id="rId18" display="https://staff.fnwi.uva.nl/p.grosso/INDL.html"/>
-    <hyperlink ref="Q90" r:id="rId19" display="https://w3id.org/seas/CommunicationOntology-1.0.ttl"/>
-    <hyperlink ref="P91" r:id="rId20" display="https://qianruzhou333.github.io/toco_ontology/toco_doc.html "/>
-    <hyperlink ref="Q91" r:id="rId21" display="https://qianruzhou333.github.io/toco_ontology/resource/toco.rdf "/>
-    <hyperlink ref="Q94" r:id="rId22" display="http://www.w3.org/2011/http#"/>
-    <hyperlink ref="Q102" r:id="rId23" display="https://raw.githubusercontent.com/iot-ontologies/dogont/master/dogont.owl "/>
-    <hyperlink ref="P107" r:id="rId24" display="https://saref.etsi.org/extensions.html "/>
+    <hyperlink ref="Q93" r:id="rId5" display="https://w3id.org/seas/CommunicationOntology-1.0.ttl"/>
+    <hyperlink ref="P94" r:id="rId6" display="https://qianruzhou333.github.io/toco_ontology/toco_doc.html "/>
+    <hyperlink ref="Q94" r:id="rId7" display="https://qianruzhou333.github.io/toco_ontology/resource/toco.rdf "/>
+    <hyperlink ref="Q97" r:id="rId8" display="http://www.w3.org/2011/http#"/>
+    <hyperlink ref="Q105" r:id="rId9" display="https://raw.githubusercontent.com/iot-ontologies/dogont/master/dogont.owl "/>
+    <hyperlink ref="P110" r:id="rId10" display="https://saref.etsi.org/extensions.html "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
@@ -47303,6 +47549,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId25"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>